--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology_HK.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology_HK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onewri.sharepoint.com/sites/traccity/Shared Documents/HK 2050 is now/EPS v 1.43/InputData/trans/SYVbT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\trans\SYVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="588" documentId="10_ncr:100000_{983C6467-D858-4479-9F11-A6C266913CDF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{284C60FF-04B6-4A3A-B00D-1DEADBA2A00D}"/>
+  <xr:revisionPtr revIDLastSave="640" documentId="10_ncr:100000_{983C6467-D858-4479-9F11-A6C266913CDF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{01856F3F-FBA8-4A78-AEEF-B6666E8D1D7A}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="18840" windowHeight="8070" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9525" yWindow="1695" windowWidth="20460" windowHeight="11490" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <definedName name="wrn.Full_Set." localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"T3.1a";#N/A,#N/A,FALSE,"T3.1b";#N/A,#N/A,FALSE,"T3.2-3";#N/A,#N/A,FALSE,"T3.4a";#N/A,#N/A,FALSE,"T3.4b";#N/A,#N/A,FALSE,"T3.4c";#N/A,#N/A,FALSE,"T3.4d"}</definedName>
     <definedName name="wrn.Full_Set." hidden="1">{#N/A,#N/A,FALSE,"T3.1a";#N/A,#N/A,FALSE,"T3.1b";#N/A,#N/A,FALSE,"T3.2-3";#N/A,#N/A,FALSE,"T3.4a";#N/A,#N/A,FALSE,"T3.4b";#N/A,#N/A,FALSE,"T3.4c";#N/A,#N/A,FALSE,"T3.4d"}</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="349">
   <si>
     <t>SYVbT Start Year Vehicles by Technology</t>
   </si>
@@ -1659,9 +1659,6 @@
     <t>plugin hybrid vehicle</t>
   </si>
   <si>
-    <t>nonroad vehicle</t>
-  </si>
-  <si>
     <t>LDVs</t>
   </si>
   <si>
@@ -1684,6 +1681,12 @@
   </si>
   <si>
     <t>{3e8ee12f-b9ec-4a22-8587-d20e6899a3d9}</t>
+  </si>
+  <si>
+    <t>LPG vehicle</t>
+  </si>
+  <si>
+    <t>hydrogen vehicle</t>
   </si>
 </sst>
 </file>
@@ -2026,7 +2029,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2181,6 +2184,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2918,7 +2927,7 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="411">
+  <cellXfs count="413">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3674,16 +3683,100 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="39" fillId="0" borderId="31" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="39" fillId="0" borderId="22" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="39" fillId="0" borderId="28" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="44" fillId="0" borderId="0" xfId="73" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="37" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="39" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="27" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="28" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="28" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="28" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" xfId="73" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="73" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="73" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="39" fillId="0" borderId="31" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="73" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="73" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="73" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="39" fillId="0" borderId="25" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="39" fillId="0" borderId="22" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="39" fillId="0" borderId="21" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="39" fillId="0" borderId="28" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="39" fillId="0" borderId="26" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="43" fillId="0" borderId="31" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3695,85 +3788,22 @@
     <xf numFmtId="167" fontId="43" fillId="0" borderId="28" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="37" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="32" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="31" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="73" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="73" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="73" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="39" fillId="0" borderId="25" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="39" fillId="0" borderId="21" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="39" fillId="0" borderId="26" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="27" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="37" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" xfId="73" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="73" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="28" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="28" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="44" fillId="0" borderId="0" xfId="73" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="39" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="28" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3782,140 +3812,134 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="37" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="32" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="31" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
@@ -3935,25 +3959,12 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="149">
     <cellStyle name="20% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4651,8 +4662,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57:B61"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5883,8 +5894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DC630E-E65F-4458-8D98-EE4CA8EE7275}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7474,7 +7485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80370B6B-C8C8-4ADD-BF79-D843DB50CA69}">
   <dimension ref="D16:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -7582,7 +7593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C35040B-F22D-402D-A914-5EFB35677971}">
   <dimension ref="B62:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="G30" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
@@ -7617,15 +7628,15 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6560A6DA-A885-424D-BDDD-546158B022C1}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -7653,12 +7664,12 @@
         <v>284</v>
       </c>
       <c r="C2">
-        <f>'Vehicle Fuel Type'!D9+'Vehicle Fuel Type'!D11+'Vehicle Fuel Type'!D13</f>
-        <v>53719</v>
+        <f>'Vehicle Fuel Type'!C9+'Vehicle Fuel Type'!C11+'Vehicle Fuel Type'!C13</f>
+        <v>77133</v>
       </c>
       <c r="E2">
-        <f>'Vehicle Fuel Type'!H9</f>
-        <v>34</v>
+        <f>'Vehicle Fuel Type'!G9</f>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -7668,9 +7679,17 @@
       <c r="B3" t="s">
         <v>286</v>
       </c>
+      <c r="C3">
+        <f>'Vehicle Fuel Type'!C17</f>
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <f>'Vehicle Fuel Type'!G17</f>
+        <v>1</v>
+      </c>
       <c r="F3">
-        <f>'Vehicle Fuel Type'!J17+'Vehicle Fuel Type'!J19+'Vehicle Fuel Type'!J21</f>
-        <v>18138</v>
+        <f>'Vehicle Fuel Type'!I17+'Vehicle Fuel Type'!I19+'Vehicle Fuel Type'!I21</f>
+        <v>18152</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -7678,20 +7697,20 @@
         <v>287</v>
       </c>
       <c r="C4">
-        <f>'Vehicle Fuel Type'!D15+'Vehicle Fuel Type'!D17</f>
-        <v>535216</v>
+        <f>'Vehicle Fuel Type'!C15</f>
+        <v>582045</v>
       </c>
       <c r="D4">
-        <f>'Vehicle Fuel Type'!F15</f>
-        <v>11414</v>
+        <f>'Vehicle Fuel Type'!E15</f>
+        <v>11934</v>
       </c>
       <c r="E4">
-        <f>'Vehicle Fuel Type'!H15+'Vehicle Fuel Type'!H17</f>
-        <v>10207</v>
+        <f>'Vehicle Fuel Type'!G15+'Vehicle Fuel Type'!G17</f>
+        <v>10693</v>
       </c>
       <c r="G4">
-        <f>'Vehicle Fuel Type'!L15</f>
-        <v>46</v>
+        <f>'Vehicle Fuel Type'!K15</f>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -7699,34 +7718,34 @@
         <v>288</v>
       </c>
       <c r="D5">
-        <f>SUM('Vehicle Fuel Type'!F23:F42)</f>
-        <v>16812</v>
+        <f>SUM('Vehicle Fuel Type'!E23:E42)</f>
+        <v>16934</v>
       </c>
       <c r="E5">
-        <f>'Vehicle Fuel Type'!H23+'Vehicle Fuel Type'!H25+'Vehicle Fuel Type'!H27+'Vehicle Fuel Type'!H29+'Vehicle Fuel Type'!H36+'Vehicle Fuel Type'!H38+'Vehicle Fuel Type'!H42</f>
-        <v>44</v>
+        <f>SUM('Vehicle Fuel Type'!G23:G42)</f>
+        <v>45</v>
       </c>
       <c r="F5">
-        <f>'Vehicle Fuel Type'!J40+'Vehicle Fuel Type'!J42</f>
-        <v>4309</v>
-      </c>
-      <c r="N5" s="410"/>
+        <f>SUM('Vehicle Fuel Type'!I23:I42)</f>
+        <v>4319</v>
+      </c>
+      <c r="N5" s="317"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>289</v>
       </c>
       <c r="C6">
-        <f>'Vehicle Fuel Type'!D44</f>
-        <v>728</v>
+        <f>'Vehicle Fuel Type'!C44</f>
+        <v>824</v>
       </c>
       <c r="D6">
-        <f>'Vehicle Fuel Type'!F44</f>
-        <v>70652</v>
+        <f>'Vehicle Fuel Type'!E44</f>
+        <v>72348</v>
       </c>
       <c r="E6">
-        <f>'Vehicle Fuel Type'!H44</f>
-        <v>72</v>
+        <f>'Vehicle Fuel Type'!G44</f>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -7735,23 +7754,23 @@
       </c>
       <c r="B7" s="281"/>
       <c r="C7" s="281">
-        <f>'Vehicle Fuel Type'!D50</f>
-        <v>58</v>
+        <f>'Vehicle Fuel Type'!C50</f>
+        <v>77</v>
       </c>
       <c r="D7" s="281">
-        <f>'Vehicle Fuel Type'!F46+'Vehicle Fuel Type'!F48+'Vehicle Fuel Type'!F50</f>
-        <v>43841</v>
+        <f>'Vehicle Fuel Type'!E46+'Vehicle Fuel Type'!E48+'Vehicle Fuel Type'!E50</f>
+        <v>45029</v>
       </c>
       <c r="E7" s="281">
-        <f>'Vehicle Fuel Type'!H50</f>
-        <v>97</v>
+        <f>'Vehicle Fuel Type'!G50</f>
+        <v>105</v>
       </c>
       <c r="F7" s="281">
-        <f>'Vehicle Fuel Type'!J50</f>
-        <v>154</v>
+        <f>'Vehicle Fuel Type'!I50</f>
+        <v>206</v>
       </c>
       <c r="G7" s="281">
-        <f>'Vehicle Fuel Type'!L50</f>
+        <f>'Vehicle Fuel Type'!K50</f>
         <v>2</v>
       </c>
       <c r="H7" s="280"/>
@@ -7801,6 +7820,145 @@
     <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="C19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" t="s">
+        <v>209</v>
+      </c>
+      <c r="H19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C20">
+        <v>77133</v>
+      </c>
+      <c r="E20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>285</v>
+      </c>
+      <c r="B21" t="s">
+        <v>286</v>
+      </c>
+      <c r="F21">
+        <v>18138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22">
+        <v>535216</v>
+      </c>
+      <c r="D22">
+        <v>11414</v>
+      </c>
+      <c r="E22">
+        <v>10207</v>
+      </c>
+      <c r="G22">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>288</v>
+      </c>
+      <c r="D23">
+        <v>16812</v>
+      </c>
+      <c r="E23">
+        <v>44</v>
+      </c>
+      <c r="F23">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>289</v>
+      </c>
+      <c r="C24">
+        <v>728</v>
+      </c>
+      <c r="D24">
+        <v>70652</v>
+      </c>
+      <c r="E24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>290</v>
+      </c>
+      <c r="C25">
+        <v>58</v>
+      </c>
+      <c r="D25">
+        <v>43841</v>
+      </c>
+      <c r="E25">
+        <v>97</v>
+      </c>
+      <c r="F25">
+        <v>154</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>291</v>
+      </c>
+      <c r="H26">
+        <v>10684</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>292</v>
+      </c>
+      <c r="H27">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>293</v>
+      </c>
+      <c r="H28">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>294</v>
+      </c>
+      <c r="H29">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -7812,8 +7970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0923EA66-2305-4768-AA40-0867C39AEC3B}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8165,10 +8323,10 @@
   <sheetPr codeName="Sheet6">
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8182,7 +8340,7 @@
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="5" t="s">
         <v>334</v>
       </c>
@@ -8198,149 +8356,165 @@
       <c r="F1" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="B2" s="6">
         <f>'Fuel Type'!E4</f>
-        <v>10207</v>
-      </c>
-      <c r="C2" s="6">
-        <f>'Fuel Type'!F3</f>
-        <v>18138</v>
+        <v>10693</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" s="6">
         <f>'Fuel Type'!C4</f>
-        <v>535216</v>
+        <v>582045</v>
       </c>
       <c r="E2" s="6">
         <f>'Fuel Type'!D4</f>
-        <v>11414</v>
+        <v>11934</v>
       </c>
       <c r="F2" s="7">
         <f>'Fuel Type'!G4</f>
-        <v>46</v>
-      </c>
-      <c r="G2" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="G2" s="6">
+        <f>'Fuel Type'!F3</f>
+        <v>18152</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B3" s="7">
         <f>'Fuel Type'!E5</f>
-        <v>44</v>
-      </c>
-      <c r="C3" s="7">
-        <f>'Fuel Type'!F5</f>
-        <v>4309</v>
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3" s="8">
         <v>0</v>
       </c>
       <c r="E3" s="6">
         <f>'Fuel Type'!D5</f>
-        <v>16812</v>
+        <v>16934</v>
       </c>
       <c r="F3" s="8">
         <v>0</v>
       </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="7">
+        <f>'Fuel Type'!F5</f>
+        <v>4319</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="B4" s="319">
+        <v>0</v>
+      </c>
+      <c r="C4" s="318">
+        <v>0</v>
+      </c>
+      <c r="D4" s="319">
+        <v>0</v>
+      </c>
+      <c r="E4" s="319">
+        <v>0</v>
+      </c>
+      <c r="F4" s="319">
+        <v>0</v>
+      </c>
+      <c r="G4" s="319">
+        <v>0</v>
+      </c>
+      <c r="H4" s="318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <f>MTR!D22</f>
-        <v>442</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="B6" s="8">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <f>'Fuel Type'!H8</f>
-        <v>10684</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="B7" s="7">
         <f>'Fuel Type'!E2</f>
-        <v>34</v>
-      </c>
-      <c r="C7" s="8">
+        <v>44</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" s="7">
         <f>'Fuel Type'!C2</f>
-        <v>53719</v>
+        <v>77133</v>
       </c>
       <c r="E7" s="8">
         <v>0</v>
@@ -8349,6 +8523,9 @@
         <v>0</v>
       </c>
       <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
     </row>
@@ -8362,10 +8539,10 @@
   <sheetPr codeName="Sheet7">
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8379,7 +8556,7 @@
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="5" t="s">
         <v>334</v>
       </c>
@@ -8395,148 +8572,167 @@
       <c r="F1" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="B2">
         <f>'Fuel Type'!E6</f>
-        <v>72</v>
-      </c>
-      <c r="C2" s="4">
-        <f>'Fuel Type'!F6</f>
+        <v>83</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" s="277">
         <f>'Fuel Type'!C6</f>
-        <v>728</v>
+        <v>824</v>
       </c>
       <c r="E2">
         <f>'Fuel Type'!D6</f>
-        <v>70652</v>
+        <v>72348</v>
       </c>
       <c r="F2" s="4">
         <f>'Fuel Type'!G6</f>
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <f>'Fuel Type'!F6</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B3">
         <f>'Fuel Type'!E7</f>
-        <v>97</v>
-      </c>
-      <c r="C3" s="277">
-        <f>'Fuel Type'!F7</f>
-        <v>154</v>
+        <v>105</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3" s="277">
         <f>'Fuel Type'!C7</f>
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E3">
         <f>'Fuel Type'!D7</f>
-        <v>43841</v>
+        <v>45029</v>
       </c>
       <c r="F3" s="277">
         <f>'Fuel Type'!G7</f>
         <v>2</v>
       </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="277">
+        <f>'Fuel Type'!F7</f>
+        <v>206</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="B4" s="318">
+        <v>0</v>
+      </c>
+      <c r="C4" s="318">
+        <v>0</v>
+      </c>
+      <c r="D4" s="318">
+        <v>0</v>
+      </c>
+      <c r="E4" s="318">
+        <v>0</v>
+      </c>
+      <c r="F4" s="318">
+        <v>0</v>
+      </c>
+      <c r="G4" s="318">
+        <v>0</v>
+      </c>
+      <c r="H4" s="318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B5" s="318">
+        <v>0</v>
+      </c>
+      <c r="C5" s="318">
+        <v>0</v>
+      </c>
+      <c r="D5" s="318">
+        <v>0</v>
+      </c>
+      <c r="E5" s="318">
+        <v>0</v>
+      </c>
+      <c r="F5" s="318">
+        <v>0</v>
+      </c>
+      <c r="G5" s="318">
+        <v>0</v>
+      </c>
+      <c r="H5" s="318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <f>Ferries!C65</f>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
+        <f>'Fuel Type'!E3</f>
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" s="4">
-        <v>0</v>
+        <f>'Fuel Type'!C3</f>
+        <v>10</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -8544,7 +8740,11 @@
       <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="277">
+        <f>'Fuel Type'!F3</f>
+        <v>18152</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
     </row>
@@ -8563,17 +8763,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="275" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="275" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="275" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -8724,8 +8924,8 @@
   <sheetPr codeName="Module___1"/>
   <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43:K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8777,10 +8977,10 @@
       <c r="I2" s="98"/>
       <c r="O2" s="98"/>
       <c r="S2" s="97"/>
-      <c r="W2" s="345">
+      <c r="W2" s="323">
         <v>11</v>
       </c>
-      <c r="X2" s="345"/>
+      <c r="X2" s="323"/>
     </row>
     <row r="3" spans="1:24" ht="6" customHeight="1">
       <c r="G3" s="96"/>
@@ -8794,176 +8994,176 @@
     <row r="4" spans="1:24" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="95"/>
       <c r="B4" s="94"/>
-      <c r="C4" s="335" t="s">
+      <c r="C4" s="324" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="324"/>
-      <c r="E4" s="324"/>
-      <c r="F4" s="324"/>
-      <c r="G4" s="324"/>
-      <c r="H4" s="324"/>
-      <c r="I4" s="324"/>
-      <c r="J4" s="324"/>
-      <c r="K4" s="324"/>
-      <c r="L4" s="324"/>
-      <c r="M4" s="324"/>
-      <c r="N4" s="324"/>
-      <c r="O4" s="324"/>
-      <c r="P4" s="324"/>
-      <c r="Q4" s="336"/>
-      <c r="R4" s="324"/>
-      <c r="S4" s="324"/>
-      <c r="T4" s="324"/>
-      <c r="U4" s="324"/>
-      <c r="V4" s="336"/>
-      <c r="W4" s="324"/>
-      <c r="X4" s="346"/>
+      <c r="D4" s="325"/>
+      <c r="E4" s="325"/>
+      <c r="F4" s="325"/>
+      <c r="G4" s="325"/>
+      <c r="H4" s="325"/>
+      <c r="I4" s="325"/>
+      <c r="J4" s="325"/>
+      <c r="K4" s="325"/>
+      <c r="L4" s="325"/>
+      <c r="M4" s="325"/>
+      <c r="N4" s="325"/>
+      <c r="O4" s="325"/>
+      <c r="P4" s="325"/>
+      <c r="Q4" s="326"/>
+      <c r="R4" s="325"/>
+      <c r="S4" s="325"/>
+      <c r="T4" s="325"/>
+      <c r="U4" s="325"/>
+      <c r="V4" s="326"/>
+      <c r="W4" s="325"/>
+      <c r="X4" s="327"/>
     </row>
     <row r="5" spans="1:24" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="93"/>
       <c r="B5" s="91"/>
-      <c r="C5" s="325" t="s">
+      <c r="C5" s="328" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="326"/>
-      <c r="E5" s="326"/>
-      <c r="F5" s="326"/>
-      <c r="G5" s="326"/>
-      <c r="H5" s="326"/>
-      <c r="I5" s="326"/>
-      <c r="J5" s="326"/>
-      <c r="K5" s="326"/>
-      <c r="L5" s="326"/>
-      <c r="M5" s="326"/>
-      <c r="N5" s="326"/>
-      <c r="O5" s="326"/>
-      <c r="P5" s="326"/>
-      <c r="Q5" s="327"/>
-      <c r="R5" s="326"/>
-      <c r="S5" s="326"/>
-      <c r="T5" s="326"/>
-      <c r="U5" s="326"/>
-      <c r="V5" s="327"/>
-      <c r="W5" s="326"/>
-      <c r="X5" s="334"/>
+      <c r="D5" s="329"/>
+      <c r="E5" s="329"/>
+      <c r="F5" s="329"/>
+      <c r="G5" s="329"/>
+      <c r="H5" s="329"/>
+      <c r="I5" s="329"/>
+      <c r="J5" s="329"/>
+      <c r="K5" s="329"/>
+      <c r="L5" s="329"/>
+      <c r="M5" s="329"/>
+      <c r="N5" s="329"/>
+      <c r="O5" s="329"/>
+      <c r="P5" s="329"/>
+      <c r="Q5" s="330"/>
+      <c r="R5" s="329"/>
+      <c r="S5" s="329"/>
+      <c r="T5" s="329"/>
+      <c r="U5" s="329"/>
+      <c r="V5" s="330"/>
+      <c r="W5" s="329"/>
+      <c r="X5" s="331"/>
     </row>
     <row r="6" spans="1:24" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="92"/>
       <c r="B6" s="91"/>
-      <c r="C6" s="347" t="s">
+      <c r="C6" s="332" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="348"/>
-      <c r="E6" s="348"/>
-      <c r="F6" s="348"/>
-      <c r="G6" s="348"/>
-      <c r="H6" s="348"/>
-      <c r="I6" s="349" t="s">
+      <c r="D6" s="333"/>
+      <c r="E6" s="333"/>
+      <c r="F6" s="333"/>
+      <c r="G6" s="333"/>
+      <c r="H6" s="333"/>
+      <c r="I6" s="334" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="348"/>
-      <c r="K6" s="348"/>
-      <c r="L6" s="350" t="s">
+      <c r="J6" s="333"/>
+      <c r="K6" s="333"/>
+      <c r="L6" s="335" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="348"/>
-      <c r="N6" s="341"/>
-      <c r="O6" s="349" t="s">
+      <c r="M6" s="333"/>
+      <c r="N6" s="336"/>
+      <c r="O6" s="334" t="s">
         <v>78</v>
       </c>
-      <c r="P6" s="348"/>
-      <c r="Q6" s="341"/>
-      <c r="R6" s="350" t="s">
+      <c r="P6" s="333"/>
+      <c r="Q6" s="336"/>
+      <c r="R6" s="335" t="s">
         <v>79</v>
       </c>
-      <c r="S6" s="341"/>
-      <c r="T6" s="335" t="s">
+      <c r="S6" s="336"/>
+      <c r="T6" s="324" t="s">
         <v>80</v>
       </c>
-      <c r="U6" s="324"/>
-      <c r="V6" s="336"/>
-      <c r="W6" s="324"/>
-      <c r="X6" s="346"/>
+      <c r="U6" s="325"/>
+      <c r="V6" s="326"/>
+      <c r="W6" s="325"/>
+      <c r="X6" s="327"/>
     </row>
     <row r="7" spans="1:24" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="87"/>
       <c r="B7" s="91"/>
-      <c r="C7" s="325" t="s">
+      <c r="C7" s="328" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="326"/>
-      <c r="E7" s="326"/>
-      <c r="F7" s="326"/>
-      <c r="G7" s="326"/>
-      <c r="H7" s="327"/>
-      <c r="I7" s="342" t="s">
+      <c r="D7" s="329"/>
+      <c r="E7" s="329"/>
+      <c r="F7" s="329"/>
+      <c r="G7" s="329"/>
+      <c r="H7" s="330"/>
+      <c r="I7" s="338" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="326"/>
-      <c r="K7" s="326"/>
-      <c r="L7" s="326"/>
-      <c r="M7" s="326"/>
-      <c r="N7" s="327"/>
-      <c r="O7" s="342" t="s">
+      <c r="J7" s="329"/>
+      <c r="K7" s="329"/>
+      <c r="L7" s="329"/>
+      <c r="M7" s="329"/>
+      <c r="N7" s="330"/>
+      <c r="O7" s="338" t="s">
         <v>83</v>
       </c>
-      <c r="P7" s="326"/>
-      <c r="Q7" s="327"/>
-      <c r="R7" s="326"/>
-      <c r="S7" s="327"/>
-      <c r="T7" s="325" t="s">
+      <c r="P7" s="329"/>
+      <c r="Q7" s="330"/>
+      <c r="R7" s="329"/>
+      <c r="S7" s="330"/>
+      <c r="T7" s="328" t="s">
         <v>84</v>
       </c>
-      <c r="U7" s="326"/>
-      <c r="V7" s="327"/>
-      <c r="W7" s="326"/>
-      <c r="X7" s="334"/>
+      <c r="U7" s="329"/>
+      <c r="V7" s="330"/>
+      <c r="W7" s="329"/>
+      <c r="X7" s="331"/>
     </row>
     <row r="8" spans="1:24" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="87" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="82"/>
-      <c r="C8" s="335" t="s">
+      <c r="C8" s="324" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="324"/>
-      <c r="E8" s="324"/>
-      <c r="F8" s="336"/>
+      <c r="D8" s="325"/>
+      <c r="E8" s="325"/>
+      <c r="F8" s="326"/>
       <c r="G8" s="89" t="s">
         <v>87</v>
       </c>
       <c r="H8" s="303" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="337" t="s">
+      <c r="I8" s="341" t="s">
         <v>86</v>
       </c>
-      <c r="J8" s="324"/>
-      <c r="K8" s="324"/>
-      <c r="L8" s="338" t="s">
+      <c r="J8" s="325"/>
+      <c r="K8" s="325"/>
+      <c r="L8" s="342" t="s">
         <v>87</v>
       </c>
-      <c r="M8" s="339"/>
+      <c r="M8" s="343"/>
       <c r="N8" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="O8" s="337" t="s">
+      <c r="O8" s="341" t="s">
         <v>86</v>
       </c>
-      <c r="P8" s="324"/>
-      <c r="Q8" s="336"/>
+      <c r="P8" s="325"/>
+      <c r="Q8" s="326"/>
       <c r="R8" s="90" t="s">
         <v>87</v>
       </c>
       <c r="S8" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="T8" s="335" t="s">
+      <c r="T8" s="324" t="s">
         <v>86</v>
       </c>
-      <c r="U8" s="324"/>
-      <c r="V8" s="336"/>
+      <c r="U8" s="325"/>
+      <c r="V8" s="326"/>
       <c r="W8" s="89" t="s">
         <v>87</v>
       </c>
@@ -8974,46 +9174,46 @@
     <row r="9" spans="1:24" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A9" s="87"/>
       <c r="B9" s="82"/>
-      <c r="C9" s="325" t="s">
+      <c r="C9" s="328" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="326"/>
-      <c r="E9" s="326"/>
-      <c r="F9" s="327"/>
+      <c r="D9" s="329"/>
+      <c r="E9" s="329"/>
+      <c r="F9" s="330"/>
       <c r="G9" s="301" t="s">
         <v>90</v>
       </c>
       <c r="H9" s="301" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="342" t="s">
+      <c r="I9" s="338" t="s">
         <v>89</v>
       </c>
-      <c r="J9" s="326"/>
-      <c r="K9" s="326"/>
-      <c r="L9" s="343" t="s">
+      <c r="J9" s="329"/>
+      <c r="K9" s="329"/>
+      <c r="L9" s="339" t="s">
         <v>90</v>
       </c>
-      <c r="M9" s="344"/>
+      <c r="M9" s="340"/>
       <c r="N9" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="O9" s="342" t="s">
+      <c r="O9" s="338" t="s">
         <v>89</v>
       </c>
-      <c r="P9" s="326"/>
-      <c r="Q9" s="327"/>
+      <c r="P9" s="329"/>
+      <c r="Q9" s="330"/>
       <c r="R9" s="86" t="s">
         <v>90</v>
       </c>
       <c r="S9" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="T9" s="325" t="s">
+      <c r="T9" s="328" t="s">
         <v>89</v>
       </c>
-      <c r="U9" s="326"/>
-      <c r="V9" s="327"/>
+      <c r="U9" s="329"/>
+      <c r="V9" s="330"/>
       <c r="W9" s="301" t="s">
         <v>90</v>
       </c>
@@ -9026,10 +9226,10 @@
         <v>91</v>
       </c>
       <c r="B10" s="82"/>
-      <c r="C10" s="335" t="s">
+      <c r="C10" s="324" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="336"/>
+      <c r="D10" s="326"/>
       <c r="E10" s="77" t="s">
         <v>93</v>
       </c>
@@ -9051,10 +9251,10 @@
       <c r="K10" s="302" t="s">
         <v>94</v>
       </c>
-      <c r="L10" s="340" t="s">
+      <c r="L10" s="337" t="s">
         <v>95</v>
       </c>
-      <c r="M10" s="341"/>
+      <c r="M10" s="336"/>
       <c r="N10" s="79" t="s">
         <v>95</v>
       </c>
@@ -9092,10 +9292,10 @@
     <row r="11" spans="1:24" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A11" s="74"/>
       <c r="B11" s="73"/>
-      <c r="C11" s="325" t="s">
+      <c r="C11" s="328" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="327"/>
+      <c r="D11" s="330"/>
       <c r="E11" s="297" t="s">
         <v>97</v>
       </c>
@@ -9117,10 +9317,10 @@
       <c r="K11" s="300" t="s">
         <v>84</v>
       </c>
-      <c r="L11" s="329" t="s">
+      <c r="L11" s="346" t="s">
         <v>98</v>
       </c>
-      <c r="M11" s="330"/>
+      <c r="M11" s="347"/>
       <c r="N11" s="70" t="s">
         <v>99</v>
       </c>
@@ -9186,10 +9386,10 @@
         <v>2013</v>
       </c>
       <c r="B13" s="57"/>
-      <c r="C13" s="321">
+      <c r="C13" s="351">
         <v>4136</v>
       </c>
-      <c r="D13" s="322"/>
+      <c r="D13" s="352"/>
       <c r="E13" s="49">
         <v>199</v>
       </c>
@@ -9211,10 +9411,10 @@
       <c r="K13" s="49">
         <v>2</v>
       </c>
-      <c r="L13" s="323">
+      <c r="L13" s="353">
         <v>48</v>
       </c>
-      <c r="M13" s="322"/>
+      <c r="M13" s="352"/>
       <c r="N13" s="49">
         <v>35</v>
       </c>
@@ -9254,10 +9454,10 @@
         <v>2014</v>
       </c>
       <c r="B14" s="42"/>
-      <c r="C14" s="321">
+      <c r="C14" s="351">
         <v>4814</v>
       </c>
-      <c r="D14" s="322"/>
+      <c r="D14" s="352"/>
       <c r="E14" s="49">
         <v>261</v>
       </c>
@@ -9279,10 +9479,10 @@
       <c r="K14" s="49">
         <v>6</v>
       </c>
-      <c r="L14" s="323">
+      <c r="L14" s="353">
         <v>52</v>
       </c>
-      <c r="M14" s="322"/>
+      <c r="M14" s="352"/>
       <c r="N14" s="49">
         <v>36</v>
       </c>
@@ -9322,10 +9522,10 @@
         <v>2015</v>
       </c>
       <c r="B15" s="42"/>
-      <c r="C15" s="321">
+      <c r="C15" s="351">
         <v>5383</v>
       </c>
-      <c r="D15" s="322"/>
+      <c r="D15" s="352"/>
       <c r="E15" s="49">
         <v>511</v>
       </c>
@@ -9347,10 +9547,10 @@
       <c r="K15" s="49">
         <v>7</v>
       </c>
-      <c r="L15" s="323">
+      <c r="L15" s="353">
         <v>58</v>
       </c>
-      <c r="M15" s="322"/>
+      <c r="M15" s="352"/>
       <c r="N15" s="49">
         <v>39</v>
       </c>
@@ -9390,10 +9590,10 @@
         <v>2016</v>
       </c>
       <c r="B16" s="42"/>
-      <c r="C16" s="321">
+      <c r="C16" s="351">
         <v>4960</v>
       </c>
-      <c r="D16" s="322"/>
+      <c r="D16" s="352"/>
       <c r="E16" s="49">
         <v>441</v>
       </c>
@@ -9415,10 +9615,10 @@
       <c r="K16" s="49">
         <v>9</v>
       </c>
-      <c r="L16" s="323">
+      <c r="L16" s="353">
         <v>67</v>
       </c>
-      <c r="M16" s="322"/>
+      <c r="M16" s="352"/>
       <c r="N16" s="49">
         <v>47</v>
       </c>
@@ -9458,10 +9658,10 @@
         <v>2017</v>
       </c>
       <c r="B17" s="42"/>
-      <c r="C17" s="321">
+      <c r="C17" s="351">
         <v>5269</v>
       </c>
-      <c r="D17" s="322"/>
+      <c r="D17" s="352"/>
       <c r="E17" s="49">
         <v>390</v>
       </c>
@@ -9483,10 +9683,10 @@
       <c r="K17" s="52">
         <v>8</v>
       </c>
-      <c r="L17" s="323">
+      <c r="L17" s="353">
         <v>75</v>
       </c>
-      <c r="M17" s="322"/>
+      <c r="M17" s="352"/>
       <c r="N17" s="49">
         <v>61</v>
       </c>
@@ -9524,8 +9724,8 @@
     <row r="18" spans="1:24" s="12" customFormat="1" ht="6" customHeight="1">
       <c r="A18" s="43"/>
       <c r="B18" s="42"/>
-      <c r="C18" s="318"/>
-      <c r="D18" s="319"/>
+      <c r="C18" s="320"/>
+      <c r="D18" s="321"/>
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
@@ -9533,8 +9733,8 @@
       <c r="I18" s="295"/>
       <c r="J18" s="295"/>
       <c r="K18" s="295"/>
-      <c r="L18" s="320"/>
-      <c r="M18" s="319"/>
+      <c r="L18" s="322"/>
+      <c r="M18" s="321"/>
       <c r="N18" s="41"/>
       <c r="O18" s="41"/>
       <c r="P18" s="41"/>
@@ -9550,8 +9750,8 @@
     <row r="19" spans="1:24" s="12" customFormat="1" ht="6" customHeight="1">
       <c r="A19" s="43"/>
       <c r="B19" s="42"/>
-      <c r="C19" s="318"/>
-      <c r="D19" s="319"/>
+      <c r="C19" s="320"/>
+      <c r="D19" s="321"/>
       <c r="E19" s="41"/>
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
@@ -9559,8 +9759,8 @@
       <c r="I19" s="295"/>
       <c r="J19" s="295"/>
       <c r="K19" s="295"/>
-      <c r="L19" s="320"/>
-      <c r="M19" s="319"/>
+      <c r="L19" s="322"/>
+      <c r="M19" s="321"/>
       <c r="N19" s="41"/>
       <c r="O19" s="41"/>
       <c r="P19" s="41"/>
@@ -9576,8 +9776,8 @@
     <row r="20" spans="1:24" s="12" customFormat="1" ht="6" customHeight="1">
       <c r="A20" s="43"/>
       <c r="B20" s="42"/>
-      <c r="C20" s="318"/>
-      <c r="D20" s="319"/>
+      <c r="C20" s="320"/>
+      <c r="D20" s="321"/>
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
@@ -9585,8 +9785,8 @@
       <c r="I20" s="295"/>
       <c r="J20" s="295"/>
       <c r="K20" s="295"/>
-      <c r="L20" s="320"/>
-      <c r="M20" s="319"/>
+      <c r="L20" s="322"/>
+      <c r="M20" s="321"/>
       <c r="N20" s="41"/>
       <c r="O20" s="41"/>
       <c r="P20" s="41"/>
@@ -9602,8 +9802,8 @@
     <row r="21" spans="1:24" s="12" customFormat="1" ht="6" customHeight="1">
       <c r="A21" s="43"/>
       <c r="B21" s="42"/>
-      <c r="C21" s="318"/>
-      <c r="D21" s="319"/>
+      <c r="C21" s="320"/>
+      <c r="D21" s="321"/>
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
@@ -9611,8 +9811,8 @@
       <c r="I21" s="46"/>
       <c r="J21" s="46"/>
       <c r="K21" s="47"/>
-      <c r="L21" s="320"/>
-      <c r="M21" s="319"/>
+      <c r="L21" s="322"/>
+      <c r="M21" s="321"/>
       <c r="N21" s="41"/>
       <c r="O21" s="46"/>
       <c r="P21" s="46"/>
@@ -9632,10 +9832,10 @@
       <c r="B22" s="42">
         <v>6</v>
       </c>
-      <c r="C22" s="318">
+      <c r="C22" s="320">
         <v>482</v>
       </c>
-      <c r="D22" s="319"/>
+      <c r="D22" s="321"/>
       <c r="E22" s="41">
         <v>33</v>
       </c>
@@ -9657,10 +9857,10 @@
       <c r="K22" s="295">
         <v>1</v>
       </c>
-      <c r="L22" s="320">
+      <c r="L22" s="322">
         <v>71</v>
       </c>
-      <c r="M22" s="319"/>
+      <c r="M22" s="321"/>
       <c r="N22" s="41">
         <v>52</v>
       </c>
@@ -9700,10 +9900,10 @@
       <c r="B23" s="42">
         <v>7</v>
       </c>
-      <c r="C23" s="318">
+      <c r="C23" s="320">
         <v>546</v>
       </c>
-      <c r="D23" s="319"/>
+      <c r="D23" s="321"/>
       <c r="E23" s="41">
         <v>45</v>
       </c>
@@ -9725,10 +9925,10 @@
       <c r="K23" s="295">
         <v>0</v>
       </c>
-      <c r="L23" s="320">
+      <c r="L23" s="322">
         <v>71</v>
       </c>
-      <c r="M23" s="319"/>
+      <c r="M23" s="321"/>
       <c r="N23" s="41">
         <v>52</v>
       </c>
@@ -9768,10 +9968,10 @@
       <c r="B24" s="42">
         <v>8</v>
       </c>
-      <c r="C24" s="318">
+      <c r="C24" s="320">
         <v>559</v>
       </c>
-      <c r="D24" s="319"/>
+      <c r="D24" s="321"/>
       <c r="E24" s="41">
         <v>28</v>
       </c>
@@ -9793,10 +9993,10 @@
       <c r="K24" s="295">
         <v>0</v>
       </c>
-      <c r="L24" s="320">
+      <c r="L24" s="322">
         <v>71</v>
       </c>
-      <c r="M24" s="319"/>
+      <c r="M24" s="321"/>
       <c r="N24" s="41">
         <v>52</v>
       </c>
@@ -9836,10 +10036,10 @@
       <c r="B25" s="42">
         <v>9</v>
       </c>
-      <c r="C25" s="318">
+      <c r="C25" s="320">
         <v>525</v>
       </c>
-      <c r="D25" s="319"/>
+      <c r="D25" s="321"/>
       <c r="E25" s="41">
         <v>28</v>
       </c>
@@ -9861,10 +10061,10 @@
       <c r="K25" s="295">
         <v>3</v>
       </c>
-      <c r="L25" s="320">
+      <c r="L25" s="322">
         <v>74</v>
       </c>
-      <c r="M25" s="319"/>
+      <c r="M25" s="321"/>
       <c r="N25" s="41">
         <v>57</v>
       </c>
@@ -9904,10 +10104,10 @@
       <c r="B26" s="42">
         <v>10</v>
       </c>
-      <c r="C26" s="318">
+      <c r="C26" s="320">
         <v>422</v>
       </c>
-      <c r="D26" s="319"/>
+      <c r="D26" s="321"/>
       <c r="E26" s="41">
         <v>31</v>
       </c>
@@ -9929,10 +10129,10 @@
       <c r="K26" s="295">
         <v>0</v>
       </c>
-      <c r="L26" s="320">
+      <c r="L26" s="322">
         <v>74</v>
       </c>
-      <c r="M26" s="319"/>
+      <c r="M26" s="321"/>
       <c r="N26" s="41">
         <v>55</v>
       </c>
@@ -9972,10 +10172,10 @@
       <c r="B27" s="42">
         <v>11</v>
       </c>
-      <c r="C27" s="318">
+      <c r="C27" s="320">
         <v>519</v>
       </c>
-      <c r="D27" s="319"/>
+      <c r="D27" s="321"/>
       <c r="E27" s="41">
         <v>37</v>
       </c>
@@ -9997,10 +10197,10 @@
       <c r="K27" s="295">
         <v>1</v>
       </c>
-      <c r="L27" s="320">
+      <c r="L27" s="322">
         <v>75</v>
       </c>
-      <c r="M27" s="319"/>
+      <c r="M27" s="321"/>
       <c r="N27" s="41">
         <v>57</v>
       </c>
@@ -10040,10 +10240,10 @@
       <c r="B28" s="42">
         <v>12</v>
       </c>
-      <c r="C28" s="318">
+      <c r="C28" s="320">
         <v>337</v>
       </c>
-      <c r="D28" s="319"/>
+      <c r="D28" s="321"/>
       <c r="E28" s="41">
         <v>21</v>
       </c>
@@ -10065,10 +10265,10 @@
       <c r="K28" s="295">
         <v>0</v>
       </c>
-      <c r="L28" s="320">
+      <c r="L28" s="322">
         <v>75</v>
       </c>
-      <c r="M28" s="319"/>
+      <c r="M28" s="321"/>
       <c r="N28" s="41">
         <v>61</v>
       </c>
@@ -10136,10 +10336,10 @@
       <c r="B30" s="42">
         <v>1</v>
       </c>
-      <c r="C30" s="318">
+      <c r="C30" s="320">
         <v>382</v>
       </c>
-      <c r="D30" s="319"/>
+      <c r="D30" s="321"/>
       <c r="E30" s="41">
         <v>28</v>
       </c>
@@ -10161,10 +10361,10 @@
       <c r="K30" s="295">
         <v>2</v>
       </c>
-      <c r="L30" s="320">
+      <c r="L30" s="322">
         <v>76</v>
       </c>
-      <c r="M30" s="319"/>
+      <c r="M30" s="321"/>
       <c r="N30" s="41">
         <v>64</v>
       </c>
@@ -10204,10 +10404,10 @@
       <c r="B31" s="42">
         <v>2</v>
       </c>
-      <c r="C31" s="318">
+      <c r="C31" s="320">
         <v>249</v>
       </c>
-      <c r="D31" s="319"/>
+      <c r="D31" s="321"/>
       <c r="E31" s="41">
         <v>25</v>
       </c>
@@ -10229,10 +10429,10 @@
       <c r="K31" s="295">
         <v>0</v>
       </c>
-      <c r="L31" s="320">
+      <c r="L31" s="322">
         <v>76</v>
       </c>
-      <c r="M31" s="319"/>
+      <c r="M31" s="321"/>
       <c r="N31" s="41">
         <v>64</v>
       </c>
@@ -10272,10 +10472,10 @@
       <c r="B32" s="42">
         <v>3</v>
       </c>
-      <c r="C32" s="318">
+      <c r="C32" s="320">
         <v>421</v>
       </c>
-      <c r="D32" s="319"/>
+      <c r="D32" s="321"/>
       <c r="E32" s="41">
         <v>28</v>
       </c>
@@ -10297,10 +10497,10 @@
       <c r="K32" s="295">
         <v>1</v>
       </c>
-      <c r="L32" s="320">
+      <c r="L32" s="322">
         <v>77</v>
       </c>
-      <c r="M32" s="319"/>
+      <c r="M32" s="321"/>
       <c r="N32" s="41">
         <v>65</v>
       </c>
@@ -10340,10 +10540,10 @@
       <c r="B33" s="42">
         <v>4</v>
       </c>
-      <c r="C33" s="318">
+      <c r="C33" s="320">
         <v>489</v>
       </c>
-      <c r="D33" s="319"/>
+      <c r="D33" s="321"/>
       <c r="E33" s="41">
         <v>24</v>
       </c>
@@ -10365,10 +10565,10 @@
       <c r="K33" s="295">
         <v>1</v>
       </c>
-      <c r="L33" s="320">
+      <c r="L33" s="322">
         <v>78</v>
       </c>
-      <c r="M33" s="319"/>
+      <c r="M33" s="321"/>
       <c r="N33" s="41">
         <v>61</v>
       </c>
@@ -10408,10 +10608,10 @@
       <c r="B34" s="42">
         <v>5</v>
       </c>
-      <c r="C34" s="318">
+      <c r="C34" s="320">
         <v>448</v>
       </c>
-      <c r="D34" s="319"/>
+      <c r="D34" s="321"/>
       <c r="E34" s="41">
         <v>26</v>
       </c>
@@ -10433,10 +10633,10 @@
       <c r="K34" s="295">
         <v>1</v>
       </c>
-      <c r="L34" s="320">
+      <c r="L34" s="322">
         <v>79</v>
       </c>
-      <c r="M34" s="319"/>
+      <c r="M34" s="321"/>
       <c r="N34" s="41">
         <v>61</v>
       </c>
@@ -10476,10 +10676,10 @@
       <c r="B35" s="42">
         <v>6</v>
       </c>
-      <c r="C35" s="318">
+      <c r="C35" s="320">
         <v>439</v>
       </c>
-      <c r="D35" s="319"/>
+      <c r="D35" s="321"/>
       <c r="E35" s="41">
         <v>21</v>
       </c>
@@ -10501,10 +10701,10 @@
       <c r="K35" s="295">
         <v>1</v>
       </c>
-      <c r="L35" s="320">
+      <c r="L35" s="322">
         <v>80</v>
       </c>
-      <c r="M35" s="319"/>
+      <c r="M35" s="321"/>
       <c r="N35" s="41">
         <v>61</v>
       </c>
@@ -10544,10 +10744,10 @@
       <c r="B36" s="42">
         <v>7</v>
       </c>
-      <c r="C36" s="318">
+      <c r="C36" s="320">
         <v>383</v>
       </c>
-      <c r="D36" s="319"/>
+      <c r="D36" s="321"/>
       <c r="E36" s="41">
         <v>20</v>
       </c>
@@ -10569,10 +10769,10 @@
       <c r="K36" s="295">
         <v>0</v>
       </c>
-      <c r="L36" s="320">
+      <c r="L36" s="322">
         <v>79</v>
       </c>
-      <c r="M36" s="319"/>
+      <c r="M36" s="321"/>
       <c r="N36" s="41">
         <v>60</v>
       </c>
@@ -10612,10 +10812,10 @@
       <c r="B37" s="42">
         <v>8</v>
       </c>
-      <c r="C37" s="318">
+      <c r="C37" s="320">
         <v>440</v>
       </c>
-      <c r="D37" s="319"/>
+      <c r="D37" s="321"/>
       <c r="E37" s="41">
         <v>35</v>
       </c>
@@ -10637,10 +10837,10 @@
       <c r="K37" s="295">
         <v>2</v>
       </c>
-      <c r="L37" s="320">
+      <c r="L37" s="322">
         <v>81</v>
       </c>
-      <c r="M37" s="319"/>
+      <c r="M37" s="321"/>
       <c r="N37" s="41">
         <v>64</v>
       </c>
@@ -10680,10 +10880,10 @@
       <c r="B38" s="42">
         <v>9</v>
       </c>
-      <c r="C38" s="318">
+      <c r="C38" s="320">
         <v>359</v>
       </c>
-      <c r="D38" s="319"/>
+      <c r="D38" s="321"/>
       <c r="E38" s="41">
         <v>27</v>
       </c>
@@ -10705,10 +10905,10 @@
       <c r="K38" s="295">
         <v>0</v>
       </c>
-      <c r="L38" s="320">
+      <c r="L38" s="322">
         <v>81</v>
       </c>
-      <c r="M38" s="319"/>
+      <c r="M38" s="321"/>
       <c r="N38" s="41">
         <v>60</v>
       </c>
@@ -10748,10 +10948,10 @@
       <c r="B39" s="42">
         <v>10</v>
       </c>
-      <c r="C39" s="318">
+      <c r="C39" s="320">
         <v>445</v>
       </c>
-      <c r="D39" s="319"/>
+      <c r="D39" s="321"/>
       <c r="E39" s="41">
         <v>32</v>
       </c>
@@ -10773,10 +10973,10 @@
       <c r="K39" s="295">
         <v>1</v>
       </c>
-      <c r="L39" s="320">
+      <c r="L39" s="322">
         <v>82</v>
       </c>
-      <c r="M39" s="319"/>
+      <c r="M39" s="321"/>
       <c r="N39" s="41">
         <v>61</v>
       </c>
@@ -10816,10 +11016,10 @@
       <c r="B40" s="42">
         <v>11</v>
       </c>
-      <c r="C40" s="318">
+      <c r="C40" s="320">
         <v>462</v>
       </c>
-      <c r="D40" s="319"/>
+      <c r="D40" s="321"/>
       <c r="E40" s="41">
         <v>33</v>
       </c>
@@ -10841,10 +11041,10 @@
       <c r="K40" s="295">
         <v>0</v>
       </c>
-      <c r="L40" s="320">
+      <c r="L40" s="322">
         <v>82</v>
       </c>
-      <c r="M40" s="319"/>
+      <c r="M40" s="321"/>
       <c r="N40" s="41">
         <v>63</v>
       </c>
@@ -10885,8 +11085,8 @@
     <row r="41" spans="1:25" s="12" customFormat="1" ht="6" customHeight="1">
       <c r="A41" s="34"/>
       <c r="B41" s="33"/>
-      <c r="C41" s="333"/>
-      <c r="D41" s="332"/>
+      <c r="C41" s="350"/>
+      <c r="D41" s="349"/>
       <c r="E41" s="30"/>
       <c r="F41" s="30"/>
       <c r="G41" s="26"/>
@@ -10894,8 +11094,8 @@
       <c r="I41" s="306"/>
       <c r="J41" s="306"/>
       <c r="K41" s="32"/>
-      <c r="L41" s="331"/>
-      <c r="M41" s="332"/>
+      <c r="L41" s="348"/>
+      <c r="M41" s="349"/>
       <c r="N41" s="30"/>
       <c r="O41" s="28"/>
       <c r="P41" s="28"/>
@@ -10909,148 +11109,148 @@
       <c r="X41" s="25"/>
     </row>
     <row r="42" spans="1:25" s="12" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C42" s="324"/>
-      <c r="D42" s="324"/>
+      <c r="C42" s="325"/>
+      <c r="D42" s="325"/>
       <c r="G42" s="24"/>
-      <c r="L42" s="324"/>
-      <c r="M42" s="324"/>
+      <c r="L42" s="325"/>
+      <c r="M42" s="325"/>
     </row>
     <row r="43" spans="1:25" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A43" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="317" t="s">
+      <c r="B43" s="344" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="317"/>
-      <c r="D43" s="317" t="s">
+      <c r="C43" s="344"/>
+      <c r="D43" s="344" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="317"/>
-      <c r="F43" s="317"/>
-      <c r="G43" s="317"/>
-      <c r="H43" s="317"/>
-      <c r="I43" s="317"/>
-      <c r="J43" s="317"/>
-      <c r="K43" s="317"/>
+      <c r="E43" s="344"/>
+      <c r="F43" s="344"/>
+      <c r="G43" s="344"/>
+      <c r="H43" s="344"/>
+      <c r="I43" s="344"/>
+      <c r="J43" s="344"/>
+      <c r="K43" s="344"/>
       <c r="L43" s="14"/>
       <c r="M43" s="14"/>
       <c r="N43" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="O43" s="328" t="s">
+      <c r="O43" s="345" t="s">
         <v>105</v>
       </c>
-      <c r="P43" s="328"/>
-      <c r="Q43" s="328" t="s">
+      <c r="P43" s="345"/>
+      <c r="Q43" s="345" t="s">
         <v>106</v>
       </c>
-      <c r="R43" s="328"/>
-      <c r="S43" s="328"/>
-      <c r="T43" s="328"/>
-      <c r="U43" s="328"/>
-      <c r="V43" s="328"/>
-      <c r="W43" s="328"/>
-      <c r="X43" s="328"/>
+      <c r="R43" s="345"/>
+      <c r="S43" s="345"/>
+      <c r="T43" s="345"/>
+      <c r="U43" s="345"/>
+      <c r="V43" s="345"/>
+      <c r="W43" s="345"/>
+      <c r="X43" s="345"/>
     </row>
     <row r="44" spans="1:25" s="12" customFormat="1">
       <c r="A44" s="20"/>
       <c r="B44" s="21"/>
-      <c r="D44" s="317"/>
-      <c r="E44" s="317"/>
-      <c r="F44" s="317"/>
-      <c r="G44" s="317"/>
-      <c r="H44" s="317"/>
-      <c r="I44" s="317"/>
-      <c r="J44" s="317"/>
-      <c r="K44" s="317"/>
+      <c r="D44" s="344"/>
+      <c r="E44" s="344"/>
+      <c r="F44" s="344"/>
+      <c r="G44" s="344"/>
+      <c r="H44" s="344"/>
+      <c r="I44" s="344"/>
+      <c r="J44" s="344"/>
+      <c r="K44" s="344"/>
       <c r="L44" s="14"/>
       <c r="M44" s="14"/>
       <c r="N44" s="18"/>
-      <c r="O44" s="328"/>
-      <c r="P44" s="328"/>
-      <c r="Q44" s="328"/>
-      <c r="R44" s="328"/>
-      <c r="S44" s="328"/>
-      <c r="T44" s="328"/>
-      <c r="U44" s="328"/>
-      <c r="V44" s="328"/>
-      <c r="W44" s="328"/>
-      <c r="X44" s="328"/>
+      <c r="O44" s="345"/>
+      <c r="P44" s="345"/>
+      <c r="Q44" s="345"/>
+      <c r="R44" s="345"/>
+      <c r="S44" s="345"/>
+      <c r="T44" s="345"/>
+      <c r="U44" s="345"/>
+      <c r="V44" s="345"/>
+      <c r="W44" s="345"/>
+      <c r="X44" s="345"/>
     </row>
     <row r="45" spans="1:25" s="12" customFormat="1">
       <c r="A45" s="20"/>
-      <c r="D45" s="317"/>
-      <c r="E45" s="317"/>
-      <c r="F45" s="317"/>
-      <c r="G45" s="317"/>
-      <c r="H45" s="317"/>
-      <c r="I45" s="317"/>
-      <c r="J45" s="317"/>
-      <c r="K45" s="317"/>
+      <c r="D45" s="344"/>
+      <c r="E45" s="344"/>
+      <c r="F45" s="344"/>
+      <c r="G45" s="344"/>
+      <c r="H45" s="344"/>
+      <c r="I45" s="344"/>
+      <c r="J45" s="344"/>
+      <c r="K45" s="344"/>
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
       <c r="N45" s="18"/>
       <c r="O45" s="18"/>
       <c r="P45" s="18"/>
-      <c r="Q45" s="328"/>
-      <c r="R45" s="328"/>
-      <c r="S45" s="328"/>
-      <c r="T45" s="328"/>
-      <c r="U45" s="328"/>
-      <c r="V45" s="328"/>
-      <c r="W45" s="328"/>
-      <c r="X45" s="328"/>
+      <c r="Q45" s="345"/>
+      <c r="R45" s="345"/>
+      <c r="S45" s="345"/>
+      <c r="T45" s="345"/>
+      <c r="U45" s="345"/>
+      <c r="V45" s="345"/>
+      <c r="W45" s="345"/>
+      <c r="X45" s="345"/>
     </row>
     <row r="46" spans="1:25" s="12" customFormat="1">
       <c r="A46" s="20"/>
-      <c r="D46" s="317"/>
-      <c r="E46" s="317"/>
-      <c r="F46" s="317"/>
-      <c r="G46" s="317"/>
-      <c r="H46" s="317"/>
-      <c r="I46" s="317"/>
-      <c r="J46" s="317"/>
-      <c r="K46" s="317"/>
+      <c r="D46" s="344"/>
+      <c r="E46" s="344"/>
+      <c r="F46" s="344"/>
+      <c r="G46" s="344"/>
+      <c r="H46" s="344"/>
+      <c r="I46" s="344"/>
+      <c r="J46" s="344"/>
+      <c r="K46" s="344"/>
       <c r="L46" s="14"/>
       <c r="M46" s="14"/>
       <c r="N46" s="18"/>
       <c r="O46" s="18"/>
       <c r="P46" s="18"/>
-      <c r="Q46" s="328"/>
-      <c r="R46" s="328"/>
-      <c r="S46" s="328"/>
-      <c r="T46" s="328"/>
-      <c r="U46" s="328"/>
-      <c r="V46" s="328"/>
-      <c r="W46" s="328"/>
-      <c r="X46" s="328"/>
+      <c r="Q46" s="345"/>
+      <c r="R46" s="345"/>
+      <c r="S46" s="345"/>
+      <c r="T46" s="345"/>
+      <c r="U46" s="345"/>
+      <c r="V46" s="345"/>
+      <c r="W46" s="345"/>
+      <c r="X46" s="345"/>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="20"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
-      <c r="D47" s="317"/>
-      <c r="E47" s="317"/>
-      <c r="F47" s="317"/>
-      <c r="G47" s="317"/>
-      <c r="H47" s="317"/>
-      <c r="I47" s="317"/>
-      <c r="J47" s="317"/>
-      <c r="K47" s="317"/>
+      <c r="D47" s="344"/>
+      <c r="E47" s="344"/>
+      <c r="F47" s="344"/>
+      <c r="G47" s="344"/>
+      <c r="H47" s="344"/>
+      <c r="I47" s="344"/>
+      <c r="J47" s="344"/>
+      <c r="K47" s="344"/>
       <c r="L47" s="12"/>
       <c r="M47" s="18"/>
       <c r="N47" s="18"/>
       <c r="O47" s="18"/>
       <c r="P47" s="18"/>
-      <c r="Q47" s="328"/>
-      <c r="R47" s="328"/>
-      <c r="S47" s="328"/>
-      <c r="T47" s="328"/>
-      <c r="U47" s="328"/>
-      <c r="V47" s="328"/>
-      <c r="W47" s="328"/>
-      <c r="X47" s="328"/>
+      <c r="Q47" s="345"/>
+      <c r="R47" s="345"/>
+      <c r="S47" s="345"/>
+      <c r="T47" s="345"/>
+      <c r="U47" s="345"/>
+      <c r="V47" s="345"/>
+      <c r="W47" s="345"/>
+      <c r="X47" s="345"/>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" s="12"/>
@@ -11069,78 +11269,78 @@
       <c r="N48" s="18"/>
       <c r="O48" s="18"/>
       <c r="P48" s="18"/>
-      <c r="Q48" s="328"/>
-      <c r="R48" s="328"/>
-      <c r="S48" s="328"/>
-      <c r="T48" s="328"/>
-      <c r="U48" s="328"/>
-      <c r="V48" s="328"/>
-      <c r="W48" s="328"/>
-      <c r="X48" s="328"/>
+      <c r="Q48" s="345"/>
+      <c r="R48" s="345"/>
+      <c r="S48" s="345"/>
+      <c r="T48" s="345"/>
+      <c r="U48" s="345"/>
+      <c r="V48" s="345"/>
+      <c r="W48" s="345"/>
+      <c r="X48" s="345"/>
     </row>
     <row r="49" spans="1:24" ht="12.75" customHeight="1">
       <c r="A49" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="317" t="s">
+      <c r="B49" s="344" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="317"/>
-      <c r="D49" s="317" t="s">
+      <c r="C49" s="344"/>
+      <c r="D49" s="344" t="s">
         <v>109</v>
       </c>
-      <c r="E49" s="317"/>
-      <c r="F49" s="317"/>
-      <c r="G49" s="317"/>
-      <c r="H49" s="317"/>
-      <c r="I49" s="317"/>
-      <c r="J49" s="317"/>
-      <c r="K49" s="317"/>
+      <c r="E49" s="344"/>
+      <c r="F49" s="344"/>
+      <c r="G49" s="344"/>
+      <c r="H49" s="344"/>
+      <c r="I49" s="344"/>
+      <c r="J49" s="344"/>
+      <c r="K49" s="344"/>
       <c r="L49" s="12"/>
       <c r="M49" s="12"/>
       <c r="N49" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="O49" s="328" t="s">
+      <c r="O49" s="345" t="s">
         <v>110</v>
       </c>
-      <c r="P49" s="328"/>
-      <c r="Q49" s="328" t="s">
+      <c r="P49" s="345"/>
+      <c r="Q49" s="345" t="s">
         <v>111</v>
       </c>
-      <c r="R49" s="328"/>
-      <c r="S49" s="328"/>
-      <c r="T49" s="328"/>
-      <c r="U49" s="328"/>
-      <c r="V49" s="328"/>
-      <c r="W49" s="328"/>
-      <c r="X49" s="328"/>
+      <c r="R49" s="345"/>
+      <c r="S49" s="345"/>
+      <c r="T49" s="345"/>
+      <c r="U49" s="345"/>
+      <c r="V49" s="345"/>
+      <c r="W49" s="345"/>
+      <c r="X49" s="345"/>
     </row>
     <row r="50" spans="1:24">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
-      <c r="D50" s="317"/>
-      <c r="E50" s="317"/>
-      <c r="F50" s="317"/>
-      <c r="G50" s="317"/>
-      <c r="H50" s="317"/>
-      <c r="I50" s="317"/>
-      <c r="J50" s="317"/>
-      <c r="K50" s="317"/>
+      <c r="D50" s="344"/>
+      <c r="E50" s="344"/>
+      <c r="F50" s="344"/>
+      <c r="G50" s="344"/>
+      <c r="H50" s="344"/>
+      <c r="I50" s="344"/>
+      <c r="J50" s="344"/>
+      <c r="K50" s="344"/>
       <c r="L50" s="12"/>
       <c r="M50" s="13"/>
       <c r="N50" s="12"/>
-      <c r="O50" s="328"/>
-      <c r="P50" s="328"/>
-      <c r="Q50" s="328"/>
-      <c r="R50" s="328"/>
-      <c r="S50" s="328"/>
-      <c r="T50" s="328"/>
-      <c r="U50" s="328"/>
-      <c r="V50" s="328"/>
-      <c r="W50" s="328"/>
-      <c r="X50" s="328"/>
+      <c r="O50" s="345"/>
+      <c r="P50" s="345"/>
+      <c r="Q50" s="345"/>
+      <c r="R50" s="345"/>
+      <c r="S50" s="345"/>
+      <c r="T50" s="345"/>
+      <c r="U50" s="345"/>
+      <c r="V50" s="345"/>
+      <c r="W50" s="345"/>
+      <c r="X50" s="345"/>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="12"/>
@@ -11159,14 +11359,14 @@
       <c r="N51" s="12"/>
       <c r="O51" s="14"/>
       <c r="P51" s="14"/>
-      <c r="Q51" s="328"/>
-      <c r="R51" s="328"/>
-      <c r="S51" s="328"/>
-      <c r="T51" s="328"/>
-      <c r="U51" s="328"/>
-      <c r="V51" s="328"/>
-      <c r="W51" s="328"/>
-      <c r="X51" s="328"/>
+      <c r="Q51" s="345"/>
+      <c r="R51" s="345"/>
+      <c r="S51" s="345"/>
+      <c r="T51" s="345"/>
+      <c r="U51" s="345"/>
+      <c r="V51" s="345"/>
+      <c r="W51" s="345"/>
+      <c r="X51" s="345"/>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" s="12"/>
@@ -11352,41 +11552,46 @@
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="C4:X4"/>
-    <mergeCell ref="C5:X5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="O7:S7"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:K47"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="C40:D40"/>
     <mergeCell ref="T9:V9"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:K50"/>
@@ -11403,46 +11608,41 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="C41:D41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:K47"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="O7:S7"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="C4:X4"/>
+    <mergeCell ref="C5:X5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L37:M37"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -11456,7 +11656,7 @@
   <sheetPr codeName="Module___2"/>
   <dimension ref="A4:X91"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -11496,45 +11696,45 @@
     <row r="7" spans="1:8" s="12" customFormat="1" ht="14.1" customHeight="1">
       <c r="A7" s="95"/>
       <c r="B7" s="94"/>
-      <c r="C7" s="363"/>
-      <c r="D7" s="324"/>
-      <c r="E7" s="324"/>
-      <c r="F7" s="324"/>
-      <c r="G7" s="346"/>
+      <c r="C7" s="354"/>
+      <c r="D7" s="325"/>
+      <c r="E7" s="325"/>
+      <c r="F7" s="325"/>
+      <c r="G7" s="327"/>
       <c r="H7" s="107"/>
     </row>
     <row r="8" spans="1:8" s="12" customFormat="1" ht="14.1" customHeight="1">
       <c r="A8" s="93"/>
       <c r="B8" s="91"/>
-      <c r="C8" s="347" t="s">
+      <c r="C8" s="332" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="348"/>
-      <c r="E8" s="348"/>
-      <c r="F8" s="348"/>
-      <c r="G8" s="364"/>
+      <c r="D8" s="333"/>
+      <c r="E8" s="333"/>
+      <c r="F8" s="333"/>
+      <c r="G8" s="355"/>
       <c r="H8" s="107"/>
     </row>
     <row r="9" spans="1:8" s="12" customFormat="1" ht="14.1" customHeight="1">
       <c r="A9" s="92"/>
       <c r="B9" s="91"/>
-      <c r="C9" s="365" t="s">
+      <c r="C9" s="356" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="348"/>
-      <c r="E9" s="348"/>
-      <c r="F9" s="348"/>
-      <c r="G9" s="364"/>
+      <c r="D9" s="333"/>
+      <c r="E9" s="333"/>
+      <c r="F9" s="333"/>
+      <c r="G9" s="355"/>
       <c r="H9" s="107"/>
     </row>
     <row r="10" spans="1:8" s="12" customFormat="1" ht="14.1" customHeight="1">
       <c r="A10" s="87"/>
       <c r="B10" s="91"/>
-      <c r="C10" s="325"/>
-      <c r="D10" s="326"/>
-      <c r="E10" s="326"/>
-      <c r="F10" s="326"/>
-      <c r="G10" s="334"/>
+      <c r="C10" s="328"/>
+      <c r="D10" s="329"/>
+      <c r="E10" s="329"/>
+      <c r="F10" s="329"/>
+      <c r="G10" s="331"/>
       <c r="H10" s="107"/>
     </row>
     <row r="11" spans="1:8" s="12" customFormat="1" ht="14.1" customHeight="1">
@@ -11542,11 +11742,11 @@
         <v>85</v>
       </c>
       <c r="B11" s="82"/>
-      <c r="C11" s="335" t="s">
+      <c r="C11" s="324" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="324"/>
-      <c r="E11" s="324"/>
+      <c r="D11" s="325"/>
+      <c r="E11" s="325"/>
       <c r="F11" s="303" t="s">
         <v>87</v>
       </c>
@@ -11558,11 +11758,11 @@
     <row r="12" spans="1:8" s="12" customFormat="1" ht="14.1" customHeight="1">
       <c r="A12" s="87"/>
       <c r="B12" s="82"/>
-      <c r="C12" s="325" t="s">
+      <c r="C12" s="328" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="326"/>
-      <c r="E12" s="326"/>
+      <c r="D12" s="329"/>
+      <c r="E12" s="329"/>
       <c r="F12" s="301" t="s">
         <v>90</v>
       </c>
@@ -12288,124 +12488,124 @@
     <row r="49" spans="1:24" s="12" customFormat="1" ht="11.25">
       <c r="A49" s="131"/>
       <c r="B49" s="132"/>
-      <c r="C49" s="356" t="s">
+      <c r="C49" s="357" t="s">
         <v>117</v>
       </c>
-      <c r="D49" s="359"/>
-      <c r="E49" s="359"/>
-      <c r="F49" s="359"/>
-      <c r="G49" s="359"/>
-      <c r="H49" s="359"/>
-      <c r="I49" s="359"/>
-      <c r="J49" s="359"/>
-      <c r="K49" s="359"/>
-      <c r="L49" s="359"/>
-      <c r="M49" s="359"/>
-      <c r="N49" s="359"/>
-      <c r="O49" s="359"/>
-      <c r="P49" s="359"/>
-      <c r="Q49" s="359"/>
-      <c r="R49" s="359"/>
-      <c r="S49" s="359"/>
-      <c r="T49" s="359"/>
-      <c r="U49" s="359"/>
-      <c r="V49" s="361"/>
+      <c r="D49" s="358"/>
+      <c r="E49" s="358"/>
+      <c r="F49" s="358"/>
+      <c r="G49" s="358"/>
+      <c r="H49" s="358"/>
+      <c r="I49" s="358"/>
+      <c r="J49" s="358"/>
+      <c r="K49" s="358"/>
+      <c r="L49" s="358"/>
+      <c r="M49" s="358"/>
+      <c r="N49" s="358"/>
+      <c r="O49" s="358"/>
+      <c r="P49" s="358"/>
+      <c r="Q49" s="358"/>
+      <c r="R49" s="358"/>
+      <c r="S49" s="358"/>
+      <c r="T49" s="358"/>
+      <c r="U49" s="358"/>
+      <c r="V49" s="359"/>
       <c r="W49" s="133"/>
       <c r="X49" s="134"/>
     </row>
     <row r="50" spans="1:24" s="12" customFormat="1" ht="11.25">
       <c r="A50" s="135"/>
       <c r="B50" s="136"/>
-      <c r="C50" s="351" t="s">
+      <c r="C50" s="360" t="s">
         <v>118</v>
       </c>
-      <c r="D50" s="352"/>
-      <c r="E50" s="352"/>
-      <c r="F50" s="352"/>
-      <c r="G50" s="352"/>
-      <c r="H50" s="352"/>
-      <c r="I50" s="352"/>
-      <c r="J50" s="352"/>
-      <c r="K50" s="352"/>
-      <c r="L50" s="352"/>
-      <c r="M50" s="352"/>
-      <c r="N50" s="352"/>
-      <c r="O50" s="352"/>
-      <c r="P50" s="352"/>
-      <c r="Q50" s="352"/>
-      <c r="R50" s="352"/>
-      <c r="S50" s="352"/>
-      <c r="T50" s="352"/>
-      <c r="U50" s="352"/>
-      <c r="V50" s="355"/>
+      <c r="D50" s="361"/>
+      <c r="E50" s="361"/>
+      <c r="F50" s="361"/>
+      <c r="G50" s="361"/>
+      <c r="H50" s="361"/>
+      <c r="I50" s="361"/>
+      <c r="J50" s="361"/>
+      <c r="K50" s="361"/>
+      <c r="L50" s="361"/>
+      <c r="M50" s="361"/>
+      <c r="N50" s="361"/>
+      <c r="O50" s="361"/>
+      <c r="P50" s="361"/>
+      <c r="Q50" s="361"/>
+      <c r="R50" s="361"/>
+      <c r="S50" s="361"/>
+      <c r="T50" s="361"/>
+      <c r="U50" s="361"/>
+      <c r="V50" s="362"/>
       <c r="W50" s="133"/>
       <c r="X50" s="134"/>
     </row>
     <row r="51" spans="1:24" s="12" customFormat="1" ht="11.25">
       <c r="A51" s="137"/>
       <c r="B51" s="136"/>
-      <c r="C51" s="356" t="s">
+      <c r="C51" s="357" t="s">
         <v>119</v>
       </c>
-      <c r="D51" s="357"/>
-      <c r="E51" s="357"/>
-      <c r="F51" s="357"/>
-      <c r="G51" s="358"/>
-      <c r="H51" s="359" t="s">
+      <c r="D51" s="363"/>
+      <c r="E51" s="363"/>
+      <c r="F51" s="363"/>
+      <c r="G51" s="364"/>
+      <c r="H51" s="358" t="s">
         <v>120</v>
       </c>
-      <c r="I51" s="357"/>
-      <c r="J51" s="357"/>
-      <c r="K51" s="357"/>
-      <c r="L51" s="358"/>
-      <c r="M51" s="360" t="s">
+      <c r="I51" s="363"/>
+      <c r="J51" s="363"/>
+      <c r="K51" s="363"/>
+      <c r="L51" s="364"/>
+      <c r="M51" s="365" t="s">
         <v>121</v>
       </c>
-      <c r="N51" s="357"/>
-      <c r="O51" s="357"/>
-      <c r="P51" s="357"/>
-      <c r="Q51" s="357"/>
-      <c r="R51" s="356" t="s">
+      <c r="N51" s="363"/>
+      <c r="O51" s="363"/>
+      <c r="P51" s="363"/>
+      <c r="Q51" s="363"/>
+      <c r="R51" s="357" t="s">
         <v>122</v>
       </c>
-      <c r="S51" s="357"/>
-      <c r="T51" s="357"/>
-      <c r="U51" s="357"/>
-      <c r="V51" s="362"/>
+      <c r="S51" s="363"/>
+      <c r="T51" s="363"/>
+      <c r="U51" s="363"/>
+      <c r="V51" s="366"/>
       <c r="W51" s="133"/>
       <c r="X51" s="134"/>
     </row>
     <row r="52" spans="1:24" s="12" customFormat="1" ht="11.25">
       <c r="A52" s="138"/>
       <c r="B52" s="136"/>
-      <c r="C52" s="351" t="s">
+      <c r="C52" s="360" t="s">
         <v>123</v>
       </c>
-      <c r="D52" s="352"/>
-      <c r="E52" s="352"/>
-      <c r="F52" s="352"/>
-      <c r="G52" s="353"/>
-      <c r="H52" s="352" t="s">
+      <c r="D52" s="361"/>
+      <c r="E52" s="361"/>
+      <c r="F52" s="361"/>
+      <c r="G52" s="367"/>
+      <c r="H52" s="361" t="s">
         <v>124</v>
       </c>
-      <c r="I52" s="352"/>
-      <c r="J52" s="352"/>
-      <c r="K52" s="352"/>
-      <c r="L52" s="353"/>
-      <c r="M52" s="354" t="s">
+      <c r="I52" s="361"/>
+      <c r="J52" s="361"/>
+      <c r="K52" s="361"/>
+      <c r="L52" s="367"/>
+      <c r="M52" s="368" t="s">
         <v>125</v>
       </c>
-      <c r="N52" s="352"/>
-      <c r="O52" s="352"/>
-      <c r="P52" s="352"/>
-      <c r="Q52" s="352"/>
-      <c r="R52" s="351" t="s">
+      <c r="N52" s="361"/>
+      <c r="O52" s="361"/>
+      <c r="P52" s="361"/>
+      <c r="Q52" s="361"/>
+      <c r="R52" s="360" t="s">
         <v>84</v>
       </c>
-      <c r="S52" s="352"/>
-      <c r="T52" s="352"/>
-      <c r="U52" s="352"/>
-      <c r="V52" s="355"/>
+      <c r="S52" s="361"/>
+      <c r="T52" s="361"/>
+      <c r="U52" s="361"/>
+      <c r="V52" s="362"/>
       <c r="W52" s="133"/>
       <c r="X52" s="134"/>
     </row>
@@ -12414,44 +12614,44 @@
         <v>85</v>
       </c>
       <c r="B53" s="139"/>
-      <c r="C53" s="356" t="s">
+      <c r="C53" s="357" t="s">
         <v>126</v>
       </c>
-      <c r="D53" s="357"/>
-      <c r="E53" s="358"/>
+      <c r="D53" s="363"/>
+      <c r="E53" s="364"/>
       <c r="F53" s="140" t="s">
         <v>127</v>
       </c>
       <c r="G53" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="H53" s="359" t="s">
+      <c r="H53" s="358" t="s">
         <v>126</v>
       </c>
-      <c r="I53" s="357"/>
-      <c r="J53" s="358"/>
+      <c r="I53" s="363"/>
+      <c r="J53" s="364"/>
       <c r="K53" s="140" t="s">
         <v>127</v>
       </c>
       <c r="L53" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="M53" s="360" t="s">
+      <c r="M53" s="365" t="s">
         <v>126</v>
       </c>
-      <c r="N53" s="357"/>
-      <c r="O53" s="358"/>
+      <c r="N53" s="363"/>
+      <c r="O53" s="364"/>
       <c r="P53" s="140" t="s">
         <v>127</v>
       </c>
       <c r="Q53" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="R53" s="356" t="s">
+      <c r="R53" s="357" t="s">
         <v>126</v>
       </c>
-      <c r="S53" s="357"/>
-      <c r="T53" s="358"/>
+      <c r="S53" s="363"/>
+      <c r="T53" s="364"/>
       <c r="U53" s="140" t="s">
         <v>127</v>
       </c>
@@ -12464,44 +12664,44 @@
     <row r="54" spans="1:24" s="12" customFormat="1" ht="11.25">
       <c r="A54" s="138"/>
       <c r="B54" s="139"/>
-      <c r="C54" s="351" t="s">
+      <c r="C54" s="360" t="s">
         <v>129</v>
       </c>
-      <c r="D54" s="352"/>
-      <c r="E54" s="353"/>
+      <c r="D54" s="361"/>
+      <c r="E54" s="367"/>
       <c r="F54" s="143" t="s">
         <v>130</v>
       </c>
       <c r="G54" s="144" t="s">
         <v>130</v>
       </c>
-      <c r="H54" s="352" t="s">
+      <c r="H54" s="361" t="s">
         <v>129</v>
       </c>
-      <c r="I54" s="352"/>
-      <c r="J54" s="353"/>
+      <c r="I54" s="361"/>
+      <c r="J54" s="367"/>
       <c r="K54" s="143" t="s">
         <v>130</v>
       </c>
       <c r="L54" s="144" t="s">
         <v>130</v>
       </c>
-      <c r="M54" s="354" t="s">
+      <c r="M54" s="368" t="s">
         <v>129</v>
       </c>
-      <c r="N54" s="352"/>
-      <c r="O54" s="353"/>
+      <c r="N54" s="361"/>
+      <c r="O54" s="367"/>
       <c r="P54" s="143" t="s">
         <v>130</v>
       </c>
       <c r="Q54" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="R54" s="351" t="s">
+      <c r="R54" s="360" t="s">
         <v>129</v>
       </c>
-      <c r="S54" s="352"/>
-      <c r="T54" s="353"/>
+      <c r="S54" s="361"/>
+      <c r="T54" s="367"/>
       <c r="U54" s="143" t="s">
         <v>130</v>
       </c>
@@ -14527,18 +14727,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C49:V49"/>
-    <mergeCell ref="C50:V50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="M51:Q51"/>
-    <mergeCell ref="R51:V51"/>
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="H54:J54"/>
     <mergeCell ref="M54:O54"/>
@@ -14551,6 +14739,18 @@
     <mergeCell ref="H53:J53"/>
     <mergeCell ref="M53:O53"/>
     <mergeCell ref="R53:T53"/>
+    <mergeCell ref="C49:V49"/>
+    <mergeCell ref="C50:V50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="M51:Q51"/>
+    <mergeCell ref="R51:V51"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -14596,25 +14796,25 @@
     <row r="2" spans="1:22">
       <c r="A2" s="131"/>
       <c r="B2" s="132"/>
-      <c r="C2" s="356" t="s">
+      <c r="C2" s="357" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="357"/>
-      <c r="E2" s="357"/>
-      <c r="F2" s="357"/>
-      <c r="G2" s="357"/>
-      <c r="H2" s="357"/>
-      <c r="I2" s="357"/>
-      <c r="J2" s="357"/>
-      <c r="K2" s="357"/>
-      <c r="L2" s="357"/>
-      <c r="M2" s="357"/>
-      <c r="N2" s="357"/>
-      <c r="O2" s="357"/>
-      <c r="P2" s="357"/>
-      <c r="Q2" s="358"/>
-      <c r="R2" s="357"/>
-      <c r="S2" s="362"/>
+      <c r="D2" s="363"/>
+      <c r="E2" s="363"/>
+      <c r="F2" s="363"/>
+      <c r="G2" s="363"/>
+      <c r="H2" s="363"/>
+      <c r="I2" s="363"/>
+      <c r="J2" s="363"/>
+      <c r="K2" s="363"/>
+      <c r="L2" s="363"/>
+      <c r="M2" s="363"/>
+      <c r="N2" s="363"/>
+      <c r="O2" s="363"/>
+      <c r="P2" s="363"/>
+      <c r="Q2" s="364"/>
+      <c r="R2" s="363"/>
+      <c r="S2" s="366"/>
       <c r="T2" s="134"/>
       <c r="U2" s="134"/>
       <c r="V2" s="134"/>
@@ -14622,18 +14822,18 @@
     <row r="3" spans="1:22">
       <c r="A3" s="135"/>
       <c r="B3" s="136"/>
-      <c r="C3" s="389" t="s">
+      <c r="C3" s="369" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="383"/>
-      <c r="E3" s="383"/>
-      <c r="F3" s="383"/>
-      <c r="G3" s="383"/>
-      <c r="H3" s="383"/>
-      <c r="I3" s="383"/>
-      <c r="J3" s="383"/>
-      <c r="K3" s="383"/>
-      <c r="L3" s="384"/>
+      <c r="D3" s="370"/>
+      <c r="E3" s="370"/>
+      <c r="F3" s="370"/>
+      <c r="G3" s="370"/>
+      <c r="H3" s="370"/>
+      <c r="I3" s="370"/>
+      <c r="J3" s="370"/>
+      <c r="K3" s="370"/>
+      <c r="L3" s="371"/>
       <c r="M3" s="310"/>
       <c r="N3" s="204"/>
       <c r="O3" s="205"/>
@@ -14648,27 +14848,27 @@
     <row r="4" spans="1:22">
       <c r="A4" s="188"/>
       <c r="B4" s="136"/>
-      <c r="C4" s="390" t="s">
+      <c r="C4" s="372" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="391"/>
-      <c r="E4" s="391"/>
-      <c r="F4" s="391"/>
-      <c r="G4" s="391"/>
-      <c r="H4" s="391"/>
-      <c r="I4" s="391"/>
-      <c r="J4" s="391"/>
-      <c r="K4" s="391"/>
-      <c r="L4" s="392"/>
-      <c r="M4" s="393" t="s">
+      <c r="D4" s="373"/>
+      <c r="E4" s="373"/>
+      <c r="F4" s="373"/>
+      <c r="G4" s="373"/>
+      <c r="H4" s="373"/>
+      <c r="I4" s="373"/>
+      <c r="J4" s="373"/>
+      <c r="K4" s="373"/>
+      <c r="L4" s="374"/>
+      <c r="M4" s="375" t="s">
         <v>122</v>
       </c>
-      <c r="N4" s="394"/>
-      <c r="O4" s="394"/>
-      <c r="P4" s="394"/>
-      <c r="Q4" s="395"/>
-      <c r="R4" s="394"/>
-      <c r="S4" s="396"/>
+      <c r="N4" s="376"/>
+      <c r="O4" s="376"/>
+      <c r="P4" s="376"/>
+      <c r="Q4" s="377"/>
+      <c r="R4" s="376"/>
+      <c r="S4" s="378"/>
       <c r="T4" s="134"/>
       <c r="U4" s="134"/>
       <c r="V4" s="134"/>
@@ -14676,29 +14876,29 @@
     <row r="5" spans="1:22">
       <c r="A5" s="138"/>
       <c r="B5" s="136"/>
-      <c r="C5" s="389" t="s">
+      <c r="C5" s="369" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="383"/>
-      <c r="E5" s="383"/>
-      <c r="F5" s="383"/>
-      <c r="G5" s="383"/>
-      <c r="H5" s="397" t="s">
+      <c r="D5" s="370"/>
+      <c r="E5" s="370"/>
+      <c r="F5" s="370"/>
+      <c r="G5" s="370"/>
+      <c r="H5" s="379" t="s">
         <v>137</v>
       </c>
-      <c r="I5" s="383"/>
-      <c r="J5" s="383"/>
-      <c r="K5" s="383"/>
-      <c r="L5" s="384"/>
-      <c r="M5" s="352" t="s">
+      <c r="I5" s="370"/>
+      <c r="J5" s="370"/>
+      <c r="K5" s="370"/>
+      <c r="L5" s="371"/>
+      <c r="M5" s="361" t="s">
         <v>84</v>
       </c>
-      <c r="N5" s="352"/>
-      <c r="O5" s="352"/>
-      <c r="P5" s="352"/>
-      <c r="Q5" s="353"/>
-      <c r="R5" s="352"/>
-      <c r="S5" s="355"/>
+      <c r="N5" s="361"/>
+      <c r="O5" s="361"/>
+      <c r="P5" s="361"/>
+      <c r="Q5" s="367"/>
+      <c r="R5" s="361"/>
+      <c r="S5" s="362"/>
       <c r="T5" s="134"/>
       <c r="U5" s="134"/>
       <c r="V5" s="134"/>
@@ -14708,34 +14908,34 @@
         <v>85</v>
       </c>
       <c r="B6" s="139"/>
-      <c r="C6" s="356" t="s">
+      <c r="C6" s="357" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="357"/>
-      <c r="E6" s="358"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="364"/>
       <c r="F6" s="140" t="s">
         <v>127</v>
       </c>
       <c r="G6" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="H6" s="360" t="s">
+      <c r="H6" s="365" t="s">
         <v>126</v>
       </c>
-      <c r="I6" s="357"/>
-      <c r="J6" s="358"/>
+      <c r="I6" s="363"/>
+      <c r="J6" s="364"/>
       <c r="K6" s="140" t="s">
         <v>127</v>
       </c>
       <c r="L6" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="M6" s="356" t="s">
+      <c r="M6" s="357" t="s">
         <v>126</v>
       </c>
-      <c r="N6" s="357"/>
-      <c r="O6" s="357"/>
-      <c r="P6" s="357"/>
+      <c r="N6" s="363"/>
+      <c r="O6" s="363"/>
+      <c r="P6" s="363"/>
       <c r="Q6" s="206"/>
       <c r="R6" s="207" t="s">
         <v>127</v>
@@ -14750,34 +14950,34 @@
     <row r="7" spans="1:22">
       <c r="A7" s="138"/>
       <c r="B7" s="139"/>
-      <c r="C7" s="351" t="s">
+      <c r="C7" s="360" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="352"/>
-      <c r="E7" s="353"/>
+      <c r="D7" s="361"/>
+      <c r="E7" s="367"/>
       <c r="F7" s="143" t="s">
         <v>130</v>
       </c>
       <c r="G7" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="H7" s="354" t="s">
+      <c r="H7" s="368" t="s">
         <v>129</v>
       </c>
-      <c r="I7" s="352"/>
-      <c r="J7" s="353"/>
+      <c r="I7" s="361"/>
+      <c r="J7" s="367"/>
       <c r="K7" s="143" t="s">
         <v>130</v>
       </c>
       <c r="L7" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="M7" s="351" t="s">
+      <c r="M7" s="360" t="s">
         <v>129</v>
       </c>
-      <c r="N7" s="352"/>
-      <c r="O7" s="352"/>
-      <c r="P7" s="352"/>
+      <c r="N7" s="361"/>
+      <c r="O7" s="361"/>
+      <c r="P7" s="361"/>
       <c r="Q7" s="208"/>
       <c r="R7" s="209" t="s">
         <v>130</v>
@@ -14827,14 +15027,14 @@
       <c r="M8" s="152" t="s">
         <v>131</v>
       </c>
-      <c r="N8" s="385" t="s">
+      <c r="N8" s="384" t="s">
         <v>93</v>
       </c>
-      <c r="O8" s="386"/>
-      <c r="P8" s="385" t="s">
+      <c r="O8" s="385"/>
+      <c r="P8" s="384" t="s">
         <v>94</v>
       </c>
-      <c r="Q8" s="386"/>
+      <c r="Q8" s="385"/>
       <c r="R8" s="210" t="s">
         <v>95</v>
       </c>
@@ -14881,14 +15081,14 @@
       <c r="M9" s="312" t="s">
         <v>132</v>
       </c>
-      <c r="N9" s="387" t="s">
+      <c r="N9" s="386" t="s">
         <v>97</v>
       </c>
-      <c r="O9" s="388"/>
-      <c r="P9" s="387" t="s">
+      <c r="O9" s="387"/>
+      <c r="P9" s="386" t="s">
         <v>84</v>
       </c>
-      <c r="Q9" s="388"/>
+      <c r="Q9" s="387"/>
       <c r="R9" s="211" t="s">
         <v>98</v>
       </c>
@@ -16362,23 +16562,23 @@
     <row r="40" spans="1:22">
       <c r="A40" s="131"/>
       <c r="B40" s="132"/>
-      <c r="C40" s="356" t="s">
+      <c r="C40" s="357" t="s">
         <v>138</v>
       </c>
-      <c r="D40" s="359"/>
-      <c r="E40" s="359"/>
-      <c r="F40" s="359"/>
-      <c r="G40" s="359"/>
-      <c r="H40" s="359"/>
-      <c r="I40" s="359"/>
-      <c r="J40" s="359"/>
-      <c r="K40" s="359"/>
-      <c r="L40" s="359"/>
-      <c r="M40" s="359"/>
-      <c r="N40" s="359"/>
-      <c r="O40" s="359"/>
-      <c r="P40" s="359"/>
-      <c r="Q40" s="361"/>
+      <c r="D40" s="358"/>
+      <c r="E40" s="358"/>
+      <c r="F40" s="358"/>
+      <c r="G40" s="358"/>
+      <c r="H40" s="358"/>
+      <c r="I40" s="358"/>
+      <c r="J40" s="358"/>
+      <c r="K40" s="358"/>
+      <c r="L40" s="358"/>
+      <c r="M40" s="358"/>
+      <c r="N40" s="358"/>
+      <c r="O40" s="358"/>
+      <c r="P40" s="358"/>
+      <c r="Q40" s="359"/>
       <c r="R40" s="134"/>
       <c r="S40" s="134"/>
       <c r="T40" s="127"/>
@@ -16388,23 +16588,23 @@
     <row r="41" spans="1:22">
       <c r="A41" s="135"/>
       <c r="B41" s="136"/>
-      <c r="C41" s="382" t="s">
+      <c r="C41" s="383" t="s">
         <v>139</v>
       </c>
-      <c r="D41" s="383"/>
-      <c r="E41" s="383"/>
-      <c r="F41" s="383"/>
-      <c r="G41" s="383"/>
-      <c r="H41" s="383"/>
-      <c r="I41" s="383"/>
-      <c r="J41" s="383"/>
-      <c r="K41" s="383"/>
-      <c r="L41" s="383"/>
-      <c r="M41" s="383"/>
-      <c r="N41" s="383"/>
-      <c r="O41" s="383"/>
-      <c r="P41" s="383"/>
-      <c r="Q41" s="384"/>
+      <c r="D41" s="370"/>
+      <c r="E41" s="370"/>
+      <c r="F41" s="370"/>
+      <c r="G41" s="370"/>
+      <c r="H41" s="370"/>
+      <c r="I41" s="370"/>
+      <c r="J41" s="370"/>
+      <c r="K41" s="370"/>
+      <c r="L41" s="370"/>
+      <c r="M41" s="370"/>
+      <c r="N41" s="370"/>
+      <c r="O41" s="370"/>
+      <c r="P41" s="370"/>
+      <c r="Q41" s="371"/>
       <c r="R41" s="134"/>
       <c r="S41" s="134"/>
       <c r="T41" s="127"/>
@@ -16417,24 +16617,24 @@
       <c r="C42" s="380" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="374"/>
-      <c r="E42" s="381"/>
-      <c r="F42" s="374"/>
-      <c r="G42" s="374"/>
-      <c r="H42" s="360" t="s">
+      <c r="D42" s="381"/>
+      <c r="E42" s="382"/>
+      <c r="F42" s="381"/>
+      <c r="G42" s="381"/>
+      <c r="H42" s="365" t="s">
         <v>141</v>
       </c>
-      <c r="I42" s="357"/>
-      <c r="J42" s="357"/>
-      <c r="K42" s="357"/>
-      <c r="L42" s="362"/>
-      <c r="M42" s="359" t="s">
+      <c r="I42" s="363"/>
+      <c r="J42" s="363"/>
+      <c r="K42" s="363"/>
+      <c r="L42" s="366"/>
+      <c r="M42" s="358" t="s">
         <v>122</v>
       </c>
-      <c r="N42" s="357"/>
-      <c r="O42" s="357"/>
-      <c r="P42" s="357"/>
-      <c r="Q42" s="362"/>
+      <c r="N42" s="363"/>
+      <c r="O42" s="363"/>
+      <c r="P42" s="363"/>
+      <c r="Q42" s="366"/>
       <c r="R42" s="134"/>
       <c r="S42" s="134"/>
       <c r="T42" s="127"/>
@@ -16444,27 +16644,27 @@
     <row r="43" spans="1:22">
       <c r="A43" s="138"/>
       <c r="B43" s="136"/>
-      <c r="C43" s="367" t="s">
+      <c r="C43" s="388" t="s">
         <v>142</v>
       </c>
-      <c r="D43" s="367"/>
-      <c r="E43" s="379"/>
-      <c r="F43" s="367"/>
-      <c r="G43" s="367"/>
-      <c r="H43" s="368" t="s">
+      <c r="D43" s="388"/>
+      <c r="E43" s="389"/>
+      <c r="F43" s="388"/>
+      <c r="G43" s="388"/>
+      <c r="H43" s="390" t="s">
         <v>143</v>
       </c>
-      <c r="I43" s="367"/>
-      <c r="J43" s="367"/>
-      <c r="K43" s="367"/>
-      <c r="L43" s="369"/>
-      <c r="M43" s="367" t="s">
+      <c r="I43" s="388"/>
+      <c r="J43" s="388"/>
+      <c r="K43" s="388"/>
+      <c r="L43" s="391"/>
+      <c r="M43" s="388" t="s">
         <v>84</v>
       </c>
-      <c r="N43" s="367"/>
-      <c r="O43" s="367"/>
-      <c r="P43" s="367"/>
-      <c r="Q43" s="369"/>
+      <c r="N43" s="388"/>
+      <c r="O43" s="388"/>
+      <c r="P43" s="388"/>
+      <c r="Q43" s="391"/>
       <c r="R43" s="134"/>
       <c r="S43" s="134"/>
     </row>
@@ -16473,33 +16673,33 @@
         <v>85</v>
       </c>
       <c r="B44" s="139"/>
-      <c r="C44" s="359" t="s">
+      <c r="C44" s="358" t="s">
         <v>126</v>
       </c>
-      <c r="D44" s="357"/>
-      <c r="E44" s="358"/>
+      <c r="D44" s="363"/>
+      <c r="E44" s="364"/>
       <c r="F44" s="140" t="s">
         <v>127</v>
       </c>
       <c r="G44" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="H44" s="360" t="s">
+      <c r="H44" s="365" t="s">
         <v>126</v>
       </c>
-      <c r="I44" s="357"/>
-      <c r="J44" s="358"/>
+      <c r="I44" s="363"/>
+      <c r="J44" s="364"/>
       <c r="K44" s="140" t="s">
         <v>127</v>
       </c>
       <c r="L44" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="M44" s="359" t="s">
+      <c r="M44" s="358" t="s">
         <v>126</v>
       </c>
-      <c r="N44" s="357"/>
-      <c r="O44" s="358"/>
+      <c r="N44" s="363"/>
+      <c r="O44" s="364"/>
       <c r="P44" s="140" t="s">
         <v>127</v>
       </c>
@@ -16512,33 +16712,33 @@
     <row r="45" spans="1:22">
       <c r="A45" s="138"/>
       <c r="B45" s="139"/>
-      <c r="C45" s="352" t="s">
+      <c r="C45" s="361" t="s">
         <v>129</v>
       </c>
-      <c r="D45" s="352"/>
-      <c r="E45" s="353"/>
+      <c r="D45" s="361"/>
+      <c r="E45" s="367"/>
       <c r="F45" s="143" t="s">
         <v>130</v>
       </c>
       <c r="G45" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="H45" s="354" t="s">
+      <c r="H45" s="368" t="s">
         <v>129</v>
       </c>
-      <c r="I45" s="352"/>
-      <c r="J45" s="353"/>
+      <c r="I45" s="361"/>
+      <c r="J45" s="367"/>
       <c r="K45" s="143" t="s">
         <v>130</v>
       </c>
       <c r="L45" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="M45" s="352" t="s">
+      <c r="M45" s="361" t="s">
         <v>129</v>
       </c>
-      <c r="N45" s="352"/>
-      <c r="O45" s="353"/>
+      <c r="N45" s="361"/>
+      <c r="O45" s="367"/>
       <c r="P45" s="143" t="s">
         <v>130</v>
       </c>
@@ -18046,23 +18246,23 @@
     <row r="79" spans="1:23">
       <c r="A79" s="131"/>
       <c r="B79" s="132"/>
-      <c r="C79" s="356" t="s">
+      <c r="C79" s="357" t="s">
         <v>144</v>
       </c>
-      <c r="D79" s="359"/>
-      <c r="E79" s="359"/>
-      <c r="F79" s="359"/>
-      <c r="G79" s="359"/>
-      <c r="H79" s="359"/>
-      <c r="I79" s="359"/>
-      <c r="J79" s="359"/>
-      <c r="K79" s="359"/>
-      <c r="L79" s="359"/>
-      <c r="M79" s="359"/>
-      <c r="N79" s="359"/>
-      <c r="O79" s="359"/>
-      <c r="P79" s="359"/>
-      <c r="Q79" s="361"/>
+      <c r="D79" s="358"/>
+      <c r="E79" s="358"/>
+      <c r="F79" s="358"/>
+      <c r="G79" s="358"/>
+      <c r="H79" s="358"/>
+      <c r="I79" s="358"/>
+      <c r="J79" s="358"/>
+      <c r="K79" s="358"/>
+      <c r="L79" s="358"/>
+      <c r="M79" s="358"/>
+      <c r="N79" s="358"/>
+      <c r="O79" s="358"/>
+      <c r="P79" s="358"/>
+      <c r="Q79" s="359"/>
       <c r="R79" s="231"/>
       <c r="S79" s="310"/>
       <c r="T79" s="310"/>
@@ -18073,89 +18273,89 @@
     <row r="80" spans="1:23">
       <c r="A80" s="135"/>
       <c r="B80" s="136"/>
-      <c r="C80" s="376" t="s">
+      <c r="C80" s="392" t="s">
         <v>145</v>
       </c>
-      <c r="D80" s="377"/>
-      <c r="E80" s="377"/>
-      <c r="F80" s="377"/>
-      <c r="G80" s="377"/>
-      <c r="H80" s="377"/>
-      <c r="I80" s="377"/>
-      <c r="J80" s="377"/>
-      <c r="K80" s="377"/>
-      <c r="L80" s="377"/>
-      <c r="M80" s="377"/>
-      <c r="N80" s="377"/>
-      <c r="O80" s="377"/>
-      <c r="P80" s="377"/>
-      <c r="Q80" s="378"/>
-      <c r="R80" s="370" t="s">
+      <c r="D80" s="393"/>
+      <c r="E80" s="393"/>
+      <c r="F80" s="393"/>
+      <c r="G80" s="393"/>
+      <c r="H80" s="393"/>
+      <c r="I80" s="393"/>
+      <c r="J80" s="393"/>
+      <c r="K80" s="393"/>
+      <c r="L80" s="393"/>
+      <c r="M80" s="393"/>
+      <c r="N80" s="393"/>
+      <c r="O80" s="393"/>
+      <c r="P80" s="393"/>
+      <c r="Q80" s="394"/>
+      <c r="R80" s="395" t="s">
         <v>146</v>
       </c>
-      <c r="S80" s="371"/>
-      <c r="T80" s="371"/>
-      <c r="U80" s="371"/>
-      <c r="V80" s="372"/>
+      <c r="S80" s="396"/>
+      <c r="T80" s="396"/>
+      <c r="U80" s="396"/>
+      <c r="V80" s="397"/>
       <c r="W80" s="134"/>
     </row>
     <row r="81" spans="1:23">
       <c r="A81" s="188"/>
       <c r="B81" s="136"/>
-      <c r="C81" s="356" t="s">
+      <c r="C81" s="357" t="s">
         <v>147</v>
       </c>
-      <c r="D81" s="357"/>
-      <c r="E81" s="357"/>
-      <c r="F81" s="357"/>
-      <c r="G81" s="357"/>
-      <c r="H81" s="360" t="s">
+      <c r="D81" s="363"/>
+      <c r="E81" s="363"/>
+      <c r="F81" s="363"/>
+      <c r="G81" s="363"/>
+      <c r="H81" s="365" t="s">
         <v>148</v>
       </c>
-      <c r="I81" s="357"/>
-      <c r="J81" s="357"/>
-      <c r="K81" s="357"/>
-      <c r="L81" s="362"/>
-      <c r="M81" s="356" t="s">
+      <c r="I81" s="363"/>
+      <c r="J81" s="363"/>
+      <c r="K81" s="363"/>
+      <c r="L81" s="366"/>
+      <c r="M81" s="357" t="s">
         <v>122</v>
       </c>
-      <c r="N81" s="357"/>
-      <c r="O81" s="357"/>
-      <c r="P81" s="357"/>
-      <c r="Q81" s="362"/>
-      <c r="R81" s="373" t="s">
+      <c r="N81" s="363"/>
+      <c r="O81" s="363"/>
+      <c r="P81" s="363"/>
+      <c r="Q81" s="366"/>
+      <c r="R81" s="398" t="s">
         <v>149</v>
       </c>
-      <c r="S81" s="374"/>
-      <c r="T81" s="374"/>
-      <c r="U81" s="374"/>
-      <c r="V81" s="375"/>
+      <c r="S81" s="381"/>
+      <c r="T81" s="381"/>
+      <c r="U81" s="381"/>
+      <c r="V81" s="399"/>
       <c r="W81" s="134"/>
     </row>
     <row r="82" spans="1:23">
       <c r="A82" s="138"/>
       <c r="B82" s="136"/>
-      <c r="C82" s="366" t="s">
+      <c r="C82" s="400" t="s">
         <v>150</v>
       </c>
-      <c r="D82" s="367"/>
-      <c r="E82" s="367"/>
-      <c r="F82" s="367"/>
-      <c r="G82" s="367"/>
-      <c r="H82" s="368" t="s">
+      <c r="D82" s="388"/>
+      <c r="E82" s="388"/>
+      <c r="F82" s="388"/>
+      <c r="G82" s="388"/>
+      <c r="H82" s="390" t="s">
         <v>151</v>
       </c>
-      <c r="I82" s="367"/>
-      <c r="J82" s="367"/>
-      <c r="K82" s="367"/>
-      <c r="L82" s="369"/>
-      <c r="M82" s="366" t="s">
+      <c r="I82" s="388"/>
+      <c r="J82" s="388"/>
+      <c r="K82" s="388"/>
+      <c r="L82" s="391"/>
+      <c r="M82" s="400" t="s">
         <v>84</v>
       </c>
-      <c r="N82" s="367"/>
-      <c r="O82" s="367"/>
-      <c r="P82" s="367"/>
-      <c r="Q82" s="369"/>
+      <c r="N82" s="388"/>
+      <c r="O82" s="388"/>
+      <c r="P82" s="388"/>
+      <c r="Q82" s="391"/>
       <c r="R82" s="316"/>
       <c r="S82" s="315"/>
       <c r="T82" s="315"/>
@@ -18168,44 +18368,44 @@
         <v>85</v>
       </c>
       <c r="B83" s="139"/>
-      <c r="C83" s="356" t="s">
+      <c r="C83" s="357" t="s">
         <v>126</v>
       </c>
-      <c r="D83" s="357"/>
-      <c r="E83" s="358"/>
+      <c r="D83" s="363"/>
+      <c r="E83" s="364"/>
       <c r="F83" s="140" t="s">
         <v>127</v>
       </c>
       <c r="G83" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="H83" s="360" t="s">
+      <c r="H83" s="365" t="s">
         <v>126</v>
       </c>
-      <c r="I83" s="357"/>
-      <c r="J83" s="358"/>
+      <c r="I83" s="363"/>
+      <c r="J83" s="364"/>
       <c r="K83" s="140" t="s">
         <v>127</v>
       </c>
       <c r="L83" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="M83" s="356" t="s">
+      <c r="M83" s="357" t="s">
         <v>126</v>
       </c>
-      <c r="N83" s="357"/>
-      <c r="O83" s="358"/>
+      <c r="N83" s="363"/>
+      <c r="O83" s="364"/>
       <c r="P83" s="140" t="s">
         <v>127</v>
       </c>
       <c r="Q83" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="R83" s="356" t="s">
+      <c r="R83" s="357" t="s">
         <v>126</v>
       </c>
-      <c r="S83" s="357"/>
-      <c r="T83" s="358"/>
+      <c r="S83" s="363"/>
+      <c r="T83" s="364"/>
       <c r="U83" s="140" t="s">
         <v>127</v>
       </c>
@@ -18217,44 +18417,44 @@
     <row r="84" spans="1:23">
       <c r="A84" s="138"/>
       <c r="B84" s="139"/>
-      <c r="C84" s="351" t="s">
+      <c r="C84" s="360" t="s">
         <v>129</v>
       </c>
-      <c r="D84" s="352"/>
-      <c r="E84" s="353"/>
+      <c r="D84" s="361"/>
+      <c r="E84" s="367"/>
       <c r="F84" s="143" t="s">
         <v>130</v>
       </c>
       <c r="G84" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="H84" s="354" t="s">
+      <c r="H84" s="368" t="s">
         <v>129</v>
       </c>
-      <c r="I84" s="352"/>
-      <c r="J84" s="353"/>
+      <c r="I84" s="361"/>
+      <c r="J84" s="367"/>
       <c r="K84" s="143" t="s">
         <v>130</v>
       </c>
       <c r="L84" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="M84" s="351" t="s">
+      <c r="M84" s="360" t="s">
         <v>129</v>
       </c>
-      <c r="N84" s="352"/>
-      <c r="O84" s="353"/>
+      <c r="N84" s="361"/>
+      <c r="O84" s="367"/>
       <c r="P84" s="143" t="s">
         <v>130</v>
       </c>
       <c r="Q84" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="R84" s="351" t="s">
+      <c r="R84" s="360" t="s">
         <v>129</v>
       </c>
-      <c r="S84" s="352"/>
-      <c r="T84" s="353"/>
+      <c r="S84" s="361"/>
+      <c r="T84" s="367"/>
       <c r="U84" s="143" t="s">
         <v>130</v>
       </c>
@@ -20167,13 +20367,33 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="M5:S5"/>
+    <mergeCell ref="R83:T83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="M84:O84"/>
+    <mergeCell ref="R84:T84"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:L82"/>
+    <mergeCell ref="M82:Q82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="M83:O83"/>
+    <mergeCell ref="R80:V80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:L81"/>
+    <mergeCell ref="M81:Q81"/>
+    <mergeCell ref="R81:V81"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="C79:Q79"/>
+    <mergeCell ref="C80:Q80"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="M43:Q43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="M44:O44"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="M6:P6"/>
     <mergeCell ref="M7:P7"/>
@@ -20189,33 +20409,13 @@
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="M43:Q43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="C79:Q79"/>
-    <mergeCell ref="C80:Q80"/>
-    <mergeCell ref="R80:V80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="H81:L81"/>
-    <mergeCell ref="M81:Q81"/>
-    <mergeCell ref="R81:V81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="H82:L82"/>
-    <mergeCell ref="M82:Q82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="M83:O83"/>
-    <mergeCell ref="R83:T83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="M84:O84"/>
-    <mergeCell ref="R84:T84"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="M5:S5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20225,7 +20425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2050C112-1602-447F-8595-60696CFEA8B8}">
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -20234,121 +20434,121 @@
     <row r="1" spans="1:23">
       <c r="A1" s="131"/>
       <c r="B1" s="132"/>
-      <c r="C1" s="356" t="s">
+      <c r="C1" s="357" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="359"/>
-      <c r="E1" s="359"/>
-      <c r="F1" s="359"/>
-      <c r="G1" s="359"/>
-      <c r="H1" s="359"/>
-      <c r="I1" s="359"/>
-      <c r="J1" s="359"/>
-      <c r="K1" s="359"/>
-      <c r="L1" s="359"/>
-      <c r="M1" s="359"/>
-      <c r="N1" s="359"/>
-      <c r="O1" s="359"/>
-      <c r="P1" s="359"/>
-      <c r="Q1" s="359"/>
-      <c r="R1" s="359"/>
-      <c r="S1" s="359"/>
-      <c r="T1" s="359"/>
-      <c r="U1" s="359"/>
-      <c r="V1" s="361"/>
+      <c r="D1" s="358"/>
+      <c r="E1" s="358"/>
+      <c r="F1" s="358"/>
+      <c r="G1" s="358"/>
+      <c r="H1" s="358"/>
+      <c r="I1" s="358"/>
+      <c r="J1" s="358"/>
+      <c r="K1" s="358"/>
+      <c r="L1" s="358"/>
+      <c r="M1" s="358"/>
+      <c r="N1" s="358"/>
+      <c r="O1" s="358"/>
+      <c r="P1" s="358"/>
+      <c r="Q1" s="358"/>
+      <c r="R1" s="358"/>
+      <c r="S1" s="358"/>
+      <c r="T1" s="358"/>
+      <c r="U1" s="358"/>
+      <c r="V1" s="359"/>
       <c r="W1" s="134"/>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="135"/>
       <c r="B2" s="136"/>
-      <c r="C2" s="404" t="s">
+      <c r="C2" s="401" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="405"/>
-      <c r="E2" s="405"/>
-      <c r="F2" s="405"/>
-      <c r="G2" s="405"/>
-      <c r="H2" s="405"/>
-      <c r="I2" s="405"/>
-      <c r="J2" s="405"/>
-      <c r="K2" s="405"/>
-      <c r="L2" s="405"/>
-      <c r="M2" s="405"/>
-      <c r="N2" s="405"/>
-      <c r="O2" s="405"/>
-      <c r="P2" s="405"/>
-      <c r="Q2" s="405"/>
-      <c r="R2" s="405"/>
-      <c r="S2" s="405"/>
-      <c r="T2" s="405"/>
-      <c r="U2" s="405"/>
-      <c r="V2" s="407"/>
+      <c r="D2" s="402"/>
+      <c r="E2" s="402"/>
+      <c r="F2" s="402"/>
+      <c r="G2" s="402"/>
+      <c r="H2" s="402"/>
+      <c r="I2" s="402"/>
+      <c r="J2" s="402"/>
+      <c r="K2" s="402"/>
+      <c r="L2" s="402"/>
+      <c r="M2" s="402"/>
+      <c r="N2" s="402"/>
+      <c r="O2" s="402"/>
+      <c r="P2" s="402"/>
+      <c r="Q2" s="402"/>
+      <c r="R2" s="402"/>
+      <c r="S2" s="402"/>
+      <c r="T2" s="402"/>
+      <c r="U2" s="402"/>
+      <c r="V2" s="403"/>
       <c r="W2" s="134"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="188"/>
       <c r="B3" s="136"/>
-      <c r="C3" s="356" t="s">
+      <c r="C3" s="357" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="357"/>
-      <c r="E3" s="357"/>
-      <c r="F3" s="357"/>
-      <c r="G3" s="358"/>
-      <c r="H3" s="359" t="s">
+      <c r="D3" s="363"/>
+      <c r="E3" s="363"/>
+      <c r="F3" s="363"/>
+      <c r="G3" s="364"/>
+      <c r="H3" s="358" t="s">
         <v>155</v>
       </c>
-      <c r="I3" s="357"/>
-      <c r="J3" s="357"/>
-      <c r="K3" s="357"/>
-      <c r="L3" s="357"/>
-      <c r="M3" s="360" t="s">
+      <c r="I3" s="363"/>
+      <c r="J3" s="363"/>
+      <c r="K3" s="363"/>
+      <c r="L3" s="363"/>
+      <c r="M3" s="365" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="357"/>
-      <c r="O3" s="357"/>
-      <c r="P3" s="357"/>
-      <c r="Q3" s="362"/>
-      <c r="R3" s="356" t="s">
+      <c r="N3" s="363"/>
+      <c r="O3" s="363"/>
+      <c r="P3" s="363"/>
+      <c r="Q3" s="366"/>
+      <c r="R3" s="357" t="s">
         <v>122</v>
       </c>
-      <c r="S3" s="357"/>
-      <c r="T3" s="357"/>
-      <c r="U3" s="357"/>
-      <c r="V3" s="362"/>
+      <c r="S3" s="363"/>
+      <c r="T3" s="363"/>
+      <c r="U3" s="363"/>
+      <c r="V3" s="366"/>
       <c r="W3" s="134"/>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="138"/>
       <c r="B4" s="136"/>
-      <c r="C4" s="404" t="s">
+      <c r="C4" s="401" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="405"/>
-      <c r="E4" s="405"/>
-      <c r="F4" s="405"/>
-      <c r="G4" s="406"/>
-      <c r="H4" s="352" t="s">
+      <c r="D4" s="402"/>
+      <c r="E4" s="402"/>
+      <c r="F4" s="402"/>
+      <c r="G4" s="404"/>
+      <c r="H4" s="361" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="352"/>
-      <c r="J4" s="352"/>
-      <c r="K4" s="352"/>
-      <c r="L4" s="352"/>
-      <c r="M4" s="354" t="s">
+      <c r="I4" s="361"/>
+      <c r="J4" s="361"/>
+      <c r="K4" s="361"/>
+      <c r="L4" s="361"/>
+      <c r="M4" s="368" t="s">
         <v>159</v>
       </c>
-      <c r="N4" s="352"/>
-      <c r="O4" s="352"/>
-      <c r="P4" s="352"/>
-      <c r="Q4" s="355"/>
-      <c r="R4" s="351" t="s">
+      <c r="N4" s="361"/>
+      <c r="O4" s="361"/>
+      <c r="P4" s="361"/>
+      <c r="Q4" s="362"/>
+      <c r="R4" s="360" t="s">
         <v>84</v>
       </c>
-      <c r="S4" s="352"/>
-      <c r="T4" s="352"/>
-      <c r="U4" s="352"/>
-      <c r="V4" s="355"/>
+      <c r="S4" s="361"/>
+      <c r="T4" s="361"/>
+      <c r="U4" s="361"/>
+      <c r="V4" s="362"/>
       <c r="W4" s="134"/>
     </row>
     <row r="5" spans="1:23">
@@ -20356,44 +20556,44 @@
         <v>85</v>
       </c>
       <c r="B5" s="139"/>
-      <c r="C5" s="356" t="s">
+      <c r="C5" s="357" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="357"/>
-      <c r="E5" s="358"/>
+      <c r="D5" s="363"/>
+      <c r="E5" s="364"/>
       <c r="F5" s="140" t="s">
         <v>127</v>
       </c>
       <c r="G5" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="359" t="s">
+      <c r="H5" s="358" t="s">
         <v>126</v>
       </c>
-      <c r="I5" s="357"/>
-      <c r="J5" s="358"/>
+      <c r="I5" s="363"/>
+      <c r="J5" s="364"/>
       <c r="K5" s="140" t="s">
         <v>127</v>
       </c>
       <c r="L5" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="M5" s="360" t="s">
+      <c r="M5" s="365" t="s">
         <v>126</v>
       </c>
-      <c r="N5" s="357"/>
-      <c r="O5" s="358"/>
+      <c r="N5" s="363"/>
+      <c r="O5" s="364"/>
       <c r="P5" s="140" t="s">
         <v>127</v>
       </c>
       <c r="Q5" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="R5" s="356" t="s">
+      <c r="R5" s="357" t="s">
         <v>126</v>
       </c>
-      <c r="S5" s="357"/>
-      <c r="T5" s="358"/>
+      <c r="S5" s="363"/>
+      <c r="T5" s="364"/>
       <c r="U5" s="140" t="s">
         <v>127</v>
       </c>
@@ -20405,44 +20605,44 @@
     <row r="6" spans="1:23">
       <c r="A6" s="138"/>
       <c r="B6" s="139"/>
-      <c r="C6" s="351" t="s">
+      <c r="C6" s="360" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="352"/>
-      <c r="E6" s="353"/>
+      <c r="D6" s="361"/>
+      <c r="E6" s="367"/>
       <c r="F6" s="143" t="s">
         <v>130</v>
       </c>
       <c r="G6" s="144" t="s">
         <v>130</v>
       </c>
-      <c r="H6" s="352" t="s">
+      <c r="H6" s="361" t="s">
         <v>129</v>
       </c>
-      <c r="I6" s="352"/>
-      <c r="J6" s="353"/>
+      <c r="I6" s="361"/>
+      <c r="J6" s="367"/>
       <c r="K6" s="143" t="s">
         <v>130</v>
       </c>
       <c r="L6" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="M6" s="354" t="s">
+      <c r="M6" s="368" t="s">
         <v>129</v>
       </c>
-      <c r="N6" s="352"/>
-      <c r="O6" s="353"/>
+      <c r="N6" s="361"/>
+      <c r="O6" s="367"/>
       <c r="P6" s="143" t="s">
         <v>130</v>
       </c>
       <c r="Q6" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="R6" s="351" t="s">
+      <c r="R6" s="360" t="s">
         <v>129</v>
       </c>
-      <c r="S6" s="352"/>
-      <c r="T6" s="353"/>
+      <c r="S6" s="361"/>
+      <c r="T6" s="367"/>
       <c r="U6" s="143" t="s">
         <v>130</v>
       </c>
@@ -22335,17 +22535,17 @@
       <c r="B40" s="244" t="s">
         <v>161</v>
       </c>
-      <c r="C40" s="402" t="s">
+      <c r="C40" s="409" t="s">
         <v>162</v>
       </c>
-      <c r="D40" s="399"/>
-      <c r="E40" s="399"/>
-      <c r="F40" s="399"/>
-      <c r="G40" s="399"/>
-      <c r="H40" s="399"/>
-      <c r="I40" s="399"/>
-      <c r="J40" s="399"/>
-      <c r="K40" s="399"/>
+      <c r="D40" s="406"/>
+      <c r="E40" s="406"/>
+      <c r="F40" s="406"/>
+      <c r="G40" s="406"/>
+      <c r="H40" s="406"/>
+      <c r="I40" s="406"/>
+      <c r="J40" s="406"/>
+      <c r="K40" s="406"/>
       <c r="L40" s="245"/>
       <c r="M40" s="246" t="s">
         <v>163</v>
@@ -22353,16 +22553,16 @@
       <c r="N40" s="247" t="s">
         <v>161</v>
       </c>
-      <c r="O40" s="403" t="s">
+      <c r="O40" s="410" t="s">
         <v>164</v>
       </c>
-      <c r="P40" s="399"/>
-      <c r="Q40" s="399"/>
-      <c r="R40" s="399"/>
-      <c r="S40" s="399"/>
-      <c r="T40" s="399"/>
-      <c r="U40" s="399"/>
-      <c r="V40" s="399"/>
+      <c r="P40" s="406"/>
+      <c r="Q40" s="406"/>
+      <c r="R40" s="406"/>
+      <c r="S40" s="406"/>
+      <c r="T40" s="406"/>
+      <c r="U40" s="406"/>
+      <c r="V40" s="406"/>
       <c r="W40" s="134"/>
     </row>
     <row r="41" spans="1:23">
@@ -22386,16 +22586,16 @@
       <c r="N41" s="244" t="s">
         <v>165</v>
       </c>
-      <c r="O41" s="398" t="s">
+      <c r="O41" s="405" t="s">
         <v>167</v>
       </c>
-      <c r="P41" s="399"/>
-      <c r="Q41" s="399"/>
-      <c r="R41" s="399"/>
-      <c r="S41" s="399"/>
-      <c r="T41" s="399"/>
-      <c r="U41" s="399"/>
-      <c r="V41" s="399"/>
+      <c r="P41" s="406"/>
+      <c r="Q41" s="406"/>
+      <c r="R41" s="406"/>
+      <c r="S41" s="406"/>
+      <c r="T41" s="406"/>
+      <c r="U41" s="406"/>
+      <c r="V41" s="406"/>
       <c r="W41" s="134"/>
     </row>
     <row r="42" spans="1:23">
@@ -22428,32 +22628,32 @@
       <c r="B43" s="244" t="s">
         <v>168</v>
       </c>
-      <c r="C43" s="400" t="s">
+      <c r="C43" s="407" t="s">
         <v>169</v>
       </c>
-      <c r="D43" s="399"/>
-      <c r="E43" s="399"/>
-      <c r="F43" s="399"/>
-      <c r="G43" s="399"/>
-      <c r="H43" s="399"/>
-      <c r="I43" s="399"/>
-      <c r="J43" s="399"/>
-      <c r="K43" s="399"/>
+      <c r="D43" s="406"/>
+      <c r="E43" s="406"/>
+      <c r="F43" s="406"/>
+      <c r="G43" s="406"/>
+      <c r="H43" s="406"/>
+      <c r="I43" s="406"/>
+      <c r="J43" s="406"/>
+      <c r="K43" s="406"/>
       <c r="L43" s="253"/>
       <c r="M43" s="254"/>
       <c r="N43" s="244" t="s">
         <v>168</v>
       </c>
-      <c r="O43" s="398" t="s">
+      <c r="O43" s="405" t="s">
         <v>170</v>
       </c>
-      <c r="P43" s="399"/>
-      <c r="Q43" s="399"/>
-      <c r="R43" s="399"/>
-      <c r="S43" s="399"/>
-      <c r="T43" s="399"/>
-      <c r="U43" s="399"/>
-      <c r="V43" s="399"/>
+      <c r="P43" s="406"/>
+      <c r="Q43" s="406"/>
+      <c r="R43" s="406"/>
+      <c r="S43" s="406"/>
+      <c r="T43" s="406"/>
+      <c r="U43" s="406"/>
+      <c r="V43" s="406"/>
       <c r="W43" s="134"/>
     </row>
     <row r="44" spans="1:23">
@@ -22469,12 +22669,12 @@
       <c r="J44" s="253"/>
       <c r="K44" s="253"/>
       <c r="L44" s="253"/>
-      <c r="M44" s="401"/>
-      <c r="N44" s="401"/>
-      <c r="O44" s="401"/>
-      <c r="P44" s="401"/>
-      <c r="Q44" s="401"/>
-      <c r="R44" s="401"/>
+      <c r="M44" s="408"/>
+      <c r="N44" s="408"/>
+      <c r="O44" s="408"/>
+      <c r="P44" s="408"/>
+      <c r="Q44" s="408"/>
+      <c r="R44" s="408"/>
       <c r="S44" s="134"/>
       <c r="T44" s="134"/>
       <c r="U44" s="134"/>
@@ -22483,20 +22683,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="C2:V2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="R4:V4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="R5:T5"/>
     <mergeCell ref="O41:V41"/>
     <mergeCell ref="C43:K43"/>
     <mergeCell ref="O43:V43"/>
@@ -22507,6 +22693,20 @@
     <mergeCell ref="R6:T6"/>
     <mergeCell ref="C40:K40"/>
     <mergeCell ref="O40:V40"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="R4:V4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="C2:V2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22555,85 +22755,85 @@
       <c r="E2" s="310"/>
       <c r="F2" s="257"/>
       <c r="G2" s="258"/>
-      <c r="H2" s="356" t="s">
+      <c r="H2" s="357" t="s">
         <v>171</v>
       </c>
-      <c r="I2" s="359"/>
-      <c r="J2" s="359"/>
-      <c r="K2" s="359"/>
-      <c r="L2" s="359"/>
-      <c r="M2" s="359"/>
-      <c r="N2" s="359"/>
-      <c r="O2" s="359"/>
-      <c r="P2" s="359"/>
-      <c r="Q2" s="359"/>
-      <c r="R2" s="359"/>
-      <c r="S2" s="359"/>
-      <c r="T2" s="359"/>
-      <c r="U2" s="359"/>
-      <c r="V2" s="361"/>
+      <c r="I2" s="358"/>
+      <c r="J2" s="358"/>
+      <c r="K2" s="358"/>
+      <c r="L2" s="358"/>
+      <c r="M2" s="358"/>
+      <c r="N2" s="358"/>
+      <c r="O2" s="358"/>
+      <c r="P2" s="358"/>
+      <c r="Q2" s="358"/>
+      <c r="R2" s="358"/>
+      <c r="S2" s="358"/>
+      <c r="T2" s="358"/>
+      <c r="U2" s="358"/>
+      <c r="V2" s="359"/>
       <c r="W2" s="134"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="135"/>
       <c r="B3" s="133"/>
-      <c r="C3" s="409" t="s">
+      <c r="C3" s="411" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="374"/>
-      <c r="E3" s="374"/>
-      <c r="F3" s="374"/>
-      <c r="G3" s="375"/>
-      <c r="H3" s="351" t="s">
+      <c r="D3" s="381"/>
+      <c r="E3" s="381"/>
+      <c r="F3" s="381"/>
+      <c r="G3" s="399"/>
+      <c r="H3" s="360" t="s">
         <v>173</v>
       </c>
-      <c r="I3" s="352"/>
-      <c r="J3" s="352"/>
-      <c r="K3" s="352"/>
-      <c r="L3" s="352"/>
-      <c r="M3" s="352"/>
-      <c r="N3" s="352"/>
-      <c r="O3" s="352"/>
-      <c r="P3" s="352"/>
-      <c r="Q3" s="352"/>
-      <c r="R3" s="352"/>
-      <c r="S3" s="352"/>
-      <c r="T3" s="352"/>
-      <c r="U3" s="352"/>
-      <c r="V3" s="355"/>
+      <c r="I3" s="361"/>
+      <c r="J3" s="361"/>
+      <c r="K3" s="361"/>
+      <c r="L3" s="361"/>
+      <c r="M3" s="361"/>
+      <c r="N3" s="361"/>
+      <c r="O3" s="361"/>
+      <c r="P3" s="361"/>
+      <c r="Q3" s="361"/>
+      <c r="R3" s="361"/>
+      <c r="S3" s="361"/>
+      <c r="T3" s="361"/>
+      <c r="U3" s="361"/>
+      <c r="V3" s="362"/>
       <c r="W3" s="134"/>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="188"/>
       <c r="B4" s="133"/>
-      <c r="C4" s="373" t="s">
+      <c r="C4" s="398" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="374"/>
-      <c r="E4" s="374"/>
-      <c r="F4" s="374"/>
-      <c r="G4" s="375"/>
-      <c r="H4" s="359" t="s">
+      <c r="D4" s="381"/>
+      <c r="E4" s="381"/>
+      <c r="F4" s="381"/>
+      <c r="G4" s="399"/>
+      <c r="H4" s="358" t="s">
         <v>175</v>
       </c>
-      <c r="I4" s="357"/>
-      <c r="J4" s="357"/>
-      <c r="K4" s="357"/>
-      <c r="L4" s="357"/>
-      <c r="M4" s="360" t="s">
+      <c r="I4" s="363"/>
+      <c r="J4" s="363"/>
+      <c r="K4" s="363"/>
+      <c r="L4" s="363"/>
+      <c r="M4" s="365" t="s">
         <v>176</v>
       </c>
-      <c r="N4" s="357"/>
-      <c r="O4" s="357"/>
-      <c r="P4" s="357"/>
-      <c r="Q4" s="362"/>
-      <c r="R4" s="356" t="s">
+      <c r="N4" s="363"/>
+      <c r="O4" s="363"/>
+      <c r="P4" s="363"/>
+      <c r="Q4" s="366"/>
+      <c r="R4" s="357" t="s">
         <v>122</v>
       </c>
-      <c r="S4" s="357"/>
-      <c r="T4" s="357"/>
-      <c r="U4" s="357"/>
-      <c r="V4" s="362"/>
+      <c r="S4" s="363"/>
+      <c r="T4" s="363"/>
+      <c r="U4" s="363"/>
+      <c r="V4" s="366"/>
       <c r="W4" s="134"/>
     </row>
     <row r="5" spans="1:23">
@@ -22644,27 +22844,27 @@
       <c r="E5" s="309"/>
       <c r="F5" s="234"/>
       <c r="G5" s="235"/>
-      <c r="H5" s="352" t="s">
+      <c r="H5" s="361" t="s">
         <v>177</v>
       </c>
-      <c r="I5" s="352"/>
-      <c r="J5" s="352"/>
-      <c r="K5" s="352"/>
-      <c r="L5" s="352"/>
-      <c r="M5" s="354" t="s">
+      <c r="I5" s="361"/>
+      <c r="J5" s="361"/>
+      <c r="K5" s="361"/>
+      <c r="L5" s="361"/>
+      <c r="M5" s="368" t="s">
         <v>178</v>
       </c>
-      <c r="N5" s="352"/>
-      <c r="O5" s="352"/>
-      <c r="P5" s="352"/>
-      <c r="Q5" s="355"/>
-      <c r="R5" s="408" t="s">
+      <c r="N5" s="361"/>
+      <c r="O5" s="361"/>
+      <c r="P5" s="361"/>
+      <c r="Q5" s="362"/>
+      <c r="R5" s="412" t="s">
         <v>84</v>
       </c>
-      <c r="S5" s="394"/>
-      <c r="T5" s="394"/>
-      <c r="U5" s="394"/>
-      <c r="V5" s="396"/>
+      <c r="S5" s="376"/>
+      <c r="T5" s="376"/>
+      <c r="U5" s="376"/>
+      <c r="V5" s="378"/>
       <c r="W5" s="134"/>
     </row>
     <row r="6" spans="1:23">
@@ -22672,44 +22872,44 @@
         <v>85</v>
       </c>
       <c r="B6" s="210"/>
-      <c r="C6" s="356" t="s">
+      <c r="C6" s="357" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="357"/>
-      <c r="E6" s="358"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="364"/>
       <c r="F6" s="140" t="s">
         <v>127</v>
       </c>
       <c r="G6" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="H6" s="359" t="s">
+      <c r="H6" s="358" t="s">
         <v>126</v>
       </c>
-      <c r="I6" s="357"/>
-      <c r="J6" s="358"/>
+      <c r="I6" s="363"/>
+      <c r="J6" s="364"/>
       <c r="K6" s="140" t="s">
         <v>127</v>
       </c>
       <c r="L6" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="M6" s="360" t="s">
+      <c r="M6" s="365" t="s">
         <v>126</v>
       </c>
-      <c r="N6" s="357"/>
-      <c r="O6" s="358"/>
+      <c r="N6" s="363"/>
+      <c r="O6" s="364"/>
       <c r="P6" s="140" t="s">
         <v>127</v>
       </c>
       <c r="Q6" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="R6" s="356" t="s">
+      <c r="R6" s="357" t="s">
         <v>126</v>
       </c>
-      <c r="S6" s="357"/>
-      <c r="T6" s="358"/>
+      <c r="S6" s="363"/>
+      <c r="T6" s="364"/>
       <c r="U6" s="140" t="s">
         <v>127</v>
       </c>
@@ -22721,44 +22921,44 @@
     <row r="7" spans="1:23">
       <c r="A7" s="146"/>
       <c r="B7" s="210"/>
-      <c r="C7" s="351" t="s">
+      <c r="C7" s="360" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="352"/>
-      <c r="E7" s="353"/>
+      <c r="D7" s="361"/>
+      <c r="E7" s="367"/>
       <c r="F7" s="143" t="s">
         <v>130</v>
       </c>
       <c r="G7" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="H7" s="352" t="s">
+      <c r="H7" s="361" t="s">
         <v>129</v>
       </c>
-      <c r="I7" s="352"/>
-      <c r="J7" s="353"/>
+      <c r="I7" s="361"/>
+      <c r="J7" s="367"/>
       <c r="K7" s="143" t="s">
         <v>130</v>
       </c>
       <c r="L7" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="M7" s="354" t="s">
+      <c r="M7" s="368" t="s">
         <v>129</v>
       </c>
-      <c r="N7" s="352"/>
-      <c r="O7" s="353"/>
+      <c r="N7" s="361"/>
+      <c r="O7" s="367"/>
       <c r="P7" s="143" t="s">
         <v>130</v>
       </c>
       <c r="Q7" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="R7" s="351" t="s">
+      <c r="R7" s="360" t="s">
         <v>129</v>
       </c>
-      <c r="S7" s="352"/>
-      <c r="T7" s="353"/>
+      <c r="S7" s="361"/>
+      <c r="T7" s="367"/>
       <c r="U7" s="143" t="s">
         <v>130</v>
       </c>
@@ -24693,17 +24893,17 @@
       <c r="M42" s="244" t="s">
         <v>180</v>
       </c>
-      <c r="N42" s="398" t="s">
+      <c r="N42" s="405" t="s">
         <v>183</v>
       </c>
-      <c r="O42" s="399"/>
-      <c r="P42" s="399"/>
-      <c r="Q42" s="399"/>
-      <c r="R42" s="399"/>
-      <c r="S42" s="399"/>
-      <c r="T42" s="399"/>
-      <c r="U42" s="399"/>
-      <c r="V42" s="399"/>
+      <c r="O42" s="406"/>
+      <c r="P42" s="406"/>
+      <c r="Q42" s="406"/>
+      <c r="R42" s="406"/>
+      <c r="S42" s="406"/>
+      <c r="T42" s="406"/>
+      <c r="U42" s="406"/>
+      <c r="V42" s="406"/>
       <c r="W42" s="134"/>
     </row>
     <row r="43" spans="1:23">
@@ -24726,17 +24926,17 @@
       <c r="M43" s="244" t="s">
         <v>184</v>
       </c>
-      <c r="N43" s="400" t="s">
+      <c r="N43" s="407" t="s">
         <v>186</v>
       </c>
-      <c r="O43" s="399"/>
-      <c r="P43" s="399"/>
-      <c r="Q43" s="399"/>
-      <c r="R43" s="399"/>
-      <c r="S43" s="399"/>
-      <c r="T43" s="399"/>
-      <c r="U43" s="399"/>
-      <c r="V43" s="399"/>
+      <c r="O43" s="406"/>
+      <c r="P43" s="406"/>
+      <c r="Q43" s="406"/>
+      <c r="R43" s="406"/>
+      <c r="S43" s="406"/>
+      <c r="T43" s="406"/>
+      <c r="U43" s="406"/>
+      <c r="V43" s="406"/>
       <c r="W43" s="134"/>
     </row>
     <row r="44" spans="1:23">
@@ -24766,13 +24966,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H2:V2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:V3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="R4:V4"/>
     <mergeCell ref="N43:V43"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="M5:Q5"/>
@@ -24786,6 +24979,13 @@
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="R7:T7"/>
     <mergeCell ref="N42:V42"/>
+    <mergeCell ref="H2:V2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:V3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="R4:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24796,7 +24996,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24842,7 +25042,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C31:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -24891,12 +25091,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25134,22 +25334,56 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5610BF-D00F-44F7-8FFB-092D6D3E2E7E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BACA46F2-BB41-4CFA-AE39-345154E41770}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA1706BA-46E7-4AAD-A478-0EC19B60D96E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA1706BA-46E7-4AAD-A478-0EC19B60D96E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BACA46F2-BB41-4CFA-AE39-345154E41770}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5610BF-D00F-44F7-8FFB-092D6D3E2E7E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology_HK.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology_HK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\trans\SYVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\trans\SYVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="640" documentId="10_ncr:100000_{983C6467-D858-4479-9F11-A6C266913CDF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{01856F3F-FBA8-4A78-AEEF-B6666E8D1D7A}"/>
+  <xr:revisionPtr revIDLastSave="647" documentId="10_ncr:100000_{983C6467-D858-4479-9F11-A6C266913CDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{95B06931-23B4-4524-AF8D-3E84FC3C474C}"/>
   <bookViews>
-    <workbookView xWindow="9525" yWindow="1695" windowWidth="20460" windowHeight="11490" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <definedName name="wrn.Full_Set." localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"T3.1a";#N/A,#N/A,FALSE,"T3.1b";#N/A,#N/A,FALSE,"T3.2-3";#N/A,#N/A,FALSE,"T3.4a";#N/A,#N/A,FALSE,"T3.4b";#N/A,#N/A,FALSE,"T3.4c";#N/A,#N/A,FALSE,"T3.4d"}</definedName>
     <definedName name="wrn.Full_Set." hidden="1">{#N/A,#N/A,FALSE,"T3.1a";#N/A,#N/A,FALSE,"T3.1b";#N/A,#N/A,FALSE,"T3.2-3";#N/A,#N/A,FALSE,"T3.4a";#N/A,#N/A,FALSE,"T3.4b";#N/A,#N/A,FALSE,"T3.4c";#N/A,#N/A,FALSE,"T3.4d"}</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3686,6 +3686,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="73" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="39" fillId="0" borderId="31" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3695,33 +3698,84 @@
     <xf numFmtId="167" fontId="39" fillId="0" borderId="28" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="31" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="22" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="28" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="73" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="73" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="73" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="39" fillId="0" borderId="25" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="39" fillId="0" borderId="21" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="39" fillId="0" borderId="26" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="27" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="37" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" xfId="73" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="73" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="28" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="28" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="171" fontId="44" fillId="0" borderId="0" xfId="73" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="37" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="39" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="27" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3734,59 +3788,41 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="28" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="28" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" xfId="73" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="73" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="73" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="73" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="73" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="73" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="39" fillId="0" borderId="25" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="39" fillId="0" borderId="21" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="39" fillId="0" borderId="26" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="31" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="22" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="28" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="37" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3797,51 +3833,78 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="31" xfId="73" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3866,68 +3929,23 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3935,35 +3953,17 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="149">
@@ -8325,8 +8325,8 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8337,7 +8337,7 @@
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="7" max="8" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -8356,10 +8356,10 @@
       <c r="F1" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>348</v>
       </c>
     </row>
@@ -8541,8 +8541,8 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8553,7 +8553,7 @@
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="7" max="8" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -8572,10 +8572,10 @@
       <c r="F1" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>348</v>
       </c>
     </row>
@@ -8750,6 +8750,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8977,10 +8978,10 @@
       <c r="I2" s="98"/>
       <c r="O2" s="98"/>
       <c r="S2" s="97"/>
-      <c r="W2" s="323">
+      <c r="W2" s="348">
         <v>11</v>
       </c>
-      <c r="X2" s="323"/>
+      <c r="X2" s="348"/>
     </row>
     <row r="3" spans="1:24" ht="6" customHeight="1">
       <c r="G3" s="96"/>
@@ -8994,30 +8995,30 @@
     <row r="4" spans="1:24" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="95"/>
       <c r="B4" s="94"/>
-      <c r="C4" s="324" t="s">
+      <c r="C4" s="338" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="325"/>
-      <c r="E4" s="325"/>
-      <c r="F4" s="325"/>
-      <c r="G4" s="325"/>
-      <c r="H4" s="325"/>
-      <c r="I4" s="325"/>
-      <c r="J4" s="325"/>
-      <c r="K4" s="325"/>
-      <c r="L4" s="325"/>
-      <c r="M4" s="325"/>
-      <c r="N4" s="325"/>
-      <c r="O4" s="325"/>
-      <c r="P4" s="325"/>
-      <c r="Q4" s="326"/>
-      <c r="R4" s="325"/>
-      <c r="S4" s="325"/>
-      <c r="T4" s="325"/>
-      <c r="U4" s="325"/>
-      <c r="V4" s="326"/>
-      <c r="W4" s="325"/>
-      <c r="X4" s="327"/>
+      <c r="D4" s="327"/>
+      <c r="E4" s="327"/>
+      <c r="F4" s="327"/>
+      <c r="G4" s="327"/>
+      <c r="H4" s="327"/>
+      <c r="I4" s="327"/>
+      <c r="J4" s="327"/>
+      <c r="K4" s="327"/>
+      <c r="L4" s="327"/>
+      <c r="M4" s="327"/>
+      <c r="N4" s="327"/>
+      <c r="O4" s="327"/>
+      <c r="P4" s="327"/>
+      <c r="Q4" s="339"/>
+      <c r="R4" s="327"/>
+      <c r="S4" s="327"/>
+      <c r="T4" s="327"/>
+      <c r="U4" s="327"/>
+      <c r="V4" s="339"/>
+      <c r="W4" s="327"/>
+      <c r="X4" s="349"/>
     </row>
     <row r="5" spans="1:24" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="93"/>
@@ -9045,45 +9046,45 @@
       <c r="U5" s="329"/>
       <c r="V5" s="330"/>
       <c r="W5" s="329"/>
-      <c r="X5" s="331"/>
+      <c r="X5" s="337"/>
     </row>
     <row r="6" spans="1:24" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="92"/>
       <c r="B6" s="91"/>
-      <c r="C6" s="332" t="s">
+      <c r="C6" s="350" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="333"/>
-      <c r="E6" s="333"/>
-      <c r="F6" s="333"/>
-      <c r="G6" s="333"/>
-      <c r="H6" s="333"/>
-      <c r="I6" s="334" t="s">
+      <c r="D6" s="351"/>
+      <c r="E6" s="351"/>
+      <c r="F6" s="351"/>
+      <c r="G6" s="351"/>
+      <c r="H6" s="351"/>
+      <c r="I6" s="352" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="333"/>
-      <c r="K6" s="333"/>
-      <c r="L6" s="335" t="s">
+      <c r="J6" s="351"/>
+      <c r="K6" s="351"/>
+      <c r="L6" s="353" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="333"/>
-      <c r="N6" s="336"/>
-      <c r="O6" s="334" t="s">
+      <c r="M6" s="351"/>
+      <c r="N6" s="344"/>
+      <c r="O6" s="352" t="s">
         <v>78</v>
       </c>
-      <c r="P6" s="333"/>
-      <c r="Q6" s="336"/>
-      <c r="R6" s="335" t="s">
+      <c r="P6" s="351"/>
+      <c r="Q6" s="344"/>
+      <c r="R6" s="353" t="s">
         <v>79</v>
       </c>
-      <c r="S6" s="336"/>
-      <c r="T6" s="324" t="s">
+      <c r="S6" s="344"/>
+      <c r="T6" s="338" t="s">
         <v>80</v>
       </c>
-      <c r="U6" s="325"/>
-      <c r="V6" s="326"/>
-      <c r="W6" s="325"/>
-      <c r="X6" s="327"/>
+      <c r="U6" s="327"/>
+      <c r="V6" s="339"/>
+      <c r="W6" s="327"/>
+      <c r="X6" s="349"/>
     </row>
     <row r="7" spans="1:24" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="87"/>
@@ -9096,7 +9097,7 @@
       <c r="F7" s="329"/>
       <c r="G7" s="329"/>
       <c r="H7" s="330"/>
-      <c r="I7" s="338" t="s">
+      <c r="I7" s="345" t="s">
         <v>82</v>
       </c>
       <c r="J7" s="329"/>
@@ -9104,7 +9105,7 @@
       <c r="L7" s="329"/>
       <c r="M7" s="329"/>
       <c r="N7" s="330"/>
-      <c r="O7" s="338" t="s">
+      <c r="O7" s="345" t="s">
         <v>83</v>
       </c>
       <c r="P7" s="329"/>
@@ -9117,53 +9118,53 @@
       <c r="U7" s="329"/>
       <c r="V7" s="330"/>
       <c r="W7" s="329"/>
-      <c r="X7" s="331"/>
+      <c r="X7" s="337"/>
     </row>
     <row r="8" spans="1:24" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="87" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="82"/>
-      <c r="C8" s="324" t="s">
+      <c r="C8" s="338" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="325"/>
-      <c r="E8" s="325"/>
-      <c r="F8" s="326"/>
+      <c r="D8" s="327"/>
+      <c r="E8" s="327"/>
+      <c r="F8" s="339"/>
       <c r="G8" s="89" t="s">
         <v>87</v>
       </c>
       <c r="H8" s="303" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="341" t="s">
+      <c r="I8" s="340" t="s">
         <v>86</v>
       </c>
-      <c r="J8" s="325"/>
-      <c r="K8" s="325"/>
-      <c r="L8" s="342" t="s">
+      <c r="J8" s="327"/>
+      <c r="K8" s="327"/>
+      <c r="L8" s="341" t="s">
         <v>87</v>
       </c>
-      <c r="M8" s="343"/>
+      <c r="M8" s="342"/>
       <c r="N8" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="O8" s="341" t="s">
+      <c r="O8" s="340" t="s">
         <v>86</v>
       </c>
-      <c r="P8" s="325"/>
-      <c r="Q8" s="326"/>
+      <c r="P8" s="327"/>
+      <c r="Q8" s="339"/>
       <c r="R8" s="90" t="s">
         <v>87</v>
       </c>
       <c r="S8" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="T8" s="324" t="s">
+      <c r="T8" s="338" t="s">
         <v>86</v>
       </c>
-      <c r="U8" s="325"/>
-      <c r="V8" s="326"/>
+      <c r="U8" s="327"/>
+      <c r="V8" s="339"/>
       <c r="W8" s="89" t="s">
         <v>87</v>
       </c>
@@ -9186,19 +9187,19 @@
       <c r="H9" s="301" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="338" t="s">
+      <c r="I9" s="345" t="s">
         <v>89</v>
       </c>
       <c r="J9" s="329"/>
       <c r="K9" s="329"/>
-      <c r="L9" s="339" t="s">
+      <c r="L9" s="346" t="s">
         <v>90</v>
       </c>
-      <c r="M9" s="340"/>
+      <c r="M9" s="347"/>
       <c r="N9" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="O9" s="338" t="s">
+      <c r="O9" s="345" t="s">
         <v>89</v>
       </c>
       <c r="P9" s="329"/>
@@ -9226,10 +9227,10 @@
         <v>91</v>
       </c>
       <c r="B10" s="82"/>
-      <c r="C10" s="324" t="s">
+      <c r="C10" s="338" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="326"/>
+      <c r="D10" s="339"/>
       <c r="E10" s="77" t="s">
         <v>93</v>
       </c>
@@ -9251,10 +9252,10 @@
       <c r="K10" s="302" t="s">
         <v>94</v>
       </c>
-      <c r="L10" s="337" t="s">
+      <c r="L10" s="343" t="s">
         <v>95</v>
       </c>
-      <c r="M10" s="336"/>
+      <c r="M10" s="344"/>
       <c r="N10" s="79" t="s">
         <v>95</v>
       </c>
@@ -9317,10 +9318,10 @@
       <c r="K11" s="300" t="s">
         <v>84</v>
       </c>
-      <c r="L11" s="346" t="s">
+      <c r="L11" s="332" t="s">
         <v>98</v>
       </c>
-      <c r="M11" s="347"/>
+      <c r="M11" s="333"/>
       <c r="N11" s="70" t="s">
         <v>99</v>
       </c>
@@ -9386,10 +9387,10 @@
         <v>2013</v>
       </c>
       <c r="B13" s="57"/>
-      <c r="C13" s="351">
+      <c r="C13" s="324">
         <v>4136</v>
       </c>
-      <c r="D13" s="352"/>
+      <c r="D13" s="325"/>
       <c r="E13" s="49">
         <v>199</v>
       </c>
@@ -9411,10 +9412,10 @@
       <c r="K13" s="49">
         <v>2</v>
       </c>
-      <c r="L13" s="353">
+      <c r="L13" s="326">
         <v>48</v>
       </c>
-      <c r="M13" s="352"/>
+      <c r="M13" s="325"/>
       <c r="N13" s="49">
         <v>35</v>
       </c>
@@ -9454,10 +9455,10 @@
         <v>2014</v>
       </c>
       <c r="B14" s="42"/>
-      <c r="C14" s="351">
+      <c r="C14" s="324">
         <v>4814</v>
       </c>
-      <c r="D14" s="352"/>
+      <c r="D14" s="325"/>
       <c r="E14" s="49">
         <v>261</v>
       </c>
@@ -9479,10 +9480,10 @@
       <c r="K14" s="49">
         <v>6</v>
       </c>
-      <c r="L14" s="353">
+      <c r="L14" s="326">
         <v>52</v>
       </c>
-      <c r="M14" s="352"/>
+      <c r="M14" s="325"/>
       <c r="N14" s="49">
         <v>36</v>
       </c>
@@ -9522,10 +9523,10 @@
         <v>2015</v>
       </c>
       <c r="B15" s="42"/>
-      <c r="C15" s="351">
+      <c r="C15" s="324">
         <v>5383</v>
       </c>
-      <c r="D15" s="352"/>
+      <c r="D15" s="325"/>
       <c r="E15" s="49">
         <v>511</v>
       </c>
@@ -9547,10 +9548,10 @@
       <c r="K15" s="49">
         <v>7</v>
       </c>
-      <c r="L15" s="353">
+      <c r="L15" s="326">
         <v>58</v>
       </c>
-      <c r="M15" s="352"/>
+      <c r="M15" s="325"/>
       <c r="N15" s="49">
         <v>39</v>
       </c>
@@ -9590,10 +9591,10 @@
         <v>2016</v>
       </c>
       <c r="B16" s="42"/>
-      <c r="C16" s="351">
+      <c r="C16" s="324">
         <v>4960</v>
       </c>
-      <c r="D16" s="352"/>
+      <c r="D16" s="325"/>
       <c r="E16" s="49">
         <v>441</v>
       </c>
@@ -9615,10 +9616,10 @@
       <c r="K16" s="49">
         <v>9</v>
       </c>
-      <c r="L16" s="353">
+      <c r="L16" s="326">
         <v>67</v>
       </c>
-      <c r="M16" s="352"/>
+      <c r="M16" s="325"/>
       <c r="N16" s="49">
         <v>47</v>
       </c>
@@ -9658,10 +9659,10 @@
         <v>2017</v>
       </c>
       <c r="B17" s="42"/>
-      <c r="C17" s="351">
+      <c r="C17" s="324">
         <v>5269</v>
       </c>
-      <c r="D17" s="352"/>
+      <c r="D17" s="325"/>
       <c r="E17" s="49">
         <v>390</v>
       </c>
@@ -9683,10 +9684,10 @@
       <c r="K17" s="52">
         <v>8</v>
       </c>
-      <c r="L17" s="353">
+      <c r="L17" s="326">
         <v>75</v>
       </c>
-      <c r="M17" s="352"/>
+      <c r="M17" s="325"/>
       <c r="N17" s="49">
         <v>61</v>
       </c>
@@ -9724,8 +9725,8 @@
     <row r="18" spans="1:24" s="12" customFormat="1" ht="6" customHeight="1">
       <c r="A18" s="43"/>
       <c r="B18" s="42"/>
-      <c r="C18" s="320"/>
-      <c r="D18" s="321"/>
+      <c r="C18" s="321"/>
+      <c r="D18" s="322"/>
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
@@ -9733,8 +9734,8 @@
       <c r="I18" s="295"/>
       <c r="J18" s="295"/>
       <c r="K18" s="295"/>
-      <c r="L18" s="322"/>
-      <c r="M18" s="321"/>
+      <c r="L18" s="323"/>
+      <c r="M18" s="322"/>
       <c r="N18" s="41"/>
       <c r="O18" s="41"/>
       <c r="P18" s="41"/>
@@ -9750,8 +9751,8 @@
     <row r="19" spans="1:24" s="12" customFormat="1" ht="6" customHeight="1">
       <c r="A19" s="43"/>
       <c r="B19" s="42"/>
-      <c r="C19" s="320"/>
-      <c r="D19" s="321"/>
+      <c r="C19" s="321"/>
+      <c r="D19" s="322"/>
       <c r="E19" s="41"/>
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
@@ -9759,8 +9760,8 @@
       <c r="I19" s="295"/>
       <c r="J19" s="295"/>
       <c r="K19" s="295"/>
-      <c r="L19" s="322"/>
-      <c r="M19" s="321"/>
+      <c r="L19" s="323"/>
+      <c r="M19" s="322"/>
       <c r="N19" s="41"/>
       <c r="O19" s="41"/>
       <c r="P19" s="41"/>
@@ -9776,8 +9777,8 @@
     <row r="20" spans="1:24" s="12" customFormat="1" ht="6" customHeight="1">
       <c r="A20" s="43"/>
       <c r="B20" s="42"/>
-      <c r="C20" s="320"/>
-      <c r="D20" s="321"/>
+      <c r="C20" s="321"/>
+      <c r="D20" s="322"/>
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
@@ -9785,8 +9786,8 @@
       <c r="I20" s="295"/>
       <c r="J20" s="295"/>
       <c r="K20" s="295"/>
-      <c r="L20" s="322"/>
-      <c r="M20" s="321"/>
+      <c r="L20" s="323"/>
+      <c r="M20" s="322"/>
       <c r="N20" s="41"/>
       <c r="O20" s="41"/>
       <c r="P20" s="41"/>
@@ -9802,8 +9803,8 @@
     <row r="21" spans="1:24" s="12" customFormat="1" ht="6" customHeight="1">
       <c r="A21" s="43"/>
       <c r="B21" s="42"/>
-      <c r="C21" s="320"/>
-      <c r="D21" s="321"/>
+      <c r="C21" s="321"/>
+      <c r="D21" s="322"/>
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
@@ -9811,8 +9812,8 @@
       <c r="I21" s="46"/>
       <c r="J21" s="46"/>
       <c r="K21" s="47"/>
-      <c r="L21" s="322"/>
-      <c r="M21" s="321"/>
+      <c r="L21" s="323"/>
+      <c r="M21" s="322"/>
       <c r="N21" s="41"/>
       <c r="O21" s="46"/>
       <c r="P21" s="46"/>
@@ -9832,10 +9833,10 @@
       <c r="B22" s="42">
         <v>6</v>
       </c>
-      <c r="C22" s="320">
+      <c r="C22" s="321">
         <v>482</v>
       </c>
-      <c r="D22" s="321"/>
+      <c r="D22" s="322"/>
       <c r="E22" s="41">
         <v>33</v>
       </c>
@@ -9857,10 +9858,10 @@
       <c r="K22" s="295">
         <v>1</v>
       </c>
-      <c r="L22" s="322">
+      <c r="L22" s="323">
         <v>71</v>
       </c>
-      <c r="M22" s="321"/>
+      <c r="M22" s="322"/>
       <c r="N22" s="41">
         <v>52</v>
       </c>
@@ -9900,10 +9901,10 @@
       <c r="B23" s="42">
         <v>7</v>
       </c>
-      <c r="C23" s="320">
+      <c r="C23" s="321">
         <v>546</v>
       </c>
-      <c r="D23" s="321"/>
+      <c r="D23" s="322"/>
       <c r="E23" s="41">
         <v>45</v>
       </c>
@@ -9925,10 +9926,10 @@
       <c r="K23" s="295">
         <v>0</v>
       </c>
-      <c r="L23" s="322">
+      <c r="L23" s="323">
         <v>71</v>
       </c>
-      <c r="M23" s="321"/>
+      <c r="M23" s="322"/>
       <c r="N23" s="41">
         <v>52</v>
       </c>
@@ -9968,10 +9969,10 @@
       <c r="B24" s="42">
         <v>8</v>
       </c>
-      <c r="C24" s="320">
+      <c r="C24" s="321">
         <v>559</v>
       </c>
-      <c r="D24" s="321"/>
+      <c r="D24" s="322"/>
       <c r="E24" s="41">
         <v>28</v>
       </c>
@@ -9993,10 +9994,10 @@
       <c r="K24" s="295">
         <v>0</v>
       </c>
-      <c r="L24" s="322">
+      <c r="L24" s="323">
         <v>71</v>
       </c>
-      <c r="M24" s="321"/>
+      <c r="M24" s="322"/>
       <c r="N24" s="41">
         <v>52</v>
       </c>
@@ -10036,10 +10037,10 @@
       <c r="B25" s="42">
         <v>9</v>
       </c>
-      <c r="C25" s="320">
+      <c r="C25" s="321">
         <v>525</v>
       </c>
-      <c r="D25" s="321"/>
+      <c r="D25" s="322"/>
       <c r="E25" s="41">
         <v>28</v>
       </c>
@@ -10061,10 +10062,10 @@
       <c r="K25" s="295">
         <v>3</v>
       </c>
-      <c r="L25" s="322">
+      <c r="L25" s="323">
         <v>74</v>
       </c>
-      <c r="M25" s="321"/>
+      <c r="M25" s="322"/>
       <c r="N25" s="41">
         <v>57</v>
       </c>
@@ -10104,10 +10105,10 @@
       <c r="B26" s="42">
         <v>10</v>
       </c>
-      <c r="C26" s="320">
+      <c r="C26" s="321">
         <v>422</v>
       </c>
-      <c r="D26" s="321"/>
+      <c r="D26" s="322"/>
       <c r="E26" s="41">
         <v>31</v>
       </c>
@@ -10129,10 +10130,10 @@
       <c r="K26" s="295">
         <v>0</v>
       </c>
-      <c r="L26" s="322">
+      <c r="L26" s="323">
         <v>74</v>
       </c>
-      <c r="M26" s="321"/>
+      <c r="M26" s="322"/>
       <c r="N26" s="41">
         <v>55</v>
       </c>
@@ -10172,10 +10173,10 @@
       <c r="B27" s="42">
         <v>11</v>
       </c>
-      <c r="C27" s="320">
+      <c r="C27" s="321">
         <v>519</v>
       </c>
-      <c r="D27" s="321"/>
+      <c r="D27" s="322"/>
       <c r="E27" s="41">
         <v>37</v>
       </c>
@@ -10197,10 +10198,10 @@
       <c r="K27" s="295">
         <v>1</v>
       </c>
-      <c r="L27" s="322">
+      <c r="L27" s="323">
         <v>75</v>
       </c>
-      <c r="M27" s="321"/>
+      <c r="M27" s="322"/>
       <c r="N27" s="41">
         <v>57</v>
       </c>
@@ -10240,10 +10241,10 @@
       <c r="B28" s="42">
         <v>12</v>
       </c>
-      <c r="C28" s="320">
+      <c r="C28" s="321">
         <v>337</v>
       </c>
-      <c r="D28" s="321"/>
+      <c r="D28" s="322"/>
       <c r="E28" s="41">
         <v>21</v>
       </c>
@@ -10265,10 +10266,10 @@
       <c r="K28" s="295">
         <v>0</v>
       </c>
-      <c r="L28" s="322">
+      <c r="L28" s="323">
         <v>75</v>
       </c>
-      <c r="M28" s="321"/>
+      <c r="M28" s="322"/>
       <c r="N28" s="41">
         <v>61</v>
       </c>
@@ -10336,10 +10337,10 @@
       <c r="B30" s="42">
         <v>1</v>
       </c>
-      <c r="C30" s="320">
+      <c r="C30" s="321">
         <v>382</v>
       </c>
-      <c r="D30" s="321"/>
+      <c r="D30" s="322"/>
       <c r="E30" s="41">
         <v>28</v>
       </c>
@@ -10361,10 +10362,10 @@
       <c r="K30" s="295">
         <v>2</v>
       </c>
-      <c r="L30" s="322">
+      <c r="L30" s="323">
         <v>76</v>
       </c>
-      <c r="M30" s="321"/>
+      <c r="M30" s="322"/>
       <c r="N30" s="41">
         <v>64</v>
       </c>
@@ -10404,10 +10405,10 @@
       <c r="B31" s="42">
         <v>2</v>
       </c>
-      <c r="C31" s="320">
+      <c r="C31" s="321">
         <v>249</v>
       </c>
-      <c r="D31" s="321"/>
+      <c r="D31" s="322"/>
       <c r="E31" s="41">
         <v>25</v>
       </c>
@@ -10429,10 +10430,10 @@
       <c r="K31" s="295">
         <v>0</v>
       </c>
-      <c r="L31" s="322">
+      <c r="L31" s="323">
         <v>76</v>
       </c>
-      <c r="M31" s="321"/>
+      <c r="M31" s="322"/>
       <c r="N31" s="41">
         <v>64</v>
       </c>
@@ -10472,10 +10473,10 @@
       <c r="B32" s="42">
         <v>3</v>
       </c>
-      <c r="C32" s="320">
+      <c r="C32" s="321">
         <v>421</v>
       </c>
-      <c r="D32" s="321"/>
+      <c r="D32" s="322"/>
       <c r="E32" s="41">
         <v>28</v>
       </c>
@@ -10497,10 +10498,10 @@
       <c r="K32" s="295">
         <v>1</v>
       </c>
-      <c r="L32" s="322">
+      <c r="L32" s="323">
         <v>77</v>
       </c>
-      <c r="M32" s="321"/>
+      <c r="M32" s="322"/>
       <c r="N32" s="41">
         <v>65</v>
       </c>
@@ -10540,10 +10541,10 @@
       <c r="B33" s="42">
         <v>4</v>
       </c>
-      <c r="C33" s="320">
+      <c r="C33" s="321">
         <v>489</v>
       </c>
-      <c r="D33" s="321"/>
+      <c r="D33" s="322"/>
       <c r="E33" s="41">
         <v>24</v>
       </c>
@@ -10565,10 +10566,10 @@
       <c r="K33" s="295">
         <v>1</v>
       </c>
-      <c r="L33" s="322">
+      <c r="L33" s="323">
         <v>78</v>
       </c>
-      <c r="M33" s="321"/>
+      <c r="M33" s="322"/>
       <c r="N33" s="41">
         <v>61</v>
       </c>
@@ -10608,10 +10609,10 @@
       <c r="B34" s="42">
         <v>5</v>
       </c>
-      <c r="C34" s="320">
+      <c r="C34" s="321">
         <v>448</v>
       </c>
-      <c r="D34" s="321"/>
+      <c r="D34" s="322"/>
       <c r="E34" s="41">
         <v>26</v>
       </c>
@@ -10633,10 +10634,10 @@
       <c r="K34" s="295">
         <v>1</v>
       </c>
-      <c r="L34" s="322">
+      <c r="L34" s="323">
         <v>79</v>
       </c>
-      <c r="M34" s="321"/>
+      <c r="M34" s="322"/>
       <c r="N34" s="41">
         <v>61</v>
       </c>
@@ -10676,10 +10677,10 @@
       <c r="B35" s="42">
         <v>6</v>
       </c>
-      <c r="C35" s="320">
+      <c r="C35" s="321">
         <v>439</v>
       </c>
-      <c r="D35" s="321"/>
+      <c r="D35" s="322"/>
       <c r="E35" s="41">
         <v>21</v>
       </c>
@@ -10701,10 +10702,10 @@
       <c r="K35" s="295">
         <v>1</v>
       </c>
-      <c r="L35" s="322">
+      <c r="L35" s="323">
         <v>80</v>
       </c>
-      <c r="M35" s="321"/>
+      <c r="M35" s="322"/>
       <c r="N35" s="41">
         <v>61</v>
       </c>
@@ -10744,10 +10745,10 @@
       <c r="B36" s="42">
         <v>7</v>
       </c>
-      <c r="C36" s="320">
+      <c r="C36" s="321">
         <v>383</v>
       </c>
-      <c r="D36" s="321"/>
+      <c r="D36" s="322"/>
       <c r="E36" s="41">
         <v>20</v>
       </c>
@@ -10769,10 +10770,10 @@
       <c r="K36" s="295">
         <v>0</v>
       </c>
-      <c r="L36" s="322">
+      <c r="L36" s="323">
         <v>79</v>
       </c>
-      <c r="M36" s="321"/>
+      <c r="M36" s="322"/>
       <c r="N36" s="41">
         <v>60</v>
       </c>
@@ -10812,10 +10813,10 @@
       <c r="B37" s="42">
         <v>8</v>
       </c>
-      <c r="C37" s="320">
+      <c r="C37" s="321">
         <v>440</v>
       </c>
-      <c r="D37" s="321"/>
+      <c r="D37" s="322"/>
       <c r="E37" s="41">
         <v>35</v>
       </c>
@@ -10837,10 +10838,10 @@
       <c r="K37" s="295">
         <v>2</v>
       </c>
-      <c r="L37" s="322">
+      <c r="L37" s="323">
         <v>81</v>
       </c>
-      <c r="M37" s="321"/>
+      <c r="M37" s="322"/>
       <c r="N37" s="41">
         <v>64</v>
       </c>
@@ -10880,10 +10881,10 @@
       <c r="B38" s="42">
         <v>9</v>
       </c>
-      <c r="C38" s="320">
+      <c r="C38" s="321">
         <v>359</v>
       </c>
-      <c r="D38" s="321"/>
+      <c r="D38" s="322"/>
       <c r="E38" s="41">
         <v>27</v>
       </c>
@@ -10905,10 +10906,10 @@
       <c r="K38" s="295">
         <v>0</v>
       </c>
-      <c r="L38" s="322">
+      <c r="L38" s="323">
         <v>81</v>
       </c>
-      <c r="M38" s="321"/>
+      <c r="M38" s="322"/>
       <c r="N38" s="41">
         <v>60</v>
       </c>
@@ -10948,10 +10949,10 @@
       <c r="B39" s="42">
         <v>10</v>
       </c>
-      <c r="C39" s="320">
+      <c r="C39" s="321">
         <v>445</v>
       </c>
-      <c r="D39" s="321"/>
+      <c r="D39" s="322"/>
       <c r="E39" s="41">
         <v>32</v>
       </c>
@@ -10973,10 +10974,10 @@
       <c r="K39" s="295">
         <v>1</v>
       </c>
-      <c r="L39" s="322">
+      <c r="L39" s="323">
         <v>82</v>
       </c>
-      <c r="M39" s="321"/>
+      <c r="M39" s="322"/>
       <c r="N39" s="41">
         <v>61</v>
       </c>
@@ -11016,10 +11017,10 @@
       <c r="B40" s="42">
         <v>11</v>
       </c>
-      <c r="C40" s="320">
+      <c r="C40" s="321">
         <v>462</v>
       </c>
-      <c r="D40" s="321"/>
+      <c r="D40" s="322"/>
       <c r="E40" s="41">
         <v>33</v>
       </c>
@@ -11041,10 +11042,10 @@
       <c r="K40" s="295">
         <v>0</v>
       </c>
-      <c r="L40" s="322">
+      <c r="L40" s="323">
         <v>82</v>
       </c>
-      <c r="M40" s="321"/>
+      <c r="M40" s="322"/>
       <c r="N40" s="41">
         <v>63</v>
       </c>
@@ -11085,8 +11086,8 @@
     <row r="41" spans="1:25" s="12" customFormat="1" ht="6" customHeight="1">
       <c r="A41" s="34"/>
       <c r="B41" s="33"/>
-      <c r="C41" s="350"/>
-      <c r="D41" s="349"/>
+      <c r="C41" s="336"/>
+      <c r="D41" s="335"/>
       <c r="E41" s="30"/>
       <c r="F41" s="30"/>
       <c r="G41" s="26"/>
@@ -11094,8 +11095,8 @@
       <c r="I41" s="306"/>
       <c r="J41" s="306"/>
       <c r="K41" s="32"/>
-      <c r="L41" s="348"/>
-      <c r="M41" s="349"/>
+      <c r="L41" s="334"/>
+      <c r="M41" s="335"/>
       <c r="N41" s="30"/>
       <c r="O41" s="28"/>
       <c r="P41" s="28"/>
@@ -11109,148 +11110,148 @@
       <c r="X41" s="25"/>
     </row>
     <row r="42" spans="1:25" s="12" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C42" s="325"/>
-      <c r="D42" s="325"/>
+      <c r="C42" s="327"/>
+      <c r="D42" s="327"/>
       <c r="G42" s="24"/>
-      <c r="L42" s="325"/>
-      <c r="M42" s="325"/>
+      <c r="L42" s="327"/>
+      <c r="M42" s="327"/>
     </row>
     <row r="43" spans="1:25" s="12" customFormat="1" ht="12.75" customHeight="1">
       <c r="A43" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="344" t="s">
+      <c r="B43" s="320" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="344"/>
-      <c r="D43" s="344" t="s">
+      <c r="C43" s="320"/>
+      <c r="D43" s="320" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="344"/>
-      <c r="F43" s="344"/>
-      <c r="G43" s="344"/>
-      <c r="H43" s="344"/>
-      <c r="I43" s="344"/>
-      <c r="J43" s="344"/>
-      <c r="K43" s="344"/>
+      <c r="E43" s="320"/>
+      <c r="F43" s="320"/>
+      <c r="G43" s="320"/>
+      <c r="H43" s="320"/>
+      <c r="I43" s="320"/>
+      <c r="J43" s="320"/>
+      <c r="K43" s="320"/>
       <c r="L43" s="14"/>
       <c r="M43" s="14"/>
       <c r="N43" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="O43" s="345" t="s">
+      <c r="O43" s="331" t="s">
         <v>105</v>
       </c>
-      <c r="P43" s="345"/>
-      <c r="Q43" s="345" t="s">
+      <c r="P43" s="331"/>
+      <c r="Q43" s="331" t="s">
         <v>106</v>
       </c>
-      <c r="R43" s="345"/>
-      <c r="S43" s="345"/>
-      <c r="T43" s="345"/>
-      <c r="U43" s="345"/>
-      <c r="V43" s="345"/>
-      <c r="W43" s="345"/>
-      <c r="X43" s="345"/>
+      <c r="R43" s="331"/>
+      <c r="S43" s="331"/>
+      <c r="T43" s="331"/>
+      <c r="U43" s="331"/>
+      <c r="V43" s="331"/>
+      <c r="W43" s="331"/>
+      <c r="X43" s="331"/>
     </row>
     <row r="44" spans="1:25" s="12" customFormat="1">
       <c r="A44" s="20"/>
       <c r="B44" s="21"/>
-      <c r="D44" s="344"/>
-      <c r="E44" s="344"/>
-      <c r="F44" s="344"/>
-      <c r="G44" s="344"/>
-      <c r="H44" s="344"/>
-      <c r="I44" s="344"/>
-      <c r="J44" s="344"/>
-      <c r="K44" s="344"/>
+      <c r="D44" s="320"/>
+      <c r="E44" s="320"/>
+      <c r="F44" s="320"/>
+      <c r="G44" s="320"/>
+      <c r="H44" s="320"/>
+      <c r="I44" s="320"/>
+      <c r="J44" s="320"/>
+      <c r="K44" s="320"/>
       <c r="L44" s="14"/>
       <c r="M44" s="14"/>
       <c r="N44" s="18"/>
-      <c r="O44" s="345"/>
-      <c r="P44" s="345"/>
-      <c r="Q44" s="345"/>
-      <c r="R44" s="345"/>
-      <c r="S44" s="345"/>
-      <c r="T44" s="345"/>
-      <c r="U44" s="345"/>
-      <c r="V44" s="345"/>
-      <c r="W44" s="345"/>
-      <c r="X44" s="345"/>
+      <c r="O44" s="331"/>
+      <c r="P44" s="331"/>
+      <c r="Q44" s="331"/>
+      <c r="R44" s="331"/>
+      <c r="S44" s="331"/>
+      <c r="T44" s="331"/>
+      <c r="U44" s="331"/>
+      <c r="V44" s="331"/>
+      <c r="W44" s="331"/>
+      <c r="X44" s="331"/>
     </row>
     <row r="45" spans="1:25" s="12" customFormat="1">
       <c r="A45" s="20"/>
-      <c r="D45" s="344"/>
-      <c r="E45" s="344"/>
-      <c r="F45" s="344"/>
-      <c r="G45" s="344"/>
-      <c r="H45" s="344"/>
-      <c r="I45" s="344"/>
-      <c r="J45" s="344"/>
-      <c r="K45" s="344"/>
+      <c r="D45" s="320"/>
+      <c r="E45" s="320"/>
+      <c r="F45" s="320"/>
+      <c r="G45" s="320"/>
+      <c r="H45" s="320"/>
+      <c r="I45" s="320"/>
+      <c r="J45" s="320"/>
+      <c r="K45" s="320"/>
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
       <c r="N45" s="18"/>
       <c r="O45" s="18"/>
       <c r="P45" s="18"/>
-      <c r="Q45" s="345"/>
-      <c r="R45" s="345"/>
-      <c r="S45" s="345"/>
-      <c r="T45" s="345"/>
-      <c r="U45" s="345"/>
-      <c r="V45" s="345"/>
-      <c r="W45" s="345"/>
-      <c r="X45" s="345"/>
+      <c r="Q45" s="331"/>
+      <c r="R45" s="331"/>
+      <c r="S45" s="331"/>
+      <c r="T45" s="331"/>
+      <c r="U45" s="331"/>
+      <c r="V45" s="331"/>
+      <c r="W45" s="331"/>
+      <c r="X45" s="331"/>
     </row>
     <row r="46" spans="1:25" s="12" customFormat="1">
       <c r="A46" s="20"/>
-      <c r="D46" s="344"/>
-      <c r="E46" s="344"/>
-      <c r="F46" s="344"/>
-      <c r="G46" s="344"/>
-      <c r="H46" s="344"/>
-      <c r="I46" s="344"/>
-      <c r="J46" s="344"/>
-      <c r="K46" s="344"/>
+      <c r="D46" s="320"/>
+      <c r="E46" s="320"/>
+      <c r="F46" s="320"/>
+      <c r="G46" s="320"/>
+      <c r="H46" s="320"/>
+      <c r="I46" s="320"/>
+      <c r="J46" s="320"/>
+      <c r="K46" s="320"/>
       <c r="L46" s="14"/>
       <c r="M46" s="14"/>
       <c r="N46" s="18"/>
       <c r="O46" s="18"/>
       <c r="P46" s="18"/>
-      <c r="Q46" s="345"/>
-      <c r="R46" s="345"/>
-      <c r="S46" s="345"/>
-      <c r="T46" s="345"/>
-      <c r="U46" s="345"/>
-      <c r="V46" s="345"/>
-      <c r="W46" s="345"/>
-      <c r="X46" s="345"/>
+      <c r="Q46" s="331"/>
+      <c r="R46" s="331"/>
+      <c r="S46" s="331"/>
+      <c r="T46" s="331"/>
+      <c r="U46" s="331"/>
+      <c r="V46" s="331"/>
+      <c r="W46" s="331"/>
+      <c r="X46" s="331"/>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="20"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
-      <c r="D47" s="344"/>
-      <c r="E47" s="344"/>
-      <c r="F47" s="344"/>
-      <c r="G47" s="344"/>
-      <c r="H47" s="344"/>
-      <c r="I47" s="344"/>
-      <c r="J47" s="344"/>
-      <c r="K47" s="344"/>
+      <c r="D47" s="320"/>
+      <c r="E47" s="320"/>
+      <c r="F47" s="320"/>
+      <c r="G47" s="320"/>
+      <c r="H47" s="320"/>
+      <c r="I47" s="320"/>
+      <c r="J47" s="320"/>
+      <c r="K47" s="320"/>
       <c r="L47" s="12"/>
       <c r="M47" s="18"/>
       <c r="N47" s="18"/>
       <c r="O47" s="18"/>
       <c r="P47" s="18"/>
-      <c r="Q47" s="345"/>
-      <c r="R47" s="345"/>
-      <c r="S47" s="345"/>
-      <c r="T47" s="345"/>
-      <c r="U47" s="345"/>
-      <c r="V47" s="345"/>
-      <c r="W47" s="345"/>
-      <c r="X47" s="345"/>
+      <c r="Q47" s="331"/>
+      <c r="R47" s="331"/>
+      <c r="S47" s="331"/>
+      <c r="T47" s="331"/>
+      <c r="U47" s="331"/>
+      <c r="V47" s="331"/>
+      <c r="W47" s="331"/>
+      <c r="X47" s="331"/>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" s="12"/>
@@ -11269,78 +11270,78 @@
       <c r="N48" s="18"/>
       <c r="O48" s="18"/>
       <c r="P48" s="18"/>
-      <c r="Q48" s="345"/>
-      <c r="R48" s="345"/>
-      <c r="S48" s="345"/>
-      <c r="T48" s="345"/>
-      <c r="U48" s="345"/>
-      <c r="V48" s="345"/>
-      <c r="W48" s="345"/>
-      <c r="X48" s="345"/>
+      <c r="Q48" s="331"/>
+      <c r="R48" s="331"/>
+      <c r="S48" s="331"/>
+      <c r="T48" s="331"/>
+      <c r="U48" s="331"/>
+      <c r="V48" s="331"/>
+      <c r="W48" s="331"/>
+      <c r="X48" s="331"/>
     </row>
     <row r="49" spans="1:24" ht="12.75" customHeight="1">
       <c r="A49" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="344" t="s">
+      <c r="B49" s="320" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="344"/>
-      <c r="D49" s="344" t="s">
+      <c r="C49" s="320"/>
+      <c r="D49" s="320" t="s">
         <v>109</v>
       </c>
-      <c r="E49" s="344"/>
-      <c r="F49" s="344"/>
-      <c r="G49" s="344"/>
-      <c r="H49" s="344"/>
-      <c r="I49" s="344"/>
-      <c r="J49" s="344"/>
-      <c r="K49" s="344"/>
+      <c r="E49" s="320"/>
+      <c r="F49" s="320"/>
+      <c r="G49" s="320"/>
+      <c r="H49" s="320"/>
+      <c r="I49" s="320"/>
+      <c r="J49" s="320"/>
+      <c r="K49" s="320"/>
       <c r="L49" s="12"/>
       <c r="M49" s="12"/>
       <c r="N49" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="O49" s="345" t="s">
+      <c r="O49" s="331" t="s">
         <v>110</v>
       </c>
-      <c r="P49" s="345"/>
-      <c r="Q49" s="345" t="s">
+      <c r="P49" s="331"/>
+      <c r="Q49" s="331" t="s">
         <v>111</v>
       </c>
-      <c r="R49" s="345"/>
-      <c r="S49" s="345"/>
-      <c r="T49" s="345"/>
-      <c r="U49" s="345"/>
-      <c r="V49" s="345"/>
-      <c r="W49" s="345"/>
-      <c r="X49" s="345"/>
+      <c r="R49" s="331"/>
+      <c r="S49" s="331"/>
+      <c r="T49" s="331"/>
+      <c r="U49" s="331"/>
+      <c r="V49" s="331"/>
+      <c r="W49" s="331"/>
+      <c r="X49" s="331"/>
     </row>
     <row r="50" spans="1:24">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
-      <c r="D50" s="344"/>
-      <c r="E50" s="344"/>
-      <c r="F50" s="344"/>
-      <c r="G50" s="344"/>
-      <c r="H50" s="344"/>
-      <c r="I50" s="344"/>
-      <c r="J50" s="344"/>
-      <c r="K50" s="344"/>
+      <c r="D50" s="320"/>
+      <c r="E50" s="320"/>
+      <c r="F50" s="320"/>
+      <c r="G50" s="320"/>
+      <c r="H50" s="320"/>
+      <c r="I50" s="320"/>
+      <c r="J50" s="320"/>
+      <c r="K50" s="320"/>
       <c r="L50" s="12"/>
       <c r="M50" s="13"/>
       <c r="N50" s="12"/>
-      <c r="O50" s="345"/>
-      <c r="P50" s="345"/>
-      <c r="Q50" s="345"/>
-      <c r="R50" s="345"/>
-      <c r="S50" s="345"/>
-      <c r="T50" s="345"/>
-      <c r="U50" s="345"/>
-      <c r="V50" s="345"/>
-      <c r="W50" s="345"/>
-      <c r="X50" s="345"/>
+      <c r="O50" s="331"/>
+      <c r="P50" s="331"/>
+      <c r="Q50" s="331"/>
+      <c r="R50" s="331"/>
+      <c r="S50" s="331"/>
+      <c r="T50" s="331"/>
+      <c r="U50" s="331"/>
+      <c r="V50" s="331"/>
+      <c r="W50" s="331"/>
+      <c r="X50" s="331"/>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="12"/>
@@ -11359,14 +11360,14 @@
       <c r="N51" s="12"/>
       <c r="O51" s="14"/>
       <c r="P51" s="14"/>
-      <c r="Q51" s="345"/>
-      <c r="R51" s="345"/>
-      <c r="S51" s="345"/>
-      <c r="T51" s="345"/>
-      <c r="U51" s="345"/>
-      <c r="V51" s="345"/>
-      <c r="W51" s="345"/>
-      <c r="X51" s="345"/>
+      <c r="Q51" s="331"/>
+      <c r="R51" s="331"/>
+      <c r="S51" s="331"/>
+      <c r="T51" s="331"/>
+      <c r="U51" s="331"/>
+      <c r="V51" s="331"/>
+      <c r="W51" s="331"/>
+      <c r="X51" s="331"/>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" s="12"/>
@@ -11552,6 +11553,81 @@
     </row>
   </sheetData>
   <mergeCells count="91">
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="C4:X4"/>
+    <mergeCell ref="C5:X5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="O7:S7"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:K50"/>
+    <mergeCell ref="O49:P50"/>
+    <mergeCell ref="Q49:X51"/>
+    <mergeCell ref="O43:P44"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="Q43:X48"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="L14:M14"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:K47"/>
     <mergeCell ref="C18:D18"/>
@@ -11568,81 +11644,6 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="L17:M17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:K50"/>
-    <mergeCell ref="O49:P50"/>
-    <mergeCell ref="Q49:X51"/>
-    <mergeCell ref="O43:P44"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="Q43:X48"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="O7:S7"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="C4:X4"/>
-    <mergeCell ref="C5:X5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L37:M37"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -11696,35 +11697,35 @@
     <row r="7" spans="1:8" s="12" customFormat="1" ht="14.1" customHeight="1">
       <c r="A7" s="95"/>
       <c r="B7" s="94"/>
-      <c r="C7" s="354"/>
-      <c r="D7" s="325"/>
-      <c r="E7" s="325"/>
-      <c r="F7" s="325"/>
-      <c r="G7" s="327"/>
+      <c r="C7" s="366"/>
+      <c r="D7" s="327"/>
+      <c r="E7" s="327"/>
+      <c r="F7" s="327"/>
+      <c r="G7" s="349"/>
       <c r="H7" s="107"/>
     </row>
     <row r="8" spans="1:8" s="12" customFormat="1" ht="14.1" customHeight="1">
       <c r="A8" s="93"/>
       <c r="B8" s="91"/>
-      <c r="C8" s="332" t="s">
+      <c r="C8" s="350" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="333"/>
-      <c r="E8" s="333"/>
-      <c r="F8" s="333"/>
-      <c r="G8" s="355"/>
+      <c r="D8" s="351"/>
+      <c r="E8" s="351"/>
+      <c r="F8" s="351"/>
+      <c r="G8" s="367"/>
       <c r="H8" s="107"/>
     </row>
     <row r="9" spans="1:8" s="12" customFormat="1" ht="14.1" customHeight="1">
       <c r="A9" s="92"/>
       <c r="B9" s="91"/>
-      <c r="C9" s="356" t="s">
+      <c r="C9" s="368" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="333"/>
-      <c r="E9" s="333"/>
-      <c r="F9" s="333"/>
-      <c r="G9" s="355"/>
+      <c r="D9" s="351"/>
+      <c r="E9" s="351"/>
+      <c r="F9" s="351"/>
+      <c r="G9" s="367"/>
       <c r="H9" s="107"/>
     </row>
     <row r="10" spans="1:8" s="12" customFormat="1" ht="14.1" customHeight="1">
@@ -11734,7 +11735,7 @@
       <c r="D10" s="329"/>
       <c r="E10" s="329"/>
       <c r="F10" s="329"/>
-      <c r="G10" s="331"/>
+      <c r="G10" s="337"/>
       <c r="H10" s="107"/>
     </row>
     <row r="11" spans="1:8" s="12" customFormat="1" ht="14.1" customHeight="1">
@@ -11742,11 +11743,11 @@
         <v>85</v>
       </c>
       <c r="B11" s="82"/>
-      <c r="C11" s="324" t="s">
+      <c r="C11" s="338" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="325"/>
-      <c r="E11" s="325"/>
+      <c r="D11" s="327"/>
+      <c r="E11" s="327"/>
       <c r="F11" s="303" t="s">
         <v>87</v>
       </c>
@@ -12488,124 +12489,124 @@
     <row r="49" spans="1:24" s="12" customFormat="1" ht="11.25">
       <c r="A49" s="131"/>
       <c r="B49" s="132"/>
-      <c r="C49" s="357" t="s">
+      <c r="C49" s="359" t="s">
         <v>117</v>
       </c>
-      <c r="D49" s="358"/>
-      <c r="E49" s="358"/>
-      <c r="F49" s="358"/>
-      <c r="G49" s="358"/>
-      <c r="H49" s="358"/>
-      <c r="I49" s="358"/>
-      <c r="J49" s="358"/>
-      <c r="K49" s="358"/>
-      <c r="L49" s="358"/>
-      <c r="M49" s="358"/>
-      <c r="N49" s="358"/>
-      <c r="O49" s="358"/>
-      <c r="P49" s="358"/>
-      <c r="Q49" s="358"/>
-      <c r="R49" s="358"/>
-      <c r="S49" s="358"/>
-      <c r="T49" s="358"/>
-      <c r="U49" s="358"/>
-      <c r="V49" s="359"/>
+      <c r="D49" s="362"/>
+      <c r="E49" s="362"/>
+      <c r="F49" s="362"/>
+      <c r="G49" s="362"/>
+      <c r="H49" s="362"/>
+      <c r="I49" s="362"/>
+      <c r="J49" s="362"/>
+      <c r="K49" s="362"/>
+      <c r="L49" s="362"/>
+      <c r="M49" s="362"/>
+      <c r="N49" s="362"/>
+      <c r="O49" s="362"/>
+      <c r="P49" s="362"/>
+      <c r="Q49" s="362"/>
+      <c r="R49" s="362"/>
+      <c r="S49" s="362"/>
+      <c r="T49" s="362"/>
+      <c r="U49" s="362"/>
+      <c r="V49" s="364"/>
       <c r="W49" s="133"/>
       <c r="X49" s="134"/>
     </row>
     <row r="50" spans="1:24" s="12" customFormat="1" ht="11.25">
       <c r="A50" s="135"/>
       <c r="B50" s="136"/>
-      <c r="C50" s="360" t="s">
+      <c r="C50" s="354" t="s">
         <v>118</v>
       </c>
-      <c r="D50" s="361"/>
-      <c r="E50" s="361"/>
-      <c r="F50" s="361"/>
-      <c r="G50" s="361"/>
-      <c r="H50" s="361"/>
-      <c r="I50" s="361"/>
-      <c r="J50" s="361"/>
-      <c r="K50" s="361"/>
-      <c r="L50" s="361"/>
-      <c r="M50" s="361"/>
-      <c r="N50" s="361"/>
-      <c r="O50" s="361"/>
-      <c r="P50" s="361"/>
-      <c r="Q50" s="361"/>
-      <c r="R50" s="361"/>
-      <c r="S50" s="361"/>
-      <c r="T50" s="361"/>
-      <c r="U50" s="361"/>
-      <c r="V50" s="362"/>
+      <c r="D50" s="355"/>
+      <c r="E50" s="355"/>
+      <c r="F50" s="355"/>
+      <c r="G50" s="355"/>
+      <c r="H50" s="355"/>
+      <c r="I50" s="355"/>
+      <c r="J50" s="355"/>
+      <c r="K50" s="355"/>
+      <c r="L50" s="355"/>
+      <c r="M50" s="355"/>
+      <c r="N50" s="355"/>
+      <c r="O50" s="355"/>
+      <c r="P50" s="355"/>
+      <c r="Q50" s="355"/>
+      <c r="R50" s="355"/>
+      <c r="S50" s="355"/>
+      <c r="T50" s="355"/>
+      <c r="U50" s="355"/>
+      <c r="V50" s="358"/>
       <c r="W50" s="133"/>
       <c r="X50" s="134"/>
     </row>
     <row r="51" spans="1:24" s="12" customFormat="1" ht="11.25">
       <c r="A51" s="137"/>
       <c r="B51" s="136"/>
-      <c r="C51" s="357" t="s">
+      <c r="C51" s="359" t="s">
         <v>119</v>
       </c>
-      <c r="D51" s="363"/>
-      <c r="E51" s="363"/>
-      <c r="F51" s="363"/>
-      <c r="G51" s="364"/>
-      <c r="H51" s="358" t="s">
+      <c r="D51" s="360"/>
+      <c r="E51" s="360"/>
+      <c r="F51" s="360"/>
+      <c r="G51" s="361"/>
+      <c r="H51" s="362" t="s">
         <v>120</v>
       </c>
-      <c r="I51" s="363"/>
-      <c r="J51" s="363"/>
-      <c r="K51" s="363"/>
-      <c r="L51" s="364"/>
-      <c r="M51" s="365" t="s">
+      <c r="I51" s="360"/>
+      <c r="J51" s="360"/>
+      <c r="K51" s="360"/>
+      <c r="L51" s="361"/>
+      <c r="M51" s="363" t="s">
         <v>121</v>
       </c>
-      <c r="N51" s="363"/>
-      <c r="O51" s="363"/>
-      <c r="P51" s="363"/>
-      <c r="Q51" s="363"/>
-      <c r="R51" s="357" t="s">
+      <c r="N51" s="360"/>
+      <c r="O51" s="360"/>
+      <c r="P51" s="360"/>
+      <c r="Q51" s="360"/>
+      <c r="R51" s="359" t="s">
         <v>122</v>
       </c>
-      <c r="S51" s="363"/>
-      <c r="T51" s="363"/>
-      <c r="U51" s="363"/>
-      <c r="V51" s="366"/>
+      <c r="S51" s="360"/>
+      <c r="T51" s="360"/>
+      <c r="U51" s="360"/>
+      <c r="V51" s="365"/>
       <c r="W51" s="133"/>
       <c r="X51" s="134"/>
     </row>
     <row r="52" spans="1:24" s="12" customFormat="1" ht="11.25">
       <c r="A52" s="138"/>
       <c r="B52" s="136"/>
-      <c r="C52" s="360" t="s">
+      <c r="C52" s="354" t="s">
         <v>123</v>
       </c>
-      <c r="D52" s="361"/>
-      <c r="E52" s="361"/>
-      <c r="F52" s="361"/>
-      <c r="G52" s="367"/>
-      <c r="H52" s="361" t="s">
+      <c r="D52" s="355"/>
+      <c r="E52" s="355"/>
+      <c r="F52" s="355"/>
+      <c r="G52" s="356"/>
+      <c r="H52" s="355" t="s">
         <v>124</v>
       </c>
-      <c r="I52" s="361"/>
-      <c r="J52" s="361"/>
-      <c r="K52" s="361"/>
-      <c r="L52" s="367"/>
-      <c r="M52" s="368" t="s">
+      <c r="I52" s="355"/>
+      <c r="J52" s="355"/>
+      <c r="K52" s="355"/>
+      <c r="L52" s="356"/>
+      <c r="M52" s="357" t="s">
         <v>125</v>
       </c>
-      <c r="N52" s="361"/>
-      <c r="O52" s="361"/>
-      <c r="P52" s="361"/>
-      <c r="Q52" s="361"/>
-      <c r="R52" s="360" t="s">
+      <c r="N52" s="355"/>
+      <c r="O52" s="355"/>
+      <c r="P52" s="355"/>
+      <c r="Q52" s="355"/>
+      <c r="R52" s="354" t="s">
         <v>84</v>
       </c>
-      <c r="S52" s="361"/>
-      <c r="T52" s="361"/>
-      <c r="U52" s="361"/>
-      <c r="V52" s="362"/>
+      <c r="S52" s="355"/>
+      <c r="T52" s="355"/>
+      <c r="U52" s="355"/>
+      <c r="V52" s="358"/>
       <c r="W52" s="133"/>
       <c r="X52" s="134"/>
     </row>
@@ -12614,44 +12615,44 @@
         <v>85</v>
       </c>
       <c r="B53" s="139"/>
-      <c r="C53" s="357" t="s">
+      <c r="C53" s="359" t="s">
         <v>126</v>
       </c>
-      <c r="D53" s="363"/>
-      <c r="E53" s="364"/>
+      <c r="D53" s="360"/>
+      <c r="E53" s="361"/>
       <c r="F53" s="140" t="s">
         <v>127</v>
       </c>
       <c r="G53" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="H53" s="358" t="s">
+      <c r="H53" s="362" t="s">
         <v>126</v>
       </c>
-      <c r="I53" s="363"/>
-      <c r="J53" s="364"/>
+      <c r="I53" s="360"/>
+      <c r="J53" s="361"/>
       <c r="K53" s="140" t="s">
         <v>127</v>
       </c>
       <c r="L53" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="M53" s="365" t="s">
+      <c r="M53" s="363" t="s">
         <v>126</v>
       </c>
-      <c r="N53" s="363"/>
-      <c r="O53" s="364"/>
+      <c r="N53" s="360"/>
+      <c r="O53" s="361"/>
       <c r="P53" s="140" t="s">
         <v>127</v>
       </c>
       <c r="Q53" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="R53" s="357" t="s">
+      <c r="R53" s="359" t="s">
         <v>126</v>
       </c>
-      <c r="S53" s="363"/>
-      <c r="T53" s="364"/>
+      <c r="S53" s="360"/>
+      <c r="T53" s="361"/>
       <c r="U53" s="140" t="s">
         <v>127</v>
       </c>
@@ -12664,44 +12665,44 @@
     <row r="54" spans="1:24" s="12" customFormat="1" ht="11.25">
       <c r="A54" s="138"/>
       <c r="B54" s="139"/>
-      <c r="C54" s="360" t="s">
+      <c r="C54" s="354" t="s">
         <v>129</v>
       </c>
-      <c r="D54" s="361"/>
-      <c r="E54" s="367"/>
+      <c r="D54" s="355"/>
+      <c r="E54" s="356"/>
       <c r="F54" s="143" t="s">
         <v>130</v>
       </c>
       <c r="G54" s="144" t="s">
         <v>130</v>
       </c>
-      <c r="H54" s="361" t="s">
+      <c r="H54" s="355" t="s">
         <v>129</v>
       </c>
-      <c r="I54" s="361"/>
-      <c r="J54" s="367"/>
+      <c r="I54" s="355"/>
+      <c r="J54" s="356"/>
       <c r="K54" s="143" t="s">
         <v>130</v>
       </c>
       <c r="L54" s="144" t="s">
         <v>130</v>
       </c>
-      <c r="M54" s="368" t="s">
+      <c r="M54" s="357" t="s">
         <v>129</v>
       </c>
-      <c r="N54" s="361"/>
-      <c r="O54" s="367"/>
+      <c r="N54" s="355"/>
+      <c r="O54" s="356"/>
       <c r="P54" s="143" t="s">
         <v>130</v>
       </c>
       <c r="Q54" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="R54" s="360" t="s">
+      <c r="R54" s="354" t="s">
         <v>129</v>
       </c>
-      <c r="S54" s="361"/>
-      <c r="T54" s="367"/>
+      <c r="S54" s="355"/>
+      <c r="T54" s="356"/>
       <c r="U54" s="143" t="s">
         <v>130</v>
       </c>
@@ -14727,6 +14728,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C49:V49"/>
+    <mergeCell ref="C50:V50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="M51:Q51"/>
+    <mergeCell ref="R51:V51"/>
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="H54:J54"/>
     <mergeCell ref="M54:O54"/>
@@ -14739,18 +14752,6 @@
     <mergeCell ref="H53:J53"/>
     <mergeCell ref="M53:O53"/>
     <mergeCell ref="R53:T53"/>
-    <mergeCell ref="C49:V49"/>
-    <mergeCell ref="C50:V50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="M51:Q51"/>
-    <mergeCell ref="R51:V51"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -14796,25 +14797,25 @@
     <row r="2" spans="1:22">
       <c r="A2" s="131"/>
       <c r="B2" s="132"/>
-      <c r="C2" s="357" t="s">
+      <c r="C2" s="359" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="363"/>
-      <c r="E2" s="363"/>
-      <c r="F2" s="363"/>
-      <c r="G2" s="363"/>
-      <c r="H2" s="363"/>
-      <c r="I2" s="363"/>
-      <c r="J2" s="363"/>
-      <c r="K2" s="363"/>
-      <c r="L2" s="363"/>
-      <c r="M2" s="363"/>
-      <c r="N2" s="363"/>
-      <c r="O2" s="363"/>
-      <c r="P2" s="363"/>
-      <c r="Q2" s="364"/>
-      <c r="R2" s="363"/>
-      <c r="S2" s="366"/>
+      <c r="D2" s="360"/>
+      <c r="E2" s="360"/>
+      <c r="F2" s="360"/>
+      <c r="G2" s="360"/>
+      <c r="H2" s="360"/>
+      <c r="I2" s="360"/>
+      <c r="J2" s="360"/>
+      <c r="K2" s="360"/>
+      <c r="L2" s="360"/>
+      <c r="M2" s="360"/>
+      <c r="N2" s="360"/>
+      <c r="O2" s="360"/>
+      <c r="P2" s="360"/>
+      <c r="Q2" s="361"/>
+      <c r="R2" s="360"/>
+      <c r="S2" s="365"/>
       <c r="T2" s="134"/>
       <c r="U2" s="134"/>
       <c r="V2" s="134"/>
@@ -14822,18 +14823,18 @@
     <row r="3" spans="1:22">
       <c r="A3" s="135"/>
       <c r="B3" s="136"/>
-      <c r="C3" s="369" t="s">
+      <c r="C3" s="392" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="370"/>
-      <c r="E3" s="370"/>
-      <c r="F3" s="370"/>
-      <c r="G3" s="370"/>
-      <c r="H3" s="370"/>
-      <c r="I3" s="370"/>
-      <c r="J3" s="370"/>
-      <c r="K3" s="370"/>
-      <c r="L3" s="371"/>
+      <c r="D3" s="386"/>
+      <c r="E3" s="386"/>
+      <c r="F3" s="386"/>
+      <c r="G3" s="386"/>
+      <c r="H3" s="386"/>
+      <c r="I3" s="386"/>
+      <c r="J3" s="386"/>
+      <c r="K3" s="386"/>
+      <c r="L3" s="387"/>
       <c r="M3" s="310"/>
       <c r="N3" s="204"/>
       <c r="O3" s="205"/>
@@ -14848,27 +14849,27 @@
     <row r="4" spans="1:22">
       <c r="A4" s="188"/>
       <c r="B4" s="136"/>
-      <c r="C4" s="372" t="s">
+      <c r="C4" s="393" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="373"/>
-      <c r="E4" s="373"/>
-      <c r="F4" s="373"/>
-      <c r="G4" s="373"/>
-      <c r="H4" s="373"/>
-      <c r="I4" s="373"/>
-      <c r="J4" s="373"/>
-      <c r="K4" s="373"/>
-      <c r="L4" s="374"/>
-      <c r="M4" s="375" t="s">
+      <c r="D4" s="394"/>
+      <c r="E4" s="394"/>
+      <c r="F4" s="394"/>
+      <c r="G4" s="394"/>
+      <c r="H4" s="394"/>
+      <c r="I4" s="394"/>
+      <c r="J4" s="394"/>
+      <c r="K4" s="394"/>
+      <c r="L4" s="395"/>
+      <c r="M4" s="396" t="s">
         <v>122</v>
       </c>
-      <c r="N4" s="376"/>
-      <c r="O4" s="376"/>
-      <c r="P4" s="376"/>
-      <c r="Q4" s="377"/>
-      <c r="R4" s="376"/>
-      <c r="S4" s="378"/>
+      <c r="N4" s="397"/>
+      <c r="O4" s="397"/>
+      <c r="P4" s="397"/>
+      <c r="Q4" s="398"/>
+      <c r="R4" s="397"/>
+      <c r="S4" s="399"/>
       <c r="T4" s="134"/>
       <c r="U4" s="134"/>
       <c r="V4" s="134"/>
@@ -14876,29 +14877,29 @@
     <row r="5" spans="1:22">
       <c r="A5" s="138"/>
       <c r="B5" s="136"/>
-      <c r="C5" s="369" t="s">
+      <c r="C5" s="392" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="370"/>
-      <c r="E5" s="370"/>
-      <c r="F5" s="370"/>
-      <c r="G5" s="370"/>
-      <c r="H5" s="379" t="s">
+      <c r="D5" s="386"/>
+      <c r="E5" s="386"/>
+      <c r="F5" s="386"/>
+      <c r="G5" s="386"/>
+      <c r="H5" s="400" t="s">
         <v>137</v>
       </c>
-      <c r="I5" s="370"/>
-      <c r="J5" s="370"/>
-      <c r="K5" s="370"/>
-      <c r="L5" s="371"/>
-      <c r="M5" s="361" t="s">
+      <c r="I5" s="386"/>
+      <c r="J5" s="386"/>
+      <c r="K5" s="386"/>
+      <c r="L5" s="387"/>
+      <c r="M5" s="355" t="s">
         <v>84</v>
       </c>
-      <c r="N5" s="361"/>
-      <c r="O5" s="361"/>
-      <c r="P5" s="361"/>
-      <c r="Q5" s="367"/>
-      <c r="R5" s="361"/>
-      <c r="S5" s="362"/>
+      <c r="N5" s="355"/>
+      <c r="O5" s="355"/>
+      <c r="P5" s="355"/>
+      <c r="Q5" s="356"/>
+      <c r="R5" s="355"/>
+      <c r="S5" s="358"/>
       <c r="T5" s="134"/>
       <c r="U5" s="134"/>
       <c r="V5" s="134"/>
@@ -14908,34 +14909,34 @@
         <v>85</v>
       </c>
       <c r="B6" s="139"/>
-      <c r="C6" s="357" t="s">
+      <c r="C6" s="359" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="363"/>
-      <c r="E6" s="364"/>
+      <c r="D6" s="360"/>
+      <c r="E6" s="361"/>
       <c r="F6" s="140" t="s">
         <v>127</v>
       </c>
       <c r="G6" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="H6" s="365" t="s">
+      <c r="H6" s="363" t="s">
         <v>126</v>
       </c>
-      <c r="I6" s="363"/>
-      <c r="J6" s="364"/>
+      <c r="I6" s="360"/>
+      <c r="J6" s="361"/>
       <c r="K6" s="140" t="s">
         <v>127</v>
       </c>
       <c r="L6" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="M6" s="357" t="s">
+      <c r="M6" s="359" t="s">
         <v>126</v>
       </c>
-      <c r="N6" s="363"/>
-      <c r="O6" s="363"/>
-      <c r="P6" s="363"/>
+      <c r="N6" s="360"/>
+      <c r="O6" s="360"/>
+      <c r="P6" s="360"/>
       <c r="Q6" s="206"/>
       <c r="R6" s="207" t="s">
         <v>127</v>
@@ -14950,34 +14951,34 @@
     <row r="7" spans="1:22">
       <c r="A7" s="138"/>
       <c r="B7" s="139"/>
-      <c r="C7" s="360" t="s">
+      <c r="C7" s="354" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="361"/>
-      <c r="E7" s="367"/>
+      <c r="D7" s="355"/>
+      <c r="E7" s="356"/>
       <c r="F7" s="143" t="s">
         <v>130</v>
       </c>
       <c r="G7" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="H7" s="368" t="s">
+      <c r="H7" s="357" t="s">
         <v>129</v>
       </c>
-      <c r="I7" s="361"/>
-      <c r="J7" s="367"/>
+      <c r="I7" s="355"/>
+      <c r="J7" s="356"/>
       <c r="K7" s="143" t="s">
         <v>130</v>
       </c>
       <c r="L7" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="M7" s="360" t="s">
+      <c r="M7" s="354" t="s">
         <v>129</v>
       </c>
-      <c r="N7" s="361"/>
-      <c r="O7" s="361"/>
-      <c r="P7" s="361"/>
+      <c r="N7" s="355"/>
+      <c r="O7" s="355"/>
+      <c r="P7" s="355"/>
       <c r="Q7" s="208"/>
       <c r="R7" s="209" t="s">
         <v>130</v>
@@ -15027,14 +15028,14 @@
       <c r="M8" s="152" t="s">
         <v>131</v>
       </c>
-      <c r="N8" s="384" t="s">
+      <c r="N8" s="388" t="s">
         <v>93</v>
       </c>
-      <c r="O8" s="385"/>
-      <c r="P8" s="384" t="s">
+      <c r="O8" s="389"/>
+      <c r="P8" s="388" t="s">
         <v>94</v>
       </c>
-      <c r="Q8" s="385"/>
+      <c r="Q8" s="389"/>
       <c r="R8" s="210" t="s">
         <v>95</v>
       </c>
@@ -15081,14 +15082,14 @@
       <c r="M9" s="312" t="s">
         <v>132</v>
       </c>
-      <c r="N9" s="386" t="s">
+      <c r="N9" s="390" t="s">
         <v>97</v>
       </c>
-      <c r="O9" s="387"/>
-      <c r="P9" s="386" t="s">
+      <c r="O9" s="391"/>
+      <c r="P9" s="390" t="s">
         <v>84</v>
       </c>
-      <c r="Q9" s="387"/>
+      <c r="Q9" s="391"/>
       <c r="R9" s="211" t="s">
         <v>98</v>
       </c>
@@ -16562,23 +16563,23 @@
     <row r="40" spans="1:22">
       <c r="A40" s="131"/>
       <c r="B40" s="132"/>
-      <c r="C40" s="357" t="s">
+      <c r="C40" s="359" t="s">
         <v>138</v>
       </c>
-      <c r="D40" s="358"/>
-      <c r="E40" s="358"/>
-      <c r="F40" s="358"/>
-      <c r="G40" s="358"/>
-      <c r="H40" s="358"/>
-      <c r="I40" s="358"/>
-      <c r="J40" s="358"/>
-      <c r="K40" s="358"/>
-      <c r="L40" s="358"/>
-      <c r="M40" s="358"/>
-      <c r="N40" s="358"/>
-      <c r="O40" s="358"/>
-      <c r="P40" s="358"/>
-      <c r="Q40" s="359"/>
+      <c r="D40" s="362"/>
+      <c r="E40" s="362"/>
+      <c r="F40" s="362"/>
+      <c r="G40" s="362"/>
+      <c r="H40" s="362"/>
+      <c r="I40" s="362"/>
+      <c r="J40" s="362"/>
+      <c r="K40" s="362"/>
+      <c r="L40" s="362"/>
+      <c r="M40" s="362"/>
+      <c r="N40" s="362"/>
+      <c r="O40" s="362"/>
+      <c r="P40" s="362"/>
+      <c r="Q40" s="364"/>
       <c r="R40" s="134"/>
       <c r="S40" s="134"/>
       <c r="T40" s="127"/>
@@ -16588,23 +16589,23 @@
     <row r="41" spans="1:22">
       <c r="A41" s="135"/>
       <c r="B41" s="136"/>
-      <c r="C41" s="383" t="s">
+      <c r="C41" s="385" t="s">
         <v>139</v>
       </c>
-      <c r="D41" s="370"/>
-      <c r="E41" s="370"/>
-      <c r="F41" s="370"/>
-      <c r="G41" s="370"/>
-      <c r="H41" s="370"/>
-      <c r="I41" s="370"/>
-      <c r="J41" s="370"/>
-      <c r="K41" s="370"/>
-      <c r="L41" s="370"/>
-      <c r="M41" s="370"/>
-      <c r="N41" s="370"/>
-      <c r="O41" s="370"/>
-      <c r="P41" s="370"/>
-      <c r="Q41" s="371"/>
+      <c r="D41" s="386"/>
+      <c r="E41" s="386"/>
+      <c r="F41" s="386"/>
+      <c r="G41" s="386"/>
+      <c r="H41" s="386"/>
+      <c r="I41" s="386"/>
+      <c r="J41" s="386"/>
+      <c r="K41" s="386"/>
+      <c r="L41" s="386"/>
+      <c r="M41" s="386"/>
+      <c r="N41" s="386"/>
+      <c r="O41" s="386"/>
+      <c r="P41" s="386"/>
+      <c r="Q41" s="387"/>
       <c r="R41" s="134"/>
       <c r="S41" s="134"/>
       <c r="T41" s="127"/>
@@ -16614,27 +16615,27 @@
     <row r="42" spans="1:22">
       <c r="A42" s="188"/>
       <c r="B42" s="136"/>
-      <c r="C42" s="380" t="s">
+      <c r="C42" s="383" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="381"/>
-      <c r="E42" s="382"/>
-      <c r="F42" s="381"/>
-      <c r="G42" s="381"/>
-      <c r="H42" s="365" t="s">
+      <c r="D42" s="377"/>
+      <c r="E42" s="384"/>
+      <c r="F42" s="377"/>
+      <c r="G42" s="377"/>
+      <c r="H42" s="363" t="s">
         <v>141</v>
       </c>
-      <c r="I42" s="363"/>
-      <c r="J42" s="363"/>
-      <c r="K42" s="363"/>
-      <c r="L42" s="366"/>
-      <c r="M42" s="358" t="s">
+      <c r="I42" s="360"/>
+      <c r="J42" s="360"/>
+      <c r="K42" s="360"/>
+      <c r="L42" s="365"/>
+      <c r="M42" s="362" t="s">
         <v>122</v>
       </c>
-      <c r="N42" s="363"/>
-      <c r="O42" s="363"/>
-      <c r="P42" s="363"/>
-      <c r="Q42" s="366"/>
+      <c r="N42" s="360"/>
+      <c r="O42" s="360"/>
+      <c r="P42" s="360"/>
+      <c r="Q42" s="365"/>
       <c r="R42" s="134"/>
       <c r="S42" s="134"/>
       <c r="T42" s="127"/>
@@ -16644,27 +16645,27 @@
     <row r="43" spans="1:22">
       <c r="A43" s="138"/>
       <c r="B43" s="136"/>
-      <c r="C43" s="388" t="s">
+      <c r="C43" s="370" t="s">
         <v>142</v>
       </c>
-      <c r="D43" s="388"/>
-      <c r="E43" s="389"/>
-      <c r="F43" s="388"/>
-      <c r="G43" s="388"/>
-      <c r="H43" s="390" t="s">
+      <c r="D43" s="370"/>
+      <c r="E43" s="382"/>
+      <c r="F43" s="370"/>
+      <c r="G43" s="370"/>
+      <c r="H43" s="371" t="s">
         <v>143</v>
       </c>
-      <c r="I43" s="388"/>
-      <c r="J43" s="388"/>
-      <c r="K43" s="388"/>
-      <c r="L43" s="391"/>
-      <c r="M43" s="388" t="s">
+      <c r="I43" s="370"/>
+      <c r="J43" s="370"/>
+      <c r="K43" s="370"/>
+      <c r="L43" s="372"/>
+      <c r="M43" s="370" t="s">
         <v>84</v>
       </c>
-      <c r="N43" s="388"/>
-      <c r="O43" s="388"/>
-      <c r="P43" s="388"/>
-      <c r="Q43" s="391"/>
+      <c r="N43" s="370"/>
+      <c r="O43" s="370"/>
+      <c r="P43" s="370"/>
+      <c r="Q43" s="372"/>
       <c r="R43" s="134"/>
       <c r="S43" s="134"/>
     </row>
@@ -16673,33 +16674,33 @@
         <v>85</v>
       </c>
       <c r="B44" s="139"/>
-      <c r="C44" s="358" t="s">
+      <c r="C44" s="362" t="s">
         <v>126</v>
       </c>
-      <c r="D44" s="363"/>
-      <c r="E44" s="364"/>
+      <c r="D44" s="360"/>
+      <c r="E44" s="361"/>
       <c r="F44" s="140" t="s">
         <v>127</v>
       </c>
       <c r="G44" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="H44" s="365" t="s">
+      <c r="H44" s="363" t="s">
         <v>126</v>
       </c>
-      <c r="I44" s="363"/>
-      <c r="J44" s="364"/>
+      <c r="I44" s="360"/>
+      <c r="J44" s="361"/>
       <c r="K44" s="140" t="s">
         <v>127</v>
       </c>
       <c r="L44" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="M44" s="358" t="s">
+      <c r="M44" s="362" t="s">
         <v>126</v>
       </c>
-      <c r="N44" s="363"/>
-      <c r="O44" s="364"/>
+      <c r="N44" s="360"/>
+      <c r="O44" s="361"/>
       <c r="P44" s="140" t="s">
         <v>127</v>
       </c>
@@ -16712,33 +16713,33 @@
     <row r="45" spans="1:22">
       <c r="A45" s="138"/>
       <c r="B45" s="139"/>
-      <c r="C45" s="361" t="s">
+      <c r="C45" s="355" t="s">
         <v>129</v>
       </c>
-      <c r="D45" s="361"/>
-      <c r="E45" s="367"/>
+      <c r="D45" s="355"/>
+      <c r="E45" s="356"/>
       <c r="F45" s="143" t="s">
         <v>130</v>
       </c>
       <c r="G45" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="H45" s="368" t="s">
+      <c r="H45" s="357" t="s">
         <v>129</v>
       </c>
-      <c r="I45" s="361"/>
-      <c r="J45" s="367"/>
+      <c r="I45" s="355"/>
+      <c r="J45" s="356"/>
       <c r="K45" s="143" t="s">
         <v>130</v>
       </c>
       <c r="L45" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="M45" s="361" t="s">
+      <c r="M45" s="355" t="s">
         <v>129</v>
       </c>
-      <c r="N45" s="361"/>
-      <c r="O45" s="367"/>
+      <c r="N45" s="355"/>
+      <c r="O45" s="356"/>
       <c r="P45" s="143" t="s">
         <v>130</v>
       </c>
@@ -18246,23 +18247,23 @@
     <row r="79" spans="1:23">
       <c r="A79" s="131"/>
       <c r="B79" s="132"/>
-      <c r="C79" s="357" t="s">
+      <c r="C79" s="359" t="s">
         <v>144</v>
       </c>
-      <c r="D79" s="358"/>
-      <c r="E79" s="358"/>
-      <c r="F79" s="358"/>
-      <c r="G79" s="358"/>
-      <c r="H79" s="358"/>
-      <c r="I79" s="358"/>
-      <c r="J79" s="358"/>
-      <c r="K79" s="358"/>
-      <c r="L79" s="358"/>
-      <c r="M79" s="358"/>
-      <c r="N79" s="358"/>
-      <c r="O79" s="358"/>
-      <c r="P79" s="358"/>
-      <c r="Q79" s="359"/>
+      <c r="D79" s="362"/>
+      <c r="E79" s="362"/>
+      <c r="F79" s="362"/>
+      <c r="G79" s="362"/>
+      <c r="H79" s="362"/>
+      <c r="I79" s="362"/>
+      <c r="J79" s="362"/>
+      <c r="K79" s="362"/>
+      <c r="L79" s="362"/>
+      <c r="M79" s="362"/>
+      <c r="N79" s="362"/>
+      <c r="O79" s="362"/>
+      <c r="P79" s="362"/>
+      <c r="Q79" s="364"/>
       <c r="R79" s="231"/>
       <c r="S79" s="310"/>
       <c r="T79" s="310"/>
@@ -18273,89 +18274,89 @@
     <row r="80" spans="1:23">
       <c r="A80" s="135"/>
       <c r="B80" s="136"/>
-      <c r="C80" s="392" t="s">
+      <c r="C80" s="379" t="s">
         <v>145</v>
       </c>
-      <c r="D80" s="393"/>
-      <c r="E80" s="393"/>
-      <c r="F80" s="393"/>
-      <c r="G80" s="393"/>
-      <c r="H80" s="393"/>
-      <c r="I80" s="393"/>
-      <c r="J80" s="393"/>
-      <c r="K80" s="393"/>
-      <c r="L80" s="393"/>
-      <c r="M80" s="393"/>
-      <c r="N80" s="393"/>
-      <c r="O80" s="393"/>
-      <c r="P80" s="393"/>
-      <c r="Q80" s="394"/>
-      <c r="R80" s="395" t="s">
+      <c r="D80" s="380"/>
+      <c r="E80" s="380"/>
+      <c r="F80" s="380"/>
+      <c r="G80" s="380"/>
+      <c r="H80" s="380"/>
+      <c r="I80" s="380"/>
+      <c r="J80" s="380"/>
+      <c r="K80" s="380"/>
+      <c r="L80" s="380"/>
+      <c r="M80" s="380"/>
+      <c r="N80" s="380"/>
+      <c r="O80" s="380"/>
+      <c r="P80" s="380"/>
+      <c r="Q80" s="381"/>
+      <c r="R80" s="373" t="s">
         <v>146</v>
       </c>
-      <c r="S80" s="396"/>
-      <c r="T80" s="396"/>
-      <c r="U80" s="396"/>
-      <c r="V80" s="397"/>
+      <c r="S80" s="374"/>
+      <c r="T80" s="374"/>
+      <c r="U80" s="374"/>
+      <c r="V80" s="375"/>
       <c r="W80" s="134"/>
     </row>
     <row r="81" spans="1:23">
       <c r="A81" s="188"/>
       <c r="B81" s="136"/>
-      <c r="C81" s="357" t="s">
+      <c r="C81" s="359" t="s">
         <v>147</v>
       </c>
-      <c r="D81" s="363"/>
-      <c r="E81" s="363"/>
-      <c r="F81" s="363"/>
-      <c r="G81" s="363"/>
-      <c r="H81" s="365" t="s">
+      <c r="D81" s="360"/>
+      <c r="E81" s="360"/>
+      <c r="F81" s="360"/>
+      <c r="G81" s="360"/>
+      <c r="H81" s="363" t="s">
         <v>148</v>
       </c>
-      <c r="I81" s="363"/>
-      <c r="J81" s="363"/>
-      <c r="K81" s="363"/>
-      <c r="L81" s="366"/>
-      <c r="M81" s="357" t="s">
+      <c r="I81" s="360"/>
+      <c r="J81" s="360"/>
+      <c r="K81" s="360"/>
+      <c r="L81" s="365"/>
+      <c r="M81" s="359" t="s">
         <v>122</v>
       </c>
-      <c r="N81" s="363"/>
-      <c r="O81" s="363"/>
-      <c r="P81" s="363"/>
-      <c r="Q81" s="366"/>
-      <c r="R81" s="398" t="s">
+      <c r="N81" s="360"/>
+      <c r="O81" s="360"/>
+      <c r="P81" s="360"/>
+      <c r="Q81" s="365"/>
+      <c r="R81" s="376" t="s">
         <v>149</v>
       </c>
-      <c r="S81" s="381"/>
-      <c r="T81" s="381"/>
-      <c r="U81" s="381"/>
-      <c r="V81" s="399"/>
+      <c r="S81" s="377"/>
+      <c r="T81" s="377"/>
+      <c r="U81" s="377"/>
+      <c r="V81" s="378"/>
       <c r="W81" s="134"/>
     </row>
     <row r="82" spans="1:23">
       <c r="A82" s="138"/>
       <c r="B82" s="136"/>
-      <c r="C82" s="400" t="s">
+      <c r="C82" s="369" t="s">
         <v>150</v>
       </c>
-      <c r="D82" s="388"/>
-      <c r="E82" s="388"/>
-      <c r="F82" s="388"/>
-      <c r="G82" s="388"/>
-      <c r="H82" s="390" t="s">
+      <c r="D82" s="370"/>
+      <c r="E82" s="370"/>
+      <c r="F82" s="370"/>
+      <c r="G82" s="370"/>
+      <c r="H82" s="371" t="s">
         <v>151</v>
       </c>
-      <c r="I82" s="388"/>
-      <c r="J82" s="388"/>
-      <c r="K82" s="388"/>
-      <c r="L82" s="391"/>
-      <c r="M82" s="400" t="s">
+      <c r="I82" s="370"/>
+      <c r="J82" s="370"/>
+      <c r="K82" s="370"/>
+      <c r="L82" s="372"/>
+      <c r="M82" s="369" t="s">
         <v>84</v>
       </c>
-      <c r="N82" s="388"/>
-      <c r="O82" s="388"/>
-      <c r="P82" s="388"/>
-      <c r="Q82" s="391"/>
+      <c r="N82" s="370"/>
+      <c r="O82" s="370"/>
+      <c r="P82" s="370"/>
+      <c r="Q82" s="372"/>
       <c r="R82" s="316"/>
       <c r="S82" s="315"/>
       <c r="T82" s="315"/>
@@ -18368,44 +18369,44 @@
         <v>85</v>
       </c>
       <c r="B83" s="139"/>
-      <c r="C83" s="357" t="s">
+      <c r="C83" s="359" t="s">
         <v>126</v>
       </c>
-      <c r="D83" s="363"/>
-      <c r="E83" s="364"/>
+      <c r="D83" s="360"/>
+      <c r="E83" s="361"/>
       <c r="F83" s="140" t="s">
         <v>127</v>
       </c>
       <c r="G83" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="H83" s="365" t="s">
+      <c r="H83" s="363" t="s">
         <v>126</v>
       </c>
-      <c r="I83" s="363"/>
-      <c r="J83" s="364"/>
+      <c r="I83" s="360"/>
+      <c r="J83" s="361"/>
       <c r="K83" s="140" t="s">
         <v>127</v>
       </c>
       <c r="L83" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="M83" s="357" t="s">
+      <c r="M83" s="359" t="s">
         <v>126</v>
       </c>
-      <c r="N83" s="363"/>
-      <c r="O83" s="364"/>
+      <c r="N83" s="360"/>
+      <c r="O83" s="361"/>
       <c r="P83" s="140" t="s">
         <v>127</v>
       </c>
       <c r="Q83" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="R83" s="357" t="s">
+      <c r="R83" s="359" t="s">
         <v>126</v>
       </c>
-      <c r="S83" s="363"/>
-      <c r="T83" s="364"/>
+      <c r="S83" s="360"/>
+      <c r="T83" s="361"/>
       <c r="U83" s="140" t="s">
         <v>127</v>
       </c>
@@ -18417,44 +18418,44 @@
     <row r="84" spans="1:23">
       <c r="A84" s="138"/>
       <c r="B84" s="139"/>
-      <c r="C84" s="360" t="s">
+      <c r="C84" s="354" t="s">
         <v>129</v>
       </c>
-      <c r="D84" s="361"/>
-      <c r="E84" s="367"/>
+      <c r="D84" s="355"/>
+      <c r="E84" s="356"/>
       <c r="F84" s="143" t="s">
         <v>130</v>
       </c>
       <c r="G84" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="H84" s="368" t="s">
+      <c r="H84" s="357" t="s">
         <v>129</v>
       </c>
-      <c r="I84" s="361"/>
-      <c r="J84" s="367"/>
+      <c r="I84" s="355"/>
+      <c r="J84" s="356"/>
       <c r="K84" s="143" t="s">
         <v>130</v>
       </c>
       <c r="L84" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="M84" s="360" t="s">
+      <c r="M84" s="354" t="s">
         <v>129</v>
       </c>
-      <c r="N84" s="361"/>
-      <c r="O84" s="367"/>
+      <c r="N84" s="355"/>
+      <c r="O84" s="356"/>
       <c r="P84" s="143" t="s">
         <v>130</v>
       </c>
       <c r="Q84" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="R84" s="360" t="s">
+      <c r="R84" s="354" t="s">
         <v>129</v>
       </c>
-      <c r="S84" s="361"/>
-      <c r="T84" s="367"/>
+      <c r="S84" s="355"/>
+      <c r="T84" s="356"/>
       <c r="U84" s="143" t="s">
         <v>130</v>
       </c>
@@ -20367,33 +20368,13 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="R83:T83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="M84:O84"/>
-    <mergeCell ref="R84:T84"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="H82:L82"/>
-    <mergeCell ref="M82:Q82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="M83:O83"/>
-    <mergeCell ref="R80:V80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="H81:L81"/>
-    <mergeCell ref="M81:Q81"/>
-    <mergeCell ref="R81:V81"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="C79:Q79"/>
-    <mergeCell ref="C80:Q80"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="M43:Q43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="M5:S5"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="M6:P6"/>
     <mergeCell ref="M7:P7"/>
@@ -20409,13 +20390,33 @@
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="M5:S5"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="M43:Q43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="C79:Q79"/>
+    <mergeCell ref="C80:Q80"/>
+    <mergeCell ref="R80:V80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:L81"/>
+    <mergeCell ref="M81:Q81"/>
+    <mergeCell ref="R81:V81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:L82"/>
+    <mergeCell ref="M82:Q82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="M83:O83"/>
+    <mergeCell ref="R83:T83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="M84:O84"/>
+    <mergeCell ref="R84:T84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20434,121 +20435,121 @@
     <row r="1" spans="1:23">
       <c r="A1" s="131"/>
       <c r="B1" s="132"/>
-      <c r="C1" s="357" t="s">
+      <c r="C1" s="359" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="358"/>
-      <c r="E1" s="358"/>
-      <c r="F1" s="358"/>
-      <c r="G1" s="358"/>
-      <c r="H1" s="358"/>
-      <c r="I1" s="358"/>
-      <c r="J1" s="358"/>
-      <c r="K1" s="358"/>
-      <c r="L1" s="358"/>
-      <c r="M1" s="358"/>
-      <c r="N1" s="358"/>
-      <c r="O1" s="358"/>
-      <c r="P1" s="358"/>
-      <c r="Q1" s="358"/>
-      <c r="R1" s="358"/>
-      <c r="S1" s="358"/>
-      <c r="T1" s="358"/>
-      <c r="U1" s="358"/>
-      <c r="V1" s="359"/>
+      <c r="D1" s="362"/>
+      <c r="E1" s="362"/>
+      <c r="F1" s="362"/>
+      <c r="G1" s="362"/>
+      <c r="H1" s="362"/>
+      <c r="I1" s="362"/>
+      <c r="J1" s="362"/>
+      <c r="K1" s="362"/>
+      <c r="L1" s="362"/>
+      <c r="M1" s="362"/>
+      <c r="N1" s="362"/>
+      <c r="O1" s="362"/>
+      <c r="P1" s="362"/>
+      <c r="Q1" s="362"/>
+      <c r="R1" s="362"/>
+      <c r="S1" s="362"/>
+      <c r="T1" s="362"/>
+      <c r="U1" s="362"/>
+      <c r="V1" s="364"/>
       <c r="W1" s="134"/>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="135"/>
       <c r="B2" s="136"/>
-      <c r="C2" s="401" t="s">
+      <c r="C2" s="407" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="402"/>
-      <c r="E2" s="402"/>
-      <c r="F2" s="402"/>
-      <c r="G2" s="402"/>
-      <c r="H2" s="402"/>
-      <c r="I2" s="402"/>
-      <c r="J2" s="402"/>
-      <c r="K2" s="402"/>
-      <c r="L2" s="402"/>
-      <c r="M2" s="402"/>
-      <c r="N2" s="402"/>
-      <c r="O2" s="402"/>
-      <c r="P2" s="402"/>
-      <c r="Q2" s="402"/>
-      <c r="R2" s="402"/>
-      <c r="S2" s="402"/>
-      <c r="T2" s="402"/>
-      <c r="U2" s="402"/>
-      <c r="V2" s="403"/>
+      <c r="D2" s="408"/>
+      <c r="E2" s="408"/>
+      <c r="F2" s="408"/>
+      <c r="G2" s="408"/>
+      <c r="H2" s="408"/>
+      <c r="I2" s="408"/>
+      <c r="J2" s="408"/>
+      <c r="K2" s="408"/>
+      <c r="L2" s="408"/>
+      <c r="M2" s="408"/>
+      <c r="N2" s="408"/>
+      <c r="O2" s="408"/>
+      <c r="P2" s="408"/>
+      <c r="Q2" s="408"/>
+      <c r="R2" s="408"/>
+      <c r="S2" s="408"/>
+      <c r="T2" s="408"/>
+      <c r="U2" s="408"/>
+      <c r="V2" s="410"/>
       <c r="W2" s="134"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="188"/>
       <c r="B3" s="136"/>
-      <c r="C3" s="357" t="s">
+      <c r="C3" s="359" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="363"/>
-      <c r="E3" s="363"/>
-      <c r="F3" s="363"/>
-      <c r="G3" s="364"/>
-      <c r="H3" s="358" t="s">
+      <c r="D3" s="360"/>
+      <c r="E3" s="360"/>
+      <c r="F3" s="360"/>
+      <c r="G3" s="361"/>
+      <c r="H3" s="362" t="s">
         <v>155</v>
       </c>
-      <c r="I3" s="363"/>
-      <c r="J3" s="363"/>
-      <c r="K3" s="363"/>
-      <c r="L3" s="363"/>
-      <c r="M3" s="365" t="s">
+      <c r="I3" s="360"/>
+      <c r="J3" s="360"/>
+      <c r="K3" s="360"/>
+      <c r="L3" s="360"/>
+      <c r="M3" s="363" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="363"/>
-      <c r="O3" s="363"/>
-      <c r="P3" s="363"/>
-      <c r="Q3" s="366"/>
-      <c r="R3" s="357" t="s">
+      <c r="N3" s="360"/>
+      <c r="O3" s="360"/>
+      <c r="P3" s="360"/>
+      <c r="Q3" s="365"/>
+      <c r="R3" s="359" t="s">
         <v>122</v>
       </c>
-      <c r="S3" s="363"/>
-      <c r="T3" s="363"/>
-      <c r="U3" s="363"/>
-      <c r="V3" s="366"/>
+      <c r="S3" s="360"/>
+      <c r="T3" s="360"/>
+      <c r="U3" s="360"/>
+      <c r="V3" s="365"/>
       <c r="W3" s="134"/>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="138"/>
       <c r="B4" s="136"/>
-      <c r="C4" s="401" t="s">
+      <c r="C4" s="407" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="402"/>
-      <c r="E4" s="402"/>
-      <c r="F4" s="402"/>
-      <c r="G4" s="404"/>
-      <c r="H4" s="361" t="s">
+      <c r="D4" s="408"/>
+      <c r="E4" s="408"/>
+      <c r="F4" s="408"/>
+      <c r="G4" s="409"/>
+      <c r="H4" s="355" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="361"/>
-      <c r="J4" s="361"/>
-      <c r="K4" s="361"/>
-      <c r="L4" s="361"/>
-      <c r="M4" s="368" t="s">
+      <c r="I4" s="355"/>
+      <c r="J4" s="355"/>
+      <c r="K4" s="355"/>
+      <c r="L4" s="355"/>
+      <c r="M4" s="357" t="s">
         <v>159</v>
       </c>
-      <c r="N4" s="361"/>
-      <c r="O4" s="361"/>
-      <c r="P4" s="361"/>
-      <c r="Q4" s="362"/>
-      <c r="R4" s="360" t="s">
+      <c r="N4" s="355"/>
+      <c r="O4" s="355"/>
+      <c r="P4" s="355"/>
+      <c r="Q4" s="358"/>
+      <c r="R4" s="354" t="s">
         <v>84</v>
       </c>
-      <c r="S4" s="361"/>
-      <c r="T4" s="361"/>
-      <c r="U4" s="361"/>
-      <c r="V4" s="362"/>
+      <c r="S4" s="355"/>
+      <c r="T4" s="355"/>
+      <c r="U4" s="355"/>
+      <c r="V4" s="358"/>
       <c r="W4" s="134"/>
     </row>
     <row r="5" spans="1:23">
@@ -20556,44 +20557,44 @@
         <v>85</v>
       </c>
       <c r="B5" s="139"/>
-      <c r="C5" s="357" t="s">
+      <c r="C5" s="359" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="363"/>
-      <c r="E5" s="364"/>
+      <c r="D5" s="360"/>
+      <c r="E5" s="361"/>
       <c r="F5" s="140" t="s">
         <v>127</v>
       </c>
       <c r="G5" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="358" t="s">
+      <c r="H5" s="362" t="s">
         <v>126</v>
       </c>
-      <c r="I5" s="363"/>
-      <c r="J5" s="364"/>
+      <c r="I5" s="360"/>
+      <c r="J5" s="361"/>
       <c r="K5" s="140" t="s">
         <v>127</v>
       </c>
       <c r="L5" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="M5" s="365" t="s">
+      <c r="M5" s="363" t="s">
         <v>126</v>
       </c>
-      <c r="N5" s="363"/>
-      <c r="O5" s="364"/>
+      <c r="N5" s="360"/>
+      <c r="O5" s="361"/>
       <c r="P5" s="140" t="s">
         <v>127</v>
       </c>
       <c r="Q5" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="R5" s="357" t="s">
+      <c r="R5" s="359" t="s">
         <v>126</v>
       </c>
-      <c r="S5" s="363"/>
-      <c r="T5" s="364"/>
+      <c r="S5" s="360"/>
+      <c r="T5" s="361"/>
       <c r="U5" s="140" t="s">
         <v>127</v>
       </c>
@@ -20605,44 +20606,44 @@
     <row r="6" spans="1:23">
       <c r="A6" s="138"/>
       <c r="B6" s="139"/>
-      <c r="C6" s="360" t="s">
+      <c r="C6" s="354" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="361"/>
-      <c r="E6" s="367"/>
+      <c r="D6" s="355"/>
+      <c r="E6" s="356"/>
       <c r="F6" s="143" t="s">
         <v>130</v>
       </c>
       <c r="G6" s="144" t="s">
         <v>130</v>
       </c>
-      <c r="H6" s="361" t="s">
+      <c r="H6" s="355" t="s">
         <v>129</v>
       </c>
-      <c r="I6" s="361"/>
-      <c r="J6" s="367"/>
+      <c r="I6" s="355"/>
+      <c r="J6" s="356"/>
       <c r="K6" s="143" t="s">
         <v>130</v>
       </c>
       <c r="L6" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="M6" s="368" t="s">
+      <c r="M6" s="357" t="s">
         <v>129</v>
       </c>
-      <c r="N6" s="361"/>
-      <c r="O6" s="367"/>
+      <c r="N6" s="355"/>
+      <c r="O6" s="356"/>
       <c r="P6" s="143" t="s">
         <v>130</v>
       </c>
       <c r="Q6" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="R6" s="360" t="s">
+      <c r="R6" s="354" t="s">
         <v>129</v>
       </c>
-      <c r="S6" s="361"/>
-      <c r="T6" s="367"/>
+      <c r="S6" s="355"/>
+      <c r="T6" s="356"/>
       <c r="U6" s="143" t="s">
         <v>130</v>
       </c>
@@ -22535,17 +22536,17 @@
       <c r="B40" s="244" t="s">
         <v>161</v>
       </c>
-      <c r="C40" s="409" t="s">
+      <c r="C40" s="405" t="s">
         <v>162</v>
       </c>
-      <c r="D40" s="406"/>
-      <c r="E40" s="406"/>
-      <c r="F40" s="406"/>
-      <c r="G40" s="406"/>
-      <c r="H40" s="406"/>
-      <c r="I40" s="406"/>
-      <c r="J40" s="406"/>
-      <c r="K40" s="406"/>
+      <c r="D40" s="402"/>
+      <c r="E40" s="402"/>
+      <c r="F40" s="402"/>
+      <c r="G40" s="402"/>
+      <c r="H40" s="402"/>
+      <c r="I40" s="402"/>
+      <c r="J40" s="402"/>
+      <c r="K40" s="402"/>
       <c r="L40" s="245"/>
       <c r="M40" s="246" t="s">
         <v>163</v>
@@ -22553,16 +22554,16 @@
       <c r="N40" s="247" t="s">
         <v>161</v>
       </c>
-      <c r="O40" s="410" t="s">
+      <c r="O40" s="406" t="s">
         <v>164</v>
       </c>
-      <c r="P40" s="406"/>
-      <c r="Q40" s="406"/>
-      <c r="R40" s="406"/>
-      <c r="S40" s="406"/>
-      <c r="T40" s="406"/>
-      <c r="U40" s="406"/>
-      <c r="V40" s="406"/>
+      <c r="P40" s="402"/>
+      <c r="Q40" s="402"/>
+      <c r="R40" s="402"/>
+      <c r="S40" s="402"/>
+      <c r="T40" s="402"/>
+      <c r="U40" s="402"/>
+      <c r="V40" s="402"/>
       <c r="W40" s="134"/>
     </row>
     <row r="41" spans="1:23">
@@ -22586,16 +22587,16 @@
       <c r="N41" s="244" t="s">
         <v>165</v>
       </c>
-      <c r="O41" s="405" t="s">
+      <c r="O41" s="401" t="s">
         <v>167</v>
       </c>
-      <c r="P41" s="406"/>
-      <c r="Q41" s="406"/>
-      <c r="R41" s="406"/>
-      <c r="S41" s="406"/>
-      <c r="T41" s="406"/>
-      <c r="U41" s="406"/>
-      <c r="V41" s="406"/>
+      <c r="P41" s="402"/>
+      <c r="Q41" s="402"/>
+      <c r="R41" s="402"/>
+      <c r="S41" s="402"/>
+      <c r="T41" s="402"/>
+      <c r="U41" s="402"/>
+      <c r="V41" s="402"/>
       <c r="W41" s="134"/>
     </row>
     <row r="42" spans="1:23">
@@ -22628,32 +22629,32 @@
       <c r="B43" s="244" t="s">
         <v>168</v>
       </c>
-      <c r="C43" s="407" t="s">
+      <c r="C43" s="403" t="s">
         <v>169</v>
       </c>
-      <c r="D43" s="406"/>
-      <c r="E43" s="406"/>
-      <c r="F43" s="406"/>
-      <c r="G43" s="406"/>
-      <c r="H43" s="406"/>
-      <c r="I43" s="406"/>
-      <c r="J43" s="406"/>
-      <c r="K43" s="406"/>
+      <c r="D43" s="402"/>
+      <c r="E43" s="402"/>
+      <c r="F43" s="402"/>
+      <c r="G43" s="402"/>
+      <c r="H43" s="402"/>
+      <c r="I43" s="402"/>
+      <c r="J43" s="402"/>
+      <c r="K43" s="402"/>
       <c r="L43" s="253"/>
       <c r="M43" s="254"/>
       <c r="N43" s="244" t="s">
         <v>168</v>
       </c>
-      <c r="O43" s="405" t="s">
+      <c r="O43" s="401" t="s">
         <v>170</v>
       </c>
-      <c r="P43" s="406"/>
-      <c r="Q43" s="406"/>
-      <c r="R43" s="406"/>
-      <c r="S43" s="406"/>
-      <c r="T43" s="406"/>
-      <c r="U43" s="406"/>
-      <c r="V43" s="406"/>
+      <c r="P43" s="402"/>
+      <c r="Q43" s="402"/>
+      <c r="R43" s="402"/>
+      <c r="S43" s="402"/>
+      <c r="T43" s="402"/>
+      <c r="U43" s="402"/>
+      <c r="V43" s="402"/>
       <c r="W43" s="134"/>
     </row>
     <row r="44" spans="1:23">
@@ -22669,12 +22670,12 @@
       <c r="J44" s="253"/>
       <c r="K44" s="253"/>
       <c r="L44" s="253"/>
-      <c r="M44" s="408"/>
-      <c r="N44" s="408"/>
-      <c r="O44" s="408"/>
-      <c r="P44" s="408"/>
-      <c r="Q44" s="408"/>
-      <c r="R44" s="408"/>
+      <c r="M44" s="404"/>
+      <c r="N44" s="404"/>
+      <c r="O44" s="404"/>
+      <c r="P44" s="404"/>
+      <c r="Q44" s="404"/>
+      <c r="R44" s="404"/>
       <c r="S44" s="134"/>
       <c r="T44" s="134"/>
       <c r="U44" s="134"/>
@@ -22683,6 +22684,20 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="C2:V2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="R4:V4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="R5:T5"/>
     <mergeCell ref="O41:V41"/>
     <mergeCell ref="C43:K43"/>
     <mergeCell ref="O43:V43"/>
@@ -22693,20 +22708,6 @@
     <mergeCell ref="R6:T6"/>
     <mergeCell ref="C40:K40"/>
     <mergeCell ref="O40:V40"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="R4:V4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="C2:V2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:V3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22755,85 +22756,85 @@
       <c r="E2" s="310"/>
       <c r="F2" s="257"/>
       <c r="G2" s="258"/>
-      <c r="H2" s="357" t="s">
+      <c r="H2" s="359" t="s">
         <v>171</v>
       </c>
-      <c r="I2" s="358"/>
-      <c r="J2" s="358"/>
-      <c r="K2" s="358"/>
-      <c r="L2" s="358"/>
-      <c r="M2" s="358"/>
-      <c r="N2" s="358"/>
-      <c r="O2" s="358"/>
-      <c r="P2" s="358"/>
-      <c r="Q2" s="358"/>
-      <c r="R2" s="358"/>
-      <c r="S2" s="358"/>
-      <c r="T2" s="358"/>
-      <c r="U2" s="358"/>
-      <c r="V2" s="359"/>
+      <c r="I2" s="362"/>
+      <c r="J2" s="362"/>
+      <c r="K2" s="362"/>
+      <c r="L2" s="362"/>
+      <c r="M2" s="362"/>
+      <c r="N2" s="362"/>
+      <c r="O2" s="362"/>
+      <c r="P2" s="362"/>
+      <c r="Q2" s="362"/>
+      <c r="R2" s="362"/>
+      <c r="S2" s="362"/>
+      <c r="T2" s="362"/>
+      <c r="U2" s="362"/>
+      <c r="V2" s="364"/>
       <c r="W2" s="134"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="135"/>
       <c r="B3" s="133"/>
-      <c r="C3" s="411" t="s">
+      <c r="C3" s="412" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="381"/>
-      <c r="E3" s="381"/>
-      <c r="F3" s="381"/>
-      <c r="G3" s="399"/>
-      <c r="H3" s="360" t="s">
+      <c r="D3" s="377"/>
+      <c r="E3" s="377"/>
+      <c r="F3" s="377"/>
+      <c r="G3" s="378"/>
+      <c r="H3" s="354" t="s">
         <v>173</v>
       </c>
-      <c r="I3" s="361"/>
-      <c r="J3" s="361"/>
-      <c r="K3" s="361"/>
-      <c r="L3" s="361"/>
-      <c r="M3" s="361"/>
-      <c r="N3" s="361"/>
-      <c r="O3" s="361"/>
-      <c r="P3" s="361"/>
-      <c r="Q3" s="361"/>
-      <c r="R3" s="361"/>
-      <c r="S3" s="361"/>
-      <c r="T3" s="361"/>
-      <c r="U3" s="361"/>
-      <c r="V3" s="362"/>
+      <c r="I3" s="355"/>
+      <c r="J3" s="355"/>
+      <c r="K3" s="355"/>
+      <c r="L3" s="355"/>
+      <c r="M3" s="355"/>
+      <c r="N3" s="355"/>
+      <c r="O3" s="355"/>
+      <c r="P3" s="355"/>
+      <c r="Q3" s="355"/>
+      <c r="R3" s="355"/>
+      <c r="S3" s="355"/>
+      <c r="T3" s="355"/>
+      <c r="U3" s="355"/>
+      <c r="V3" s="358"/>
       <c r="W3" s="134"/>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="188"/>
       <c r="B4" s="133"/>
-      <c r="C4" s="398" t="s">
+      <c r="C4" s="376" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="381"/>
-      <c r="E4" s="381"/>
-      <c r="F4" s="381"/>
-      <c r="G4" s="399"/>
-      <c r="H4" s="358" t="s">
+      <c r="D4" s="377"/>
+      <c r="E4" s="377"/>
+      <c r="F4" s="377"/>
+      <c r="G4" s="378"/>
+      <c r="H4" s="362" t="s">
         <v>175</v>
       </c>
-      <c r="I4" s="363"/>
-      <c r="J4" s="363"/>
-      <c r="K4" s="363"/>
-      <c r="L4" s="363"/>
-      <c r="M4" s="365" t="s">
+      <c r="I4" s="360"/>
+      <c r="J4" s="360"/>
+      <c r="K4" s="360"/>
+      <c r="L4" s="360"/>
+      <c r="M4" s="363" t="s">
         <v>176</v>
       </c>
-      <c r="N4" s="363"/>
-      <c r="O4" s="363"/>
-      <c r="P4" s="363"/>
-      <c r="Q4" s="366"/>
-      <c r="R4" s="357" t="s">
+      <c r="N4" s="360"/>
+      <c r="O4" s="360"/>
+      <c r="P4" s="360"/>
+      <c r="Q4" s="365"/>
+      <c r="R4" s="359" t="s">
         <v>122</v>
       </c>
-      <c r="S4" s="363"/>
-      <c r="T4" s="363"/>
-      <c r="U4" s="363"/>
-      <c r="V4" s="366"/>
+      <c r="S4" s="360"/>
+      <c r="T4" s="360"/>
+      <c r="U4" s="360"/>
+      <c r="V4" s="365"/>
       <c r="W4" s="134"/>
     </row>
     <row r="5" spans="1:23">
@@ -22844,27 +22845,27 @@
       <c r="E5" s="309"/>
       <c r="F5" s="234"/>
       <c r="G5" s="235"/>
-      <c r="H5" s="361" t="s">
+      <c r="H5" s="355" t="s">
         <v>177</v>
       </c>
-      <c r="I5" s="361"/>
-      <c r="J5" s="361"/>
-      <c r="K5" s="361"/>
-      <c r="L5" s="361"/>
-      <c r="M5" s="368" t="s">
+      <c r="I5" s="355"/>
+      <c r="J5" s="355"/>
+      <c r="K5" s="355"/>
+      <c r="L5" s="355"/>
+      <c r="M5" s="357" t="s">
         <v>178</v>
       </c>
-      <c r="N5" s="361"/>
-      <c r="O5" s="361"/>
-      <c r="P5" s="361"/>
-      <c r="Q5" s="362"/>
-      <c r="R5" s="412" t="s">
+      <c r="N5" s="355"/>
+      <c r="O5" s="355"/>
+      <c r="P5" s="355"/>
+      <c r="Q5" s="358"/>
+      <c r="R5" s="411" t="s">
         <v>84</v>
       </c>
-      <c r="S5" s="376"/>
-      <c r="T5" s="376"/>
-      <c r="U5" s="376"/>
-      <c r="V5" s="378"/>
+      <c r="S5" s="397"/>
+      <c r="T5" s="397"/>
+      <c r="U5" s="397"/>
+      <c r="V5" s="399"/>
       <c r="W5" s="134"/>
     </row>
     <row r="6" spans="1:23">
@@ -22872,44 +22873,44 @@
         <v>85</v>
       </c>
       <c r="B6" s="210"/>
-      <c r="C6" s="357" t="s">
+      <c r="C6" s="359" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="363"/>
-      <c r="E6" s="364"/>
+      <c r="D6" s="360"/>
+      <c r="E6" s="361"/>
       <c r="F6" s="140" t="s">
         <v>127</v>
       </c>
       <c r="G6" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="H6" s="358" t="s">
+      <c r="H6" s="362" t="s">
         <v>126</v>
       </c>
-      <c r="I6" s="363"/>
-      <c r="J6" s="364"/>
+      <c r="I6" s="360"/>
+      <c r="J6" s="361"/>
       <c r="K6" s="140" t="s">
         <v>127</v>
       </c>
       <c r="L6" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="M6" s="365" t="s">
+      <c r="M6" s="363" t="s">
         <v>126</v>
       </c>
-      <c r="N6" s="363"/>
-      <c r="O6" s="364"/>
+      <c r="N6" s="360"/>
+      <c r="O6" s="361"/>
       <c r="P6" s="140" t="s">
         <v>127</v>
       </c>
       <c r="Q6" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="R6" s="357" t="s">
+      <c r="R6" s="359" t="s">
         <v>126</v>
       </c>
-      <c r="S6" s="363"/>
-      <c r="T6" s="364"/>
+      <c r="S6" s="360"/>
+      <c r="T6" s="361"/>
       <c r="U6" s="140" t="s">
         <v>127</v>
       </c>
@@ -22921,44 +22922,44 @@
     <row r="7" spans="1:23">
       <c r="A7" s="146"/>
       <c r="B7" s="210"/>
-      <c r="C7" s="360" t="s">
+      <c r="C7" s="354" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="361"/>
-      <c r="E7" s="367"/>
+      <c r="D7" s="355"/>
+      <c r="E7" s="356"/>
       <c r="F7" s="143" t="s">
         <v>130</v>
       </c>
       <c r="G7" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="H7" s="361" t="s">
+      <c r="H7" s="355" t="s">
         <v>129</v>
       </c>
-      <c r="I7" s="361"/>
-      <c r="J7" s="367"/>
+      <c r="I7" s="355"/>
+      <c r="J7" s="356"/>
       <c r="K7" s="143" t="s">
         <v>130</v>
       </c>
       <c r="L7" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="M7" s="368" t="s">
+      <c r="M7" s="357" t="s">
         <v>129</v>
       </c>
-      <c r="N7" s="361"/>
-      <c r="O7" s="367"/>
+      <c r="N7" s="355"/>
+      <c r="O7" s="356"/>
       <c r="P7" s="143" t="s">
         <v>130</v>
       </c>
       <c r="Q7" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="R7" s="360" t="s">
+      <c r="R7" s="354" t="s">
         <v>129</v>
       </c>
-      <c r="S7" s="361"/>
-      <c r="T7" s="367"/>
+      <c r="S7" s="355"/>
+      <c r="T7" s="356"/>
       <c r="U7" s="143" t="s">
         <v>130</v>
       </c>
@@ -24893,17 +24894,17 @@
       <c r="M42" s="244" t="s">
         <v>180</v>
       </c>
-      <c r="N42" s="405" t="s">
+      <c r="N42" s="401" t="s">
         <v>183</v>
       </c>
-      <c r="O42" s="406"/>
-      <c r="P42" s="406"/>
-      <c r="Q42" s="406"/>
-      <c r="R42" s="406"/>
-      <c r="S42" s="406"/>
-      <c r="T42" s="406"/>
-      <c r="U42" s="406"/>
-      <c r="V42" s="406"/>
+      <c r="O42" s="402"/>
+      <c r="P42" s="402"/>
+      <c r="Q42" s="402"/>
+      <c r="R42" s="402"/>
+      <c r="S42" s="402"/>
+      <c r="T42" s="402"/>
+      <c r="U42" s="402"/>
+      <c r="V42" s="402"/>
       <c r="W42" s="134"/>
     </row>
     <row r="43" spans="1:23">
@@ -24926,17 +24927,17 @@
       <c r="M43" s="244" t="s">
         <v>184</v>
       </c>
-      <c r="N43" s="407" t="s">
+      <c r="N43" s="403" t="s">
         <v>186</v>
       </c>
-      <c r="O43" s="406"/>
-      <c r="P43" s="406"/>
-      <c r="Q43" s="406"/>
-      <c r="R43" s="406"/>
-      <c r="S43" s="406"/>
-      <c r="T43" s="406"/>
-      <c r="U43" s="406"/>
-      <c r="V43" s="406"/>
+      <c r="O43" s="402"/>
+      <c r="P43" s="402"/>
+      <c r="Q43" s="402"/>
+      <c r="R43" s="402"/>
+      <c r="S43" s="402"/>
+      <c r="T43" s="402"/>
+      <c r="U43" s="402"/>
+      <c r="V43" s="402"/>
       <c r="W43" s="134"/>
     </row>
     <row r="44" spans="1:23">
@@ -24966,6 +24967,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H2:V2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:V3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="R4:V4"/>
     <mergeCell ref="N43:V43"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="M5:Q5"/>
@@ -24979,13 +24987,6 @@
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="R7:T7"/>
     <mergeCell ref="N42:V42"/>
-    <mergeCell ref="H2:V2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:V3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="R4:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25091,15 +25092,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -25333,6 +25325,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -25343,14 +25344,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BACA46F2-BB41-4CFA-AE39-345154E41770}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA1706BA-46E7-4AAD-A478-0EC19B60D96E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25366,6 +25359,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BACA46F2-BB41-4CFA-AE39-345154E41770}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
